--- a/OralB_analysis.xlsx
+++ b/OralB_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528"/>
   </bookViews>
   <sheets>
     <sheet name="Зубные щетки" sheetId="1" r:id="rId1"/>
@@ -1409,7 +1409,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1541,9 +1541,6 @@
     <xf numFmtId="3" fontId="4" fillId="4" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="11" fillId="4" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1559,9 +1556,6 @@
     <xf numFmtId="3" fontId="4" fillId="4" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1728,9 +1722,6 @@
     <xf numFmtId="3" fontId="4" fillId="4" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1738,9 +1729,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3479,8 +3467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U77"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3489,33 +3477,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="152"/>
-      <c r="B1" s="153"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="159" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="155" t="s">
+      <c r="A1" s="148"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="155" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="156" t="s">
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="157"/>
-      <c r="S1" s="157"/>
-      <c r="T1" s="158"/>
-      <c r="U1" s="80"/>
+      <c r="P1" s="153"/>
+      <c r="Q1" s="153"/>
+      <c r="R1" s="153"/>
+      <c r="S1" s="153"/>
+      <c r="T1" s="154"/>
+      <c r="U1" s="78"/>
     </row>
     <row r="2" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -3539,13 +3527,13 @@
       <c r="G2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="81" t="s">
+      <c r="I2" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="50" t="s">
         <v>19</v>
       </c>
       <c r="K2" s="30" t="s">
@@ -3560,7 +3548,7 @@
       <c r="N2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="109" t="s">
+      <c r="O2" s="106" t="s">
         <v>36</v>
       </c>
       <c r="P2" s="30" t="s">
@@ -3575,15 +3563,15 @@
       <c r="S2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="77" t="s">
+      <c r="T2" s="75" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="101" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="36" t="s">
@@ -3601,13 +3589,13 @@
       <c r="G3" s="18">
         <v>1462.8</v>
       </c>
-      <c r="H3" s="66">
+      <c r="H3" s="64">
         <v>1312</v>
       </c>
-      <c r="I3" s="82" t="s">
+      <c r="I3" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="53">
+      <c r="J3" s="51">
         <v>191.95720692209321</v>
       </c>
       <c r="K3" s="41">
@@ -3619,13 +3607,13 @@
       <c r="M3" s="41">
         <v>216.38089103471299</v>
       </c>
-      <c r="N3" s="48">
+      <c r="N3" s="47">
         <v>235.44710480018614</v>
       </c>
-      <c r="O3" s="110" t="s">
+      <c r="O3" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="61">
+      <c r="P3" s="59">
         <v>6.6131615140452502E-2</v>
       </c>
       <c r="Q3" s="6">
@@ -3637,15 +3625,15 @@
       <c r="S3" s="6">
         <v>0.248588930045161</v>
       </c>
-      <c r="T3" s="74">
+      <c r="T3" s="72">
         <v>0.22989331963696799</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="101" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="36" t="s">
@@ -3663,13 +3651,13 @@
       <c r="G4" s="18">
         <v>2778.4</v>
       </c>
-      <c r="H4" s="66">
+      <c r="H4" s="64">
         <v>2493.1999999999998</v>
       </c>
-      <c r="I4" s="82" t="s">
+      <c r="I4" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="53">
+      <c r="J4" s="51">
         <v>168.65354650786475</v>
       </c>
       <c r="K4" s="41">
@@ -3681,13 +3669,13 @@
       <c r="M4" s="41">
         <v>178.12100884649271</v>
       </c>
-      <c r="N4" s="48">
+      <c r="N4" s="47">
         <v>227.55405766060056</v>
       </c>
-      <c r="O4" s="110" t="s">
+      <c r="O4" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="61">
+      <c r="P4" s="59">
         <v>0.135404131377239</v>
       </c>
       <c r="Q4" s="6">
@@ -3699,15 +3687,15 @@
       <c r="S4" s="6">
         <v>0.89617577930511105</v>
       </c>
-      <c r="T4" s="74">
+      <c r="T4" s="72">
         <v>0.75065706784299202</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="101" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="36" t="s">
@@ -3725,13 +3713,13 @@
       <c r="G5" s="18">
         <v>2778.4</v>
       </c>
-      <c r="H5" s="66">
+      <c r="H5" s="64">
         <v>2493.1999999999998</v>
       </c>
-      <c r="I5" s="82" t="s">
+      <c r="I5" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="53">
+      <c r="J5" s="51">
         <v>173.86514017043831</v>
       </c>
       <c r="K5" s="41">
@@ -3743,13 +3731,13 @@
       <c r="M5" s="41">
         <v>158.08907957660193</v>
       </c>
-      <c r="N5" s="118">
+      <c r="N5" s="114">
         <v>232.0406871758473</v>
       </c>
-      <c r="O5" s="116" t="s">
+      <c r="O5" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="61">
+      <c r="P5" s="59">
         <v>2.05938146192144E-2</v>
       </c>
       <c r="Q5" s="6">
@@ -3761,15 +3749,15 @@
       <c r="S5" s="6">
         <v>0.57791057438718896</v>
       </c>
-      <c r="T5" s="74">
+      <c r="T5" s="72">
         <v>0.58504509006710403</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="101" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="36" t="s">
@@ -3787,13 +3775,13 @@
       <c r="G6" s="18">
         <v>4530.7</v>
       </c>
-      <c r="H6" s="66">
+      <c r="H6" s="64">
         <v>2488.8000000000002</v>
       </c>
-      <c r="I6" s="82" t="s">
+      <c r="I6" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="53">
+      <c r="J6" s="51">
         <v>165.56513747195251</v>
       </c>
       <c r="K6" s="41">
@@ -3805,13 +3793,13 @@
       <c r="M6" s="41">
         <v>182.59790712369264</v>
       </c>
-      <c r="N6" s="48">
+      <c r="N6" s="47">
         <v>240.28610832984705</v>
       </c>
-      <c r="O6" s="120" t="s">
+      <c r="O6" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="61">
+      <c r="P6" s="59">
         <v>0.148654188327207</v>
       </c>
       <c r="Q6" s="6">
@@ -3823,18 +3811,18 @@
       <c r="S6" s="6">
         <v>0.83045820306745699</v>
       </c>
-      <c r="T6" s="74">
+      <c r="T6" s="72">
         <v>0.39475828029092702</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="87" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="145" t="s">
+      <c r="C7" s="141" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="14">
@@ -3849,48 +3837,53 @@
       <c r="G7" s="19">
         <v>12010.2</v>
       </c>
-      <c r="H7" s="67">
+      <c r="H7" s="65">
         <v>9448.5</v>
       </c>
-      <c r="I7" s="83" t="s">
+      <c r="I7" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="54">
-        <v>172.77017322106028</v>
-      </c>
-      <c r="K7" s="46">
-        <v>188.07069194561191</v>
-      </c>
-      <c r="L7" s="46">
-        <v>184.29912410651457</v>
-      </c>
-      <c r="M7" s="46">
-        <v>182.93116594393672</v>
-      </c>
-      <c r="N7" s="49">
-        <v>232.274477406074</v>
-      </c>
-      <c r="O7" s="144" t="s">
+      <c r="J7" s="52">
+        <f>AVERAGE(J3:J6)</f>
+        <v>175.0102577680872</v>
+      </c>
+      <c r="K7" s="52">
+        <f t="shared" ref="K7:N7" si="0">AVERAGE(K3:K6)</f>
+        <v>184.9820108198823</v>
+      </c>
+      <c r="L7" s="52">
+        <f t="shared" si="0"/>
+        <v>188.15947138069458</v>
+      </c>
+      <c r="M7" s="52">
+        <f t="shared" si="0"/>
+        <v>183.79722164537506</v>
+      </c>
+      <c r="N7" s="52">
+        <f t="shared" si="0"/>
+        <v>233.83198949162025</v>
+      </c>
+      <c r="O7" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="59">
+      <c r="P7" s="57">
         <f>SUM(P3:P6)</f>
         <v>0.37078374946411291</v>
       </c>
-      <c r="Q7" s="57">
-        <f t="shared" ref="Q7:T7" si="0">SUM(Q3:Q6)</f>
+      <c r="Q7" s="55">
+        <f t="shared" ref="Q7:T7" si="1">SUM(Q3:Q6)</f>
         <v>2.132841881081065</v>
       </c>
-      <c r="R7" s="57">
-        <f t="shared" si="0"/>
+      <c r="R7" s="55">
+        <f t="shared" si="1"/>
         <v>2.8535787537627471</v>
       </c>
-      <c r="S7" s="57">
-        <f t="shared" si="0"/>
+      <c r="S7" s="55">
+        <f t="shared" si="1"/>
         <v>2.553133486804918</v>
       </c>
-      <c r="T7" s="78">
-        <f t="shared" si="0"/>
+      <c r="T7" s="76">
+        <f t="shared" si="1"/>
         <v>1.9603537578379913</v>
       </c>
     </row>
@@ -3898,7 +3891,7 @@
       <c r="A8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="102" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="37" t="s">
@@ -3916,13 +3909,13 @@
       <c r="G8" s="20">
         <v>1137</v>
       </c>
-      <c r="H8" s="68">
+      <c r="H8" s="66">
         <v>1647.9</v>
       </c>
-      <c r="I8" s="82" t="s">
+      <c r="I8" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="55">
+      <c r="J8" s="53">
         <v>0</v>
       </c>
       <c r="K8" s="44">
@@ -3934,13 +3927,13 @@
       <c r="M8" s="44">
         <v>187.95184393547504</v>
       </c>
-      <c r="N8" s="50">
+      <c r="N8" s="49">
         <v>206.84484195209467</v>
       </c>
-      <c r="O8" s="117" t="s">
+      <c r="O8" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="55">
+      <c r="P8" s="53">
         <v>0</v>
       </c>
       <c r="Q8" s="44">
@@ -3952,7 +3945,7 @@
       <c r="S8" s="44">
         <v>187.95184393547504</v>
       </c>
-      <c r="T8" s="63">
+      <c r="T8" s="61">
         <v>206.84484195209467</v>
       </c>
     </row>
@@ -3960,7 +3953,7 @@
       <c r="A9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="101" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="36" t="s">
@@ -3978,13 +3971,13 @@
       <c r="G9" s="18">
         <v>8346.5</v>
       </c>
-      <c r="H9" s="66">
+      <c r="H9" s="64">
         <v>9747.1</v>
       </c>
-      <c r="I9" s="82" t="s">
+      <c r="I9" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="53">
+      <c r="J9" s="51">
         <v>0</v>
       </c>
       <c r="K9" s="41">
@@ -3996,10 +3989,10 @@
       <c r="M9" s="41">
         <v>150.2896068857612</v>
       </c>
-      <c r="N9" s="48">
+      <c r="N9" s="47">
         <v>173.23128890240204</v>
       </c>
-      <c r="O9" s="119" t="s">
+      <c r="O9" s="115" t="s">
         <v>4</v>
       </c>
       <c r="P9" s="41">
@@ -4014,7 +4007,7 @@
       <c r="S9" s="41">
         <v>150.2896068857612</v>
       </c>
-      <c r="T9" s="62">
+      <c r="T9" s="60">
         <v>173.23128890240204</v>
       </c>
     </row>
@@ -4022,7 +4015,7 @@
       <c r="A10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="101" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="36" t="s">
@@ -4040,13 +4033,13 @@
       <c r="G10" s="18">
         <v>3290.9</v>
       </c>
-      <c r="H10" s="66">
+      <c r="H10" s="64">
         <v>5078.5</v>
       </c>
-      <c r="I10" s="82" t="s">
+      <c r="I10" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="53">
+      <c r="J10" s="51">
         <v>0</v>
       </c>
       <c r="K10" s="41">
@@ -4058,13 +4051,13 @@
       <c r="M10" s="41">
         <v>140.03747810760822</v>
       </c>
-      <c r="N10" s="48">
+      <c r="N10" s="47">
         <v>176.94104956540357</v>
       </c>
-      <c r="O10" s="110" t="s">
+      <c r="O10" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="53">
+      <c r="P10" s="51">
         <v>0</v>
       </c>
       <c r="Q10" s="41">
@@ -4076,7 +4069,7 @@
       <c r="S10" s="41">
         <v>140.03747810760822</v>
       </c>
-      <c r="T10" s="62">
+      <c r="T10" s="60">
         <v>176.94104956540357</v>
       </c>
     </row>
@@ -4084,7 +4077,7 @@
       <c r="A11" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="101" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="36" t="s">
@@ -4102,13 +4095,13 @@
       <c r="G11" s="18">
         <v>18258.7</v>
       </c>
-      <c r="H11" s="66">
+      <c r="H11" s="64">
         <v>25182.7</v>
       </c>
-      <c r="I11" s="82" t="s">
+      <c r="I11" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="53">
+      <c r="J11" s="51">
         <v>0</v>
       </c>
       <c r="K11" s="41">
@@ -4120,13 +4113,13 @@
       <c r="M11" s="41">
         <v>147.12862961086921</v>
       </c>
-      <c r="N11" s="48">
+      <c r="N11" s="47">
         <v>188.44159524511352</v>
       </c>
-      <c r="O11" s="110" t="s">
+      <c r="O11" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P11" s="53">
+      <c r="P11" s="51">
         <v>0</v>
       </c>
       <c r="Q11" s="41">
@@ -4138,7 +4131,7 @@
       <c r="S11" s="41">
         <v>147.12862961086921</v>
       </c>
-      <c r="T11" s="62">
+      <c r="T11" s="60">
         <v>188.44159524511352</v>
       </c>
     </row>
@@ -4149,7 +4142,7 @@
       <c r="B12" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="146" t="s">
+      <c r="C12" s="142" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="13">
@@ -4164,48 +4157,52 @@
       <c r="G12" s="19">
         <v>34493.1</v>
       </c>
-      <c r="H12" s="67">
+      <c r="H12" s="65">
         <v>47526.5</v>
       </c>
-      <c r="I12" s="83" t="s">
+      <c r="I12" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="54">
-        <v>0</v>
-      </c>
-      <c r="K12" s="46">
+      <c r="J12" s="52">
+        <f>AVERAGE(J8:J11)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="52">
+        <v>223</v>
+      </c>
+      <c r="L12" s="52">
+        <f t="shared" ref="L12" si="2">AVERAGE(L8:L11)</f>
+        <v>183.36696481948533</v>
+      </c>
+      <c r="M12" s="52">
+        <f t="shared" ref="M12" si="3">AVERAGE(M8:M11)</f>
+        <v>156.35188963492843</v>
+      </c>
+      <c r="N12" s="52">
+        <f t="shared" ref="N12" si="4">AVERAGE(N8:N11)</f>
+        <v>186.36469391625343</v>
+      </c>
+      <c r="O12" s="108" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="57">
+        <f>SUM(P8:P11)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="55">
+        <f t="shared" ref="Q12" si="5">SUM(Q8:Q11)</f>
         <v>222.96560000000002</v>
       </c>
-      <c r="L12" s="46">
-        <v>154.93478925566356</v>
-      </c>
-      <c r="M12" s="46">
-        <v>147.56727964766333</v>
-      </c>
-      <c r="N12" s="49">
-        <v>183.59173603837581</v>
-      </c>
-      <c r="O12" s="111" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" s="59">
-        <f>SUM(P8:P11)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="57">
-        <f t="shared" ref="Q12" si="1">SUM(Q8:Q11)</f>
-        <v>222.96560000000002</v>
-      </c>
-      <c r="R12" s="57">
-        <f t="shared" ref="R12" si="2">SUM(R8:R11)</f>
+      <c r="R12" s="55">
+        <f t="shared" ref="R12" si="6">SUM(R8:R11)</f>
         <v>733.46785927794133</v>
       </c>
-      <c r="S12" s="57">
-        <f t="shared" ref="S12" si="3">SUM(S8:S11)</f>
+      <c r="S12" s="55">
+        <f t="shared" ref="S12" si="7">SUM(S8:S11)</f>
         <v>625.4075585397137</v>
       </c>
-      <c r="T12" s="78">
-        <f t="shared" ref="T12" si="4">SUM(T8:T11)</f>
+      <c r="T12" s="76">
+        <f t="shared" ref="T12" si="8">SUM(T8:T11)</f>
         <v>745.45877566501372</v>
       </c>
     </row>
@@ -4213,7 +4210,7 @@
       <c r="A13" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="102" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="37" t="s">
@@ -4231,13 +4228,13 @@
       <c r="G13" s="20">
         <v>4928</v>
       </c>
-      <c r="H13" s="68">
+      <c r="H13" s="66">
         <v>5702.8</v>
       </c>
-      <c r="I13" s="82" t="s">
+      <c r="I13" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="55">
+      <c r="J13" s="53">
         <v>0</v>
       </c>
       <c r="K13" s="44">
@@ -4249,13 +4246,13 @@
       <c r="M13" s="44">
         <v>178.55437214177076</v>
       </c>
-      <c r="N13" s="50">
+      <c r="N13" s="49">
         <v>192.56408635488714</v>
       </c>
-      <c r="O13" s="110" t="s">
+      <c r="O13" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="P13" s="55">
+      <c r="P13" s="53">
         <v>0</v>
       </c>
       <c r="Q13" s="44">
@@ -4267,7 +4264,7 @@
       <c r="S13" s="44">
         <v>178.55437214177076</v>
       </c>
-      <c r="T13" s="63">
+      <c r="T13" s="61">
         <v>192.56408635488714</v>
       </c>
     </row>
@@ -4275,7 +4272,7 @@
       <c r="A14" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="101" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="36" t="s">
@@ -4293,13 +4290,13 @@
       <c r="G14" s="18">
         <v>3863.3</v>
       </c>
-      <c r="H14" s="66">
+      <c r="H14" s="64">
         <v>6499.3</v>
       </c>
-      <c r="I14" s="82" t="s">
+      <c r="I14" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="53">
+      <c r="J14" s="51">
         <v>0</v>
       </c>
       <c r="K14" s="41">
@@ -4311,13 +4308,13 @@
       <c r="M14" s="41">
         <v>158.87126155811541</v>
       </c>
-      <c r="N14" s="48">
+      <c r="N14" s="47">
         <v>187.6187338453943</v>
       </c>
-      <c r="O14" s="110" t="s">
+      <c r="O14" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="53">
+      <c r="P14" s="51">
         <v>0</v>
       </c>
       <c r="Q14" s="41">
@@ -4329,7 +4326,7 @@
       <c r="S14" s="41">
         <v>158.87126155811541</v>
       </c>
-      <c r="T14" s="62">
+      <c r="T14" s="60">
         <v>187.6187338453943</v>
       </c>
     </row>
@@ -4337,7 +4334,7 @@
       <c r="A15" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="101" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="36" t="s">
@@ -4355,13 +4352,13 @@
       <c r="G15" s="18">
         <v>1248.2</v>
       </c>
-      <c r="H15" s="66">
+      <c r="H15" s="64">
         <v>1774.1</v>
       </c>
-      <c r="I15" s="82" t="s">
+      <c r="I15" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="53">
+      <c r="J15" s="51">
         <v>0</v>
       </c>
       <c r="K15" s="41">
@@ -4373,13 +4370,13 @@
       <c r="M15" s="41">
         <v>152.60878765318247</v>
       </c>
-      <c r="N15" s="48">
+      <c r="N15" s="47">
         <v>192.34505125201312</v>
       </c>
-      <c r="O15" s="110" t="s">
+      <c r="O15" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="53">
+      <c r="P15" s="51">
         <v>0</v>
       </c>
       <c r="Q15" s="41">
@@ -4391,7 +4388,7 @@
       <c r="S15" s="41">
         <v>152.60878765318247</v>
       </c>
-      <c r="T15" s="62">
+      <c r="T15" s="60">
         <v>192.34505125201312</v>
       </c>
     </row>
@@ -4399,7 +4396,7 @@
       <c r="A16" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="101" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="36" t="s">
@@ -4417,13 +4414,13 @@
       <c r="G16" s="18">
         <v>6968.4</v>
       </c>
-      <c r="H16" s="66">
+      <c r="H16" s="64">
         <v>4783.3</v>
       </c>
-      <c r="I16" s="82" t="s">
+      <c r="I16" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="53">
+      <c r="J16" s="51">
         <v>0</v>
       </c>
       <c r="K16" s="41">
@@ -4435,13 +4432,13 @@
       <c r="M16" s="41">
         <v>159.80184033729461</v>
       </c>
-      <c r="N16" s="48">
+      <c r="N16" s="47">
         <v>201.06449489511073</v>
       </c>
-      <c r="O16" s="110" t="s">
+      <c r="O16" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P16" s="53">
+      <c r="P16" s="51">
         <v>0</v>
       </c>
       <c r="Q16" s="41">
@@ -4453,7 +4450,7 @@
       <c r="S16" s="41">
         <v>159.80184033729461</v>
       </c>
-      <c r="T16" s="62">
+      <c r="T16" s="60">
         <v>201.06449489511073</v>
       </c>
     </row>
@@ -4464,7 +4461,7 @@
       <c r="B17" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="146" t="s">
+      <c r="C17" s="142" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="13">
@@ -4479,48 +4476,48 @@
       <c r="G17" s="19">
         <v>19310.400000000001</v>
       </c>
-      <c r="H17" s="67">
+      <c r="H17" s="65">
         <v>21720.2</v>
       </c>
-      <c r="I17" s="84" t="s">
+      <c r="I17" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="J17" s="54">
-        <v>0</v>
-      </c>
-      <c r="K17" s="46">
-        <v>0</v>
-      </c>
-      <c r="L17" s="46">
+      <c r="J17" s="52">
+        <v>0</v>
+      </c>
+      <c r="K17" s="45">
+        <v>0</v>
+      </c>
+      <c r="L17" s="45">
         <v>171.87149220205424</v>
       </c>
-      <c r="M17" s="46">
+      <c r="M17" s="45">
         <v>163.66734584694896</v>
       </c>
-      <c r="N17" s="49">
+      <c r="N17" s="48">
         <v>194.46378004005643</v>
       </c>
-      <c r="O17" s="111" t="s">
+      <c r="O17" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="P17" s="59">
+      <c r="P17" s="57">
         <f>SUM(P13:P16)</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="57">
-        <f t="shared" ref="Q17" si="5">SUM(Q13:Q16)</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="57">
-        <f t="shared" ref="R17" si="6">SUM(R13:R16)</f>
+      <c r="Q17" s="55">
+        <f t="shared" ref="Q17" si="9">SUM(Q13:Q16)</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="55">
+        <f t="shared" ref="R17" si="10">SUM(R13:R16)</f>
         <v>719.85173132332693</v>
       </c>
-      <c r="S17" s="57">
-        <f t="shared" ref="S17" si="7">SUM(S13:S16)</f>
+      <c r="S17" s="55">
+        <f t="shared" ref="S17" si="11">SUM(S13:S16)</f>
         <v>649.83626169036324</v>
       </c>
-      <c r="T17" s="78">
-        <f t="shared" ref="T17" si="8">SUM(T13:T16)</f>
+      <c r="T17" s="76">
+        <f t="shared" ref="T17" si="12">SUM(T13:T16)</f>
         <v>773.59236634740523</v>
       </c>
     </row>
@@ -4528,7 +4525,7 @@
       <c r="A18" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="102" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="37" t="s">
@@ -4546,13 +4543,13 @@
       <c r="G18" s="6">
         <v>1458.9686153999999</v>
       </c>
-      <c r="H18" s="69">
+      <c r="H18" s="67">
         <v>1745.6753527799997</v>
       </c>
-      <c r="I18" s="85" t="s">
+      <c r="I18" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="55">
+      <c r="J18" s="53">
         <v>0</v>
       </c>
       <c r="K18" s="44">
@@ -4564,13 +4561,13 @@
       <c r="M18" s="44">
         <v>188.36696325682436</v>
       </c>
-      <c r="N18" s="50">
+      <c r="N18" s="49">
         <v>204.64017537702367</v>
       </c>
-      <c r="O18" s="113" t="s">
+      <c r="O18" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="P18" s="55">
+      <c r="P18" s="53">
         <v>0</v>
       </c>
       <c r="Q18" s="44">
@@ -4582,7 +4579,7 @@
       <c r="S18" s="44">
         <v>188.36696325682436</v>
       </c>
-      <c r="T18" s="63">
+      <c r="T18" s="61">
         <v>204.64017537702367</v>
       </c>
     </row>
@@ -4590,7 +4587,7 @@
       <c r="A19" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="102" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="37" t="s">
@@ -4608,13 +4605,13 @@
       <c r="G19" s="6">
         <v>14524.560118559999</v>
       </c>
-      <c r="H19" s="69">
+      <c r="H19" s="67">
         <v>10251.201132959999</v>
       </c>
-      <c r="I19" s="85" t="s">
+      <c r="I19" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="53">
+      <c r="J19" s="51">
         <v>157.62744102672539</v>
       </c>
       <c r="K19" s="41">
@@ -4626,13 +4623,13 @@
       <c r="M19" s="41">
         <v>156.42710034595416</v>
       </c>
-      <c r="N19" s="48">
+      <c r="N19" s="47">
         <v>192.68320244896469</v>
       </c>
-      <c r="O19" s="113" t="s">
+      <c r="O19" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="P19" s="53">
+      <c r="P19" s="51">
         <v>157.62744102672539</v>
       </c>
       <c r="Q19" s="41">
@@ -4644,7 +4641,7 @@
       <c r="S19" s="41">
         <v>156.42710034595416</v>
       </c>
-      <c r="T19" s="62">
+      <c r="T19" s="60">
         <v>192.68320244896469</v>
       </c>
     </row>
@@ -4652,7 +4649,7 @@
       <c r="A20" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="104" t="s">
+      <c r="B20" s="102" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="36" t="s">
@@ -4670,13 +4667,13 @@
       <c r="G20" s="6">
         <v>5472.8225724599997</v>
       </c>
-      <c r="H20" s="69">
+      <c r="H20" s="67">
         <v>6600.6651475799999</v>
       </c>
-      <c r="I20" s="82" t="s">
+      <c r="I20" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="53">
+      <c r="J20" s="51">
         <v>0</v>
       </c>
       <c r="K20" s="41">
@@ -4688,13 +4685,13 @@
       <c r="M20" s="41">
         <v>154.55579123292767</v>
       </c>
-      <c r="N20" s="48">
+      <c r="N20" s="47">
         <v>184.6893444712305</v>
       </c>
-      <c r="O20" s="110" t="s">
+      <c r="O20" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="53">
+      <c r="P20" s="51">
         <v>0</v>
       </c>
       <c r="Q20" s="41">
@@ -4706,7 +4703,7 @@
       <c r="S20" s="41">
         <v>154.55579123292767</v>
       </c>
-      <c r="T20" s="62">
+      <c r="T20" s="60">
         <v>184.6893444712305</v>
       </c>
     </row>
@@ -4714,7 +4711,7 @@
       <c r="A21" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="104" t="s">
+      <c r="B21" s="102" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="36" t="s">
@@ -4732,13 +4729,13 @@
       <c r="G21" s="6">
         <v>1616.8953306000001</v>
       </c>
-      <c r="H21" s="69">
+      <c r="H21" s="67">
         <v>726.86223906000009</v>
       </c>
-      <c r="I21" s="82" t="s">
+      <c r="I21" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="53">
+      <c r="J21" s="51">
         <v>135.02255180359663</v>
       </c>
       <c r="K21" s="41">
@@ -4750,13 +4747,13 @@
       <c r="M21" s="41">
         <v>165.85701829937128</v>
       </c>
-      <c r="N21" s="48">
+      <c r="N21" s="47">
         <v>193.04080121958518</v>
       </c>
-      <c r="O21" s="110" t="s">
+      <c r="O21" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="53">
+      <c r="P21" s="51">
         <v>135.02255180359663</v>
       </c>
       <c r="Q21" s="41">
@@ -4768,7 +4765,7 @@
       <c r="S21" s="41">
         <v>165.85701829937128</v>
       </c>
-      <c r="T21" s="62">
+      <c r="T21" s="60">
         <v>193.04080121958518</v>
       </c>
     </row>
@@ -4776,7 +4773,7 @@
       <c r="A22" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="104" t="s">
+      <c r="B22" s="102" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="36" t="s">
@@ -4794,13 +4791,13 @@
       <c r="G22" s="6">
         <v>140.95447332000001</v>
       </c>
-      <c r="H22" s="69">
+      <c r="H22" s="67">
         <v>164.92366235999998</v>
       </c>
-      <c r="I22" s="82" t="s">
+      <c r="I22" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="J22" s="53">
+      <c r="J22" s="51">
         <v>0</v>
       </c>
       <c r="K22" s="41">
@@ -4812,13 +4809,13 @@
       <c r="M22" s="41">
         <v>189.30463426800642</v>
       </c>
-      <c r="N22" s="48">
+      <c r="N22" s="47">
         <v>209.19480105646409</v>
       </c>
-      <c r="O22" s="110" t="s">
+      <c r="O22" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="P22" s="53">
+      <c r="P22" s="51">
         <v>0</v>
       </c>
       <c r="Q22" s="41">
@@ -4830,7 +4827,7 @@
       <c r="S22" s="41">
         <v>189.30463426800642</v>
       </c>
-      <c r="T22" s="62">
+      <c r="T22" s="60">
         <v>209.19480105646409</v>
       </c>
     </row>
@@ -4838,7 +4835,7 @@
       <c r="A23" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="104" t="s">
+      <c r="B23" s="102" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="36" t="s">
@@ -4856,13 +4853,13 @@
       <c r="G23" s="6">
         <v>1437.64100214</v>
       </c>
-      <c r="H23" s="69">
+      <c r="H23" s="67">
         <v>1765.82371758</v>
       </c>
-      <c r="I23" s="82" t="s">
+      <c r="I23" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="53">
+      <c r="J23" s="51">
         <v>141.05480351305545</v>
       </c>
       <c r="K23" s="41">
@@ -4874,13 +4871,13 @@
       <c r="M23" s="41">
         <v>176.17428800386159</v>
       </c>
-      <c r="N23" s="48">
+      <c r="N23" s="47">
         <v>169.11514600007573</v>
       </c>
-      <c r="O23" s="110" t="s">
+      <c r="O23" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="P23" s="53">
+      <c r="P23" s="51">
         <v>141.05480351305545</v>
       </c>
       <c r="Q23" s="41">
@@ -4892,7 +4889,7 @@
       <c r="S23" s="41">
         <v>176.17428800386159</v>
       </c>
-      <c r="T23" s="62">
+      <c r="T23" s="60">
         <v>169.11514600007573</v>
       </c>
     </row>
@@ -4900,7 +4897,7 @@
       <c r="A24" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="102" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="36" t="s">
@@ -4918,13 +4915,13 @@
       <c r="G24" s="6">
         <v>1666.1466743999999</v>
       </c>
-      <c r="H24" s="69">
+      <c r="H24" s="67">
         <v>2115.9301406999998</v>
       </c>
-      <c r="I24" s="82" t="s">
+      <c r="I24" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="53">
+      <c r="J24" s="51">
         <v>0</v>
       </c>
       <c r="K24" s="41">
@@ -4936,13 +4933,13 @@
       <c r="M24" s="41">
         <v>193.9444022141432</v>
       </c>
-      <c r="N24" s="48">
+      <c r="N24" s="47">
         <v>213.63921951441213</v>
       </c>
-      <c r="O24" s="110" t="s">
+      <c r="O24" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P24" s="53">
+      <c r="P24" s="51">
         <v>0</v>
       </c>
       <c r="Q24" s="41">
@@ -4954,7 +4951,7 @@
       <c r="S24" s="41">
         <v>193.9444022141432</v>
       </c>
-      <c r="T24" s="62">
+      <c r="T24" s="60">
         <v>213.63921951441213</v>
       </c>
     </row>
@@ -4962,7 +4959,7 @@
       <c r="A25" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="104" t="s">
+      <c r="B25" s="102" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="36" t="s">
@@ -4980,13 +4977,13 @@
       <c r="G25" s="6">
         <v>7762.1689344599999</v>
       </c>
-      <c r="H25" s="69">
+      <c r="H25" s="67">
         <v>7020.4825566</v>
       </c>
-      <c r="I25" s="82" t="s">
+      <c r="I25" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="J25" s="53">
+      <c r="J25" s="51">
         <v>145.96525444797643</v>
       </c>
       <c r="K25" s="41">
@@ -4998,13 +4995,13 @@
       <c r="M25" s="41">
         <v>176.28367414890235</v>
       </c>
-      <c r="N25" s="48">
+      <c r="N25" s="47">
         <v>174.400010177377</v>
       </c>
-      <c r="O25" s="110" t="s">
+      <c r="O25" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P25" s="53">
+      <c r="P25" s="51">
         <v>145.96525444797643</v>
       </c>
       <c r="Q25" s="41">
@@ -5016,7 +5013,7 @@
       <c r="S25" s="41">
         <v>176.28367414890235</v>
       </c>
-      <c r="T25" s="62">
+      <c r="T25" s="60">
         <v>174.400010177377</v>
       </c>
     </row>
@@ -5027,7 +5024,7 @@
       <c r="B26" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="146" t="s">
+      <c r="C26" s="142" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="14">
@@ -5042,53 +5039,53 @@
       <c r="G26" s="19">
         <v>39193.1</v>
       </c>
-      <c r="H26" s="67">
+      <c r="H26" s="65">
         <v>34607.300000000003</v>
       </c>
-      <c r="I26" s="84" t="s">
+      <c r="I26" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="56">
-        <f>SUM(J18:J25)</f>
-        <v>579.6700507913539</v>
-      </c>
-      <c r="K26" s="47">
-        <f t="shared" ref="K26:N26" si="9">SUM(K18:K25)</f>
-        <v>807.65434689959579</v>
-      </c>
-      <c r="L26" s="47">
-        <f t="shared" si="9"/>
-        <v>1444.3856349085286</v>
-      </c>
-      <c r="M26" s="47">
-        <f t="shared" si="9"/>
-        <v>1400.9138717699909</v>
-      </c>
-      <c r="N26" s="51">
-        <f t="shared" si="9"/>
-        <v>1541.402700265133</v>
-      </c>
-      <c r="O26" s="111" t="s">
+      <c r="J26" s="54">
+        <f>AVERAGE(J19,J21:J23,J25)</f>
+        <v>115.93401015827078</v>
+      </c>
+      <c r="K26" s="54">
+        <f>AVERAGE(K19,K21:K23,K25)</f>
+        <v>117.61270937991915</v>
+      </c>
+      <c r="L26" s="46">
+        <f>AVERAGE(L18:L25)</f>
+        <v>180.54820436356607</v>
+      </c>
+      <c r="M26" s="46">
+        <f t="shared" ref="M26:N26" si="13">AVERAGE(M18:M25)</f>
+        <v>175.11423397124886</v>
+      </c>
+      <c r="N26" s="46">
+        <f t="shared" si="13"/>
+        <v>192.67533753314163</v>
+      </c>
+      <c r="O26" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="P26" s="59">
+      <c r="P26" s="57">
         <f>SUM(P18:P25)</f>
         <v>579.6700507913539</v>
       </c>
-      <c r="Q26" s="57">
-        <f t="shared" ref="Q26" si="10">SUM(Q22:Q25)</f>
+      <c r="Q26" s="55">
+        <f t="shared" ref="Q26" si="14">SUM(Q22:Q25)</f>
         <v>516.98697249388226</v>
       </c>
-      <c r="R26" s="57">
-        <f t="shared" ref="R26" si="11">SUM(R22:R25)</f>
+      <c r="R26" s="55">
+        <f t="shared" ref="R26" si="15">SUM(R22:R25)</f>
         <v>790.70886904858321</v>
       </c>
-      <c r="S26" s="57">
-        <f t="shared" ref="S26" si="12">SUM(S22:S25)</f>
+      <c r="S26" s="55">
+        <f t="shared" ref="S26" si="16">SUM(S22:S25)</f>
         <v>735.70699863491359</v>
       </c>
-      <c r="T26" s="78">
-        <f t="shared" ref="T26" si="13">SUM(T22:T25)</f>
+      <c r="T26" s="76">
+        <f t="shared" ref="T26" si="17">SUM(T22:T25)</f>
         <v>766.349176748329</v>
       </c>
     </row>
@@ -5096,7 +5093,7 @@
       <c r="A27" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="104" t="s">
+      <c r="B27" s="102" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="37" t="s">
@@ -5114,13 +5111,13 @@
       <c r="G27" s="20">
         <v>5860.8</v>
       </c>
-      <c r="H27" s="68">
+      <c r="H27" s="66">
         <v>5179.3</v>
       </c>
-      <c r="I27" s="82" t="s">
+      <c r="I27" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="55">
+      <c r="J27" s="53">
         <v>0</v>
       </c>
       <c r="K27" s="44">
@@ -5132,13 +5129,13 @@
       <c r="M27" s="44">
         <v>183.37492723485366</v>
       </c>
-      <c r="N27" s="50">
+      <c r="N27" s="49">
         <v>210.84453866666706</v>
       </c>
-      <c r="O27" s="110" t="s">
+      <c r="O27" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="P27" s="55">
+      <c r="P27" s="53">
         <v>0</v>
       </c>
       <c r="Q27" s="44">
@@ -5150,7 +5147,7 @@
       <c r="S27" s="44">
         <v>183.37492723485366</v>
       </c>
-      <c r="T27" s="63">
+      <c r="T27" s="61">
         <v>210.84453866666706</v>
       </c>
     </row>
@@ -5158,7 +5155,7 @@
       <c r="A28" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="103" t="s">
+      <c r="B28" s="101" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="36" t="s">
@@ -5176,13 +5173,13 @@
       <c r="G28" s="18">
         <v>7116.9</v>
       </c>
-      <c r="H28" s="66">
+      <c r="H28" s="64">
         <v>8248.6</v>
       </c>
-      <c r="I28" s="82" t="s">
+      <c r="I28" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="J28" s="53">
+      <c r="J28" s="51">
         <v>0</v>
       </c>
       <c r="K28" s="41">
@@ -5194,13 +5191,13 @@
       <c r="M28" s="41">
         <v>184.94126846474825</v>
       </c>
-      <c r="N28" s="48">
+      <c r="N28" s="47">
         <v>221.96709380153538</v>
       </c>
-      <c r="O28" s="110" t="s">
+      <c r="O28" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="P28" s="53">
+      <c r="P28" s="51">
         <v>0</v>
       </c>
       <c r="Q28" s="41">
@@ -5212,7 +5209,7 @@
       <c r="S28" s="41">
         <v>184.94126846474825</v>
       </c>
-      <c r="T28" s="62">
+      <c r="T28" s="60">
         <v>221.96709380153538</v>
       </c>
     </row>
@@ -5220,7 +5217,7 @@
       <c r="A29" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="103" t="s">
+      <c r="B29" s="101" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="36" t="s">
@@ -5238,13 +5235,13 @@
       <c r="G29" s="21">
         <v>36.700000000000003</v>
       </c>
-      <c r="H29" s="70">
+      <c r="H29" s="68">
         <v>50.1</v>
       </c>
-      <c r="I29" s="82" t="s">
+      <c r="I29" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="J29" s="53">
+      <c r="J29" s="51">
         <v>0</v>
       </c>
       <c r="K29" s="41">
@@ -5256,13 +5253,13 @@
       <c r="M29" s="41">
         <v>213.64181245901668</v>
       </c>
-      <c r="N29" s="48">
+      <c r="N29" s="47">
         <v>222.27080838323394</v>
       </c>
-      <c r="O29" s="110" t="s">
+      <c r="O29" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="P29" s="53">
+      <c r="P29" s="51">
         <v>0</v>
       </c>
       <c r="Q29" s="41">
@@ -5274,7 +5271,7 @@
       <c r="S29" s="41">
         <v>213.64181245901668</v>
       </c>
-      <c r="T29" s="62">
+      <c r="T29" s="60">
         <v>222.27080838323394</v>
       </c>
     </row>
@@ -5282,7 +5279,7 @@
       <c r="A30" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="101" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="36" t="s">
@@ -5300,13 +5297,13 @@
       <c r="G30" s="18">
         <v>1410.6</v>
       </c>
-      <c r="H30" s="66">
+      <c r="H30" s="64">
         <v>1469.2</v>
       </c>
-      <c r="I30" s="82" t="s">
+      <c r="I30" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="J30" s="53">
+      <c r="J30" s="51">
         <v>0</v>
       </c>
       <c r="K30" s="41">
@@ -5318,13 +5315,13 @@
       <c r="M30" s="41">
         <v>200.36954278816563</v>
       </c>
-      <c r="N30" s="48">
+      <c r="N30" s="47">
         <v>232.96641357771267</v>
       </c>
-      <c r="O30" s="110" t="s">
+      <c r="O30" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P30" s="53">
+      <c r="P30" s="51">
         <v>0</v>
       </c>
       <c r="Q30" s="41">
@@ -5336,7 +5333,7 @@
       <c r="S30" s="41">
         <v>200.36954278816563</v>
       </c>
-      <c r="T30" s="62">
+      <c r="T30" s="60">
         <v>232.96641357771267</v>
       </c>
     </row>
@@ -5347,7 +5344,7 @@
       <c r="B31" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="146" t="s">
+      <c r="C31" s="142" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="13">
@@ -5362,53 +5359,53 @@
       <c r="G31" s="19">
         <v>15637.3</v>
       </c>
-      <c r="H31" s="67">
+      <c r="H31" s="65">
         <v>16129</v>
       </c>
-      <c r="I31" s="84" t="s">
+      <c r="I31" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="J31" s="56">
-        <f>SUM(J27:J30)</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="47">
-        <f t="shared" ref="K31:N31" si="14">SUM(K27:K30)</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="47">
-        <f t="shared" si="14"/>
+      <c r="J31" s="52">
+        <f>AVERAGE(J27:J30)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="52">
+        <f t="shared" ref="K31" si="18">AVERAGE(K27:K30)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="52">
+        <f t="shared" ref="L31" si="19">AVERAGE(L27:L30)</f>
+        <v>211.52541227679436</v>
+      </c>
+      <c r="M31" s="52">
+        <f t="shared" ref="M31" si="20">AVERAGE(M27:M30)</f>
+        <v>195.58188773669605</v>
+      </c>
+      <c r="N31" s="52">
+        <f t="shared" ref="N31" si="21">AVERAGE(N27:N30)</f>
+        <v>222.01221360728726</v>
+      </c>
+      <c r="O31" s="108" t="s">
+        <v>37</v>
+      </c>
+      <c r="P31" s="57">
+        <f>SUM(P27:P30)</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="55">
+        <f t="shared" ref="Q31" si="22">SUM(Q27:Q30)</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="55">
+        <f t="shared" ref="R31" si="23">SUM(R27:R30)</f>
         <v>846.10164910717742</v>
       </c>
-      <c r="M31" s="47">
-        <f t="shared" si="14"/>
+      <c r="S31" s="55">
+        <f t="shared" ref="S31" si="24">SUM(S27:S30)</f>
         <v>782.32755094678419</v>
       </c>
-      <c r="N31" s="51">
-        <f t="shared" si="14"/>
-        <v>888.04885442914906</v>
-      </c>
-      <c r="O31" s="112" t="s">
-        <v>26</v>
-      </c>
-      <c r="P31" s="59">
-        <f>SUM(P27:P30)</f>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="57">
-        <f t="shared" ref="Q31" si="15">SUM(Q27:Q30)</f>
-        <v>0</v>
-      </c>
-      <c r="R31" s="57">
-        <f t="shared" ref="R31" si="16">SUM(R27:R30)</f>
-        <v>846.10164910717742</v>
-      </c>
-      <c r="S31" s="57">
-        <f t="shared" ref="S31" si="17">SUM(S27:S30)</f>
-        <v>782.32755094678419</v>
-      </c>
-      <c r="T31" s="78">
-        <f t="shared" ref="T31" si="18">SUM(T27:T30)</f>
+      <c r="T31" s="76">
+        <f t="shared" ref="T31" si="25">SUM(T27:T30)</f>
         <v>888.04885442914906</v>
       </c>
     </row>
@@ -5416,7 +5413,7 @@
       <c r="A32" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="104" t="s">
+      <c r="B32" s="102" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="37" t="s">
@@ -5434,13 +5431,13 @@
       <c r="G32" s="22">
         <v>11.7</v>
       </c>
-      <c r="H32" s="71">
+      <c r="H32" s="69">
         <v>330.9</v>
       </c>
-      <c r="I32" s="82" t="s">
+      <c r="I32" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="J32" s="55">
+      <c r="J32" s="53">
         <v>0</v>
       </c>
       <c r="K32" s="44">
@@ -5452,13 +5449,13 @@
       <c r="M32" s="44">
         <v>251.19838841978341</v>
       </c>
-      <c r="N32" s="50">
+      <c r="N32" s="49">
         <v>242.6268502104476</v>
       </c>
-      <c r="O32" s="110" t="s">
+      <c r="O32" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="P32" s="55">
+      <c r="P32" s="53">
         <v>0</v>
       </c>
       <c r="Q32" s="44">
@@ -5470,7 +5467,7 @@
       <c r="S32" s="44">
         <v>251.19838841978341</v>
       </c>
-      <c r="T32" s="63">
+      <c r="T32" s="61">
         <v>242.6268502104476</v>
       </c>
     </row>
@@ -5478,7 +5475,7 @@
       <c r="A33" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="103" t="s">
+      <c r="B33" s="101" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="36" t="s">
@@ -5496,13 +5493,13 @@
       <c r="G33" s="21">
         <v>216.7</v>
       </c>
-      <c r="H33" s="66">
+      <c r="H33" s="64">
         <v>2081.4</v>
       </c>
-      <c r="I33" s="82" t="s">
+      <c r="I33" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="53">
+      <c r="J33" s="51">
         <v>0</v>
       </c>
       <c r="K33" s="41">
@@ -5514,13 +5511,13 @@
       <c r="M33" s="41">
         <v>208.68652622453411</v>
       </c>
-      <c r="N33" s="48">
+      <c r="N33" s="47">
         <v>215.57247332835959</v>
       </c>
-      <c r="O33" s="110" t="s">
+      <c r="O33" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="P33" s="53">
+      <c r="P33" s="51">
         <v>0</v>
       </c>
       <c r="Q33" s="41">
@@ -5532,7 +5529,7 @@
       <c r="S33" s="41">
         <v>208.68652622453411</v>
       </c>
-      <c r="T33" s="62">
+      <c r="T33" s="60">
         <v>215.57247332835959</v>
       </c>
     </row>
@@ -5540,7 +5537,7 @@
       <c r="A34" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="103" t="s">
+      <c r="B34" s="101" t="s">
         <v>6</v>
       </c>
       <c r="C34" s="36" t="s">
@@ -5558,13 +5555,13 @@
       <c r="G34" s="21">
         <v>0</v>
       </c>
-      <c r="H34" s="70">
+      <c r="H34" s="68">
         <v>67.900000000000006</v>
       </c>
-      <c r="I34" s="82" t="s">
+      <c r="I34" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="J34" s="53">
+      <c r="J34" s="51">
         <v>0</v>
       </c>
       <c r="K34" s="41">
@@ -5576,13 +5573,13 @@
       <c r="M34" s="41">
         <v>0</v>
       </c>
-      <c r="N34" s="48">
+      <c r="N34" s="47">
         <v>205.04101630434823</v>
       </c>
-      <c r="O34" s="110" t="s">
+      <c r="O34" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="P34" s="53">
+      <c r="P34" s="51">
         <v>0</v>
       </c>
       <c r="Q34" s="41">
@@ -5594,7 +5591,7 @@
       <c r="S34" s="41">
         <v>0</v>
       </c>
-      <c r="T34" s="62">
+      <c r="T34" s="60">
         <v>205.04101630434823</v>
       </c>
     </row>
@@ -5602,7 +5599,7 @@
       <c r="A35" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="103" t="s">
+      <c r="B35" s="101" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="36" t="s">
@@ -5620,13 +5617,13 @@
       <c r="G35" s="21">
         <v>5.2</v>
       </c>
-      <c r="H35" s="70">
+      <c r="H35" s="68">
         <v>625.20000000000005</v>
       </c>
-      <c r="I35" s="82" t="s">
+      <c r="I35" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="53">
+      <c r="J35" s="51">
         <v>0</v>
       </c>
       <c r="K35" s="41">
@@ -5638,13 +5635,13 @@
       <c r="M35" s="41">
         <v>230.82422055137818</v>
       </c>
-      <c r="N35" s="48">
+      <c r="N35" s="47">
         <v>261.75827879359105</v>
       </c>
-      <c r="O35" s="110" t="s">
+      <c r="O35" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P35" s="53">
+      <c r="P35" s="51">
         <v>0</v>
       </c>
       <c r="Q35" s="41">
@@ -5656,7 +5653,7 @@
       <c r="S35" s="41">
         <v>230.82422055137818</v>
       </c>
-      <c r="T35" s="62">
+      <c r="T35" s="60">
         <v>261.75827879359105</v>
       </c>
     </row>
@@ -5667,7 +5664,7 @@
       <c r="B36" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="146" t="s">
+      <c r="C36" s="142" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="13">
@@ -5682,53 +5679,53 @@
       <c r="G36" s="19">
         <v>4489.6000000000004</v>
       </c>
-      <c r="H36" s="67">
+      <c r="H36" s="65">
         <v>5032.1000000000004</v>
       </c>
-      <c r="I36" s="84" t="s">
+      <c r="I36" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="J36" s="56">
-        <f>SUM(J32:J35)</f>
-        <v>0</v>
-      </c>
-      <c r="K36" s="47">
-        <f t="shared" ref="K36:N36" si="19">SUM(K32:K35)</f>
-        <v>0</v>
-      </c>
-      <c r="L36" s="47">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="47">
-        <f t="shared" si="19"/>
+      <c r="J36" s="52">
+        <f>AVERAGE(J32:J35)</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="52">
+        <f t="shared" ref="K36" si="26">AVERAGE(K32:K35)</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="52">
+        <f t="shared" ref="L36" si="27">AVERAGE(L32:L35)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="52">
+        <f>AVERAGE(M32,M33,M35)</f>
+        <v>230.23637839856522</v>
+      </c>
+      <c r="N36" s="52">
+        <f t="shared" ref="N36" si="28">AVERAGE(N32:N35)</f>
+        <v>231.2496546591866</v>
+      </c>
+      <c r="O36" s="108" t="s">
+        <v>37</v>
+      </c>
+      <c r="P36" s="57">
+        <f>SUM(P32:P35)</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="55">
+        <f t="shared" ref="Q36" si="29">SUM(Q32:Q35)</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="55">
+        <f t="shared" ref="R36" si="30">SUM(R32:R35)</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="55">
+        <f t="shared" ref="S36" si="31">SUM(S32:S35)</f>
         <v>690.70913519569569</v>
       </c>
-      <c r="N36" s="51">
-        <f t="shared" si="19"/>
-        <v>924.99861863674641</v>
-      </c>
-      <c r="O36" s="112" t="s">
-        <v>26</v>
-      </c>
-      <c r="P36" s="59">
-        <f>SUM(P32:P35)</f>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="57">
-        <f t="shared" ref="Q36" si="20">SUM(Q32:Q35)</f>
-        <v>0</v>
-      </c>
-      <c r="R36" s="57">
-        <f t="shared" ref="R36" si="21">SUM(R32:R35)</f>
-        <v>0</v>
-      </c>
-      <c r="S36" s="57">
-        <f t="shared" ref="S36" si="22">SUM(S32:S35)</f>
-        <v>690.70913519569569</v>
-      </c>
-      <c r="T36" s="78">
-        <f t="shared" ref="T36" si="23">SUM(T32:T35)</f>
+      <c r="T36" s="76">
+        <f t="shared" ref="T36" si="32">SUM(T32:T35)</f>
         <v>924.99861863674641</v>
       </c>
     </row>
@@ -5736,7 +5733,7 @@
       <c r="A37" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="104" t="s">
+      <c r="B37" s="102" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="37" t="s">
@@ -5754,13 +5751,13 @@
       <c r="G37" s="22">
         <v>184.2</v>
       </c>
-      <c r="H37" s="71">
+      <c r="H37" s="69">
         <v>271.5</v>
       </c>
-      <c r="I37" s="82" t="s">
+      <c r="I37" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="J37" s="55">
+      <c r="J37" s="53">
         <v>0</v>
       </c>
       <c r="K37" s="44">
@@ -5772,13 +5769,13 @@
       <c r="M37" s="44">
         <v>204.82652952952938</v>
       </c>
-      <c r="N37" s="50">
+      <c r="N37" s="49">
         <v>240.29025440780933</v>
       </c>
-      <c r="O37" s="110" t="s">
+      <c r="O37" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="P37" s="55">
+      <c r="P37" s="53">
         <v>0</v>
       </c>
       <c r="Q37" s="44">
@@ -5790,7 +5787,7 @@
       <c r="S37" s="44">
         <v>204.82652952952938</v>
       </c>
-      <c r="T37" s="63">
+      <c r="T37" s="61">
         <v>240.29025440780933</v>
       </c>
     </row>
@@ -5798,7 +5795,7 @@
       <c r="A38" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="103" t="s">
+      <c r="B38" s="101" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="36" t="s">
@@ -5816,13 +5813,13 @@
       <c r="G38" s="18">
         <v>3539.5</v>
       </c>
-      <c r="H38" s="66">
+      <c r="H38" s="64">
         <v>3948.9</v>
       </c>
-      <c r="I38" s="82" t="s">
+      <c r="I38" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="J38" s="53">
+      <c r="J38" s="51">
         <v>0</v>
       </c>
       <c r="K38" s="41">
@@ -5834,13 +5831,13 @@
       <c r="M38" s="41">
         <v>169.93985787778544</v>
       </c>
-      <c r="N38" s="48">
+      <c r="N38" s="47">
         <v>209.13519896520683</v>
       </c>
-      <c r="O38" s="110" t="s">
+      <c r="O38" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="P38" s="53">
+      <c r="P38" s="51">
         <v>0</v>
       </c>
       <c r="Q38" s="41">
@@ -5852,7 +5849,7 @@
       <c r="S38" s="41">
         <v>169.93985787778544</v>
       </c>
-      <c r="T38" s="62">
+      <c r="T38" s="60">
         <v>209.13519896520683</v>
       </c>
     </row>
@@ -5860,7 +5857,7 @@
       <c r="A39" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="103" t="s">
+      <c r="B39" s="101" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="36" t="s">
@@ -5878,13 +5875,13 @@
       <c r="G39" s="21">
         <v>17.600000000000001</v>
       </c>
-      <c r="H39" s="70">
+      <c r="H39" s="68">
         <v>20.3</v>
       </c>
-      <c r="I39" s="82" t="s">
+      <c r="I39" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="J39" s="53">
+      <c r="J39" s="51">
         <v>0</v>
       </c>
       <c r="K39" s="41">
@@ -5896,13 +5893,13 @@
       <c r="M39" s="41">
         <v>198.89101397712867</v>
       </c>
-      <c r="N39" s="48">
+      <c r="N39" s="47">
         <v>242.5080375838921</v>
       </c>
-      <c r="O39" s="110" t="s">
+      <c r="O39" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="P39" s="53">
+      <c r="P39" s="51">
         <v>0</v>
       </c>
       <c r="Q39" s="41">
@@ -5914,7 +5911,7 @@
       <c r="S39" s="41">
         <v>198.89101397712867</v>
       </c>
-      <c r="T39" s="62">
+      <c r="T39" s="60">
         <v>242.5080375838921</v>
       </c>
     </row>
@@ -5922,7 +5919,7 @@
       <c r="A40" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="103" t="s">
+      <c r="B40" s="101" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="36" t="s">
@@ -5940,13 +5937,13 @@
       <c r="G40" s="21">
         <v>679</v>
       </c>
-      <c r="H40" s="70">
+      <c r="H40" s="68">
         <v>597.20000000000005</v>
       </c>
-      <c r="I40" s="82" t="s">
+      <c r="I40" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="J40" s="53">
+      <c r="J40" s="51">
         <v>0</v>
       </c>
       <c r="K40" s="41">
@@ -5958,13 +5955,13 @@
       <c r="M40" s="41">
         <v>200.3911226706532</v>
       </c>
-      <c r="N40" s="48">
+      <c r="N40" s="47">
         <v>246.25550413069666</v>
       </c>
-      <c r="O40" s="110" t="s">
+      <c r="O40" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P40" s="53">
+      <c r="P40" s="51">
         <v>0</v>
       </c>
       <c r="Q40" s="41">
@@ -5976,7 +5973,7 @@
       <c r="S40" s="41">
         <v>200.3911226706532</v>
       </c>
-      <c r="T40" s="62">
+      <c r="T40" s="60">
         <v>246.25550413069666</v>
       </c>
     </row>
@@ -5987,7 +5984,7 @@
       <c r="B41" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="146" t="s">
+      <c r="C41" s="142" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="13">
@@ -6002,53 +5999,53 @@
       <c r="G41" s="19">
         <v>4489.6000000000004</v>
       </c>
-      <c r="H41" s="67">
+      <c r="H41" s="65">
         <v>5032.1000000000004</v>
       </c>
-      <c r="I41" s="84" t="s">
+      <c r="I41" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="J41" s="56">
-        <f>SUM(J37:J40)</f>
-        <v>0</v>
-      </c>
-      <c r="K41" s="47">
-        <f t="shared" ref="K41:N41" si="24">SUM(K37:K40)</f>
-        <v>0</v>
-      </c>
-      <c r="L41" s="47">
-        <f t="shared" si="24"/>
+      <c r="J41" s="52">
+        <f>AVERAGE(J37:J40)</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="52">
+        <f t="shared" ref="K41" si="33">AVERAGE(K37:K40)</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="52">
+        <f t="shared" ref="L41" si="34">AVERAGE(L37:L40)</f>
+        <v>209.85991262104386</v>
+      </c>
+      <c r="M41" s="52">
+        <f t="shared" ref="M41" si="35">AVERAGE(M37:M40)</f>
+        <v>193.51213101377417</v>
+      </c>
+      <c r="N41" s="52">
+        <f t="shared" ref="N41" si="36">AVERAGE(N37:N40)</f>
+        <v>234.54724877190122</v>
+      </c>
+      <c r="O41" s="108" t="s">
+        <v>37</v>
+      </c>
+      <c r="P41" s="57">
+        <f>SUM(P37:P40)</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="55">
+        <f t="shared" ref="Q41" si="37">SUM(Q37:Q40)</f>
+        <v>0</v>
+      </c>
+      <c r="R41" s="55">
+        <f t="shared" ref="R41" si="38">SUM(R37:R40)</f>
         <v>839.43965048417544</v>
       </c>
-      <c r="M41" s="47">
-        <f t="shared" si="24"/>
+      <c r="S41" s="55">
+        <f t="shared" ref="S41" si="39">SUM(S37:S40)</f>
         <v>774.04852405509666</v>
       </c>
-      <c r="N41" s="51">
-        <f t="shared" si="24"/>
-        <v>938.18899508760489</v>
-      </c>
-      <c r="O41" s="111" t="s">
-        <v>37</v>
-      </c>
-      <c r="P41" s="59">
-        <f>SUM(P37:P40)</f>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="57">
-        <f t="shared" ref="Q41" si="25">SUM(Q37:Q40)</f>
-        <v>0</v>
-      </c>
-      <c r="R41" s="57">
-        <f t="shared" ref="R41" si="26">SUM(R37:R40)</f>
-        <v>839.43965048417544</v>
-      </c>
-      <c r="S41" s="57">
-        <f t="shared" ref="S41" si="27">SUM(S37:S40)</f>
-        <v>774.04852405509666</v>
-      </c>
-      <c r="T41" s="78">
-        <f t="shared" ref="T41" si="28">SUM(T37:T40)</f>
+      <c r="T41" s="76">
+        <f t="shared" ref="T41" si="40">SUM(T37:T40)</f>
         <v>938.18899508760489</v>
       </c>
     </row>
@@ -6056,7 +6053,7 @@
       <c r="A42" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="104" t="s">
+      <c r="B42" s="102" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="37" t="s">
@@ -6074,13 +6071,13 @@
       <c r="G42" s="20">
         <v>4511.5</v>
       </c>
-      <c r="H42" s="68">
+      <c r="H42" s="66">
         <v>4529</v>
       </c>
-      <c r="I42" s="82" t="s">
+      <c r="I42" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="J42" s="55">
+      <c r="J42" s="53">
         <v>0</v>
       </c>
       <c r="K42" s="44">
@@ -6092,13 +6089,13 @@
       <c r="M42" s="44">
         <v>182.27693362285609</v>
       </c>
-      <c r="N42" s="50">
+      <c r="N42" s="49">
         <v>209.62642316388346</v>
       </c>
-      <c r="O42" s="110" t="s">
+      <c r="O42" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="P42" s="55">
+      <c r="P42" s="53">
         <v>0</v>
       </c>
       <c r="Q42" s="44">
@@ -6110,7 +6107,7 @@
       <c r="S42" s="44">
         <v>182.27693362285609</v>
       </c>
-      <c r="T42" s="63">
+      <c r="T42" s="61">
         <v>209.62642316388346</v>
       </c>
     </row>
@@ -6118,7 +6115,7 @@
       <c r="A43" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="103" t="s">
+      <c r="B43" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C43" s="36" t="s">
@@ -6136,13 +6133,13 @@
       <c r="G43" s="18">
         <v>2282.3000000000002</v>
       </c>
-      <c r="H43" s="66">
+      <c r="H43" s="64">
         <v>3024</v>
       </c>
-      <c r="I43" s="82" t="s">
+      <c r="I43" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="53">
+      <c r="J43" s="51">
         <v>0</v>
       </c>
       <c r="K43" s="41">
@@ -6154,13 +6151,13 @@
       <c r="M43" s="41">
         <v>178.69291996686533</v>
       </c>
-      <c r="N43" s="48">
+      <c r="N43" s="47">
         <v>202.47686545635466</v>
       </c>
-      <c r="O43" s="110" t="s">
+      <c r="O43" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="53">
+      <c r="P43" s="51">
         <v>0</v>
       </c>
       <c r="Q43" s="41">
@@ -6172,7 +6169,7 @@
       <c r="S43" s="41">
         <v>178.69291996686533</v>
       </c>
-      <c r="T43" s="62">
+      <c r="T43" s="60">
         <v>202.47686545635466</v>
       </c>
     </row>
@@ -6180,7 +6177,7 @@
       <c r="A44" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="103" t="s">
+      <c r="B44" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="36" t="s">
@@ -6198,13 +6195,13 @@
       <c r="G44" s="21">
         <v>5.7</v>
       </c>
-      <c r="H44" s="70">
+      <c r="H44" s="68">
         <v>10.6</v>
       </c>
-      <c r="I44" s="82" t="s">
+      <c r="I44" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="J44" s="53">
+      <c r="J44" s="51">
         <v>0</v>
       </c>
       <c r="K44" s="41">
@@ -6216,13 +6213,13 @@
       <c r="M44" s="41">
         <v>152.8418406015038</v>
       </c>
-      <c r="N44" s="48">
+      <c r="N44" s="47">
         <v>198.97013953488332</v>
       </c>
-      <c r="O44" s="110" t="s">
+      <c r="O44" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="P44" s="53">
+      <c r="P44" s="51">
         <v>0</v>
       </c>
       <c r="Q44" s="41">
@@ -6234,7 +6231,7 @@
       <c r="S44" s="41">
         <v>152.8418406015038</v>
       </c>
-      <c r="T44" s="62">
+      <c r="T44" s="60">
         <v>198.97013953488332</v>
       </c>
     </row>
@@ -6242,10 +6239,10 @@
       <c r="A45" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="103" t="s">
+      <c r="B45" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="147" t="s">
+      <c r="C45" s="143" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="2">
@@ -6260,13 +6257,13 @@
       <c r="G45" s="26">
         <v>1002.2</v>
       </c>
-      <c r="H45" s="72">
+      <c r="H45" s="70">
         <v>993.7</v>
       </c>
-      <c r="I45" s="82" t="s">
+      <c r="I45" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="53">
+      <c r="J45" s="51">
         <v>0</v>
       </c>
       <c r="K45" s="41">
@@ -6278,13 +6275,13 @@
       <c r="M45" s="41">
         <v>191.03600995515839</v>
       </c>
-      <c r="N45" s="48">
+      <c r="N45" s="47">
         <v>213.37727632628381</v>
       </c>
-      <c r="O45" s="110" t="s">
+      <c r="O45" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P45" s="53">
+      <c r="P45" s="51">
         <v>0</v>
       </c>
       <c r="Q45" s="41">
@@ -6296,7 +6293,7 @@
       <c r="S45" s="41">
         <v>191.03600995515839</v>
       </c>
-      <c r="T45" s="62">
+      <c r="T45" s="60">
         <v>213.37727632628381</v>
       </c>
     </row>
@@ -6307,7 +6304,7 @@
       <c r="B46" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="148" t="s">
+      <c r="C46" s="144" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="16">
@@ -6322,53 +6319,53 @@
       <c r="G46" s="25">
         <v>8606.7999999999993</v>
       </c>
-      <c r="H46" s="73">
+      <c r="H46" s="71">
         <v>9468.1</v>
       </c>
-      <c r="I46" s="84" t="s">
+      <c r="I46" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="J46" s="56">
-        <f>SUM(J42:J45)</f>
-        <v>0</v>
-      </c>
-      <c r="K46" s="47">
-        <f t="shared" ref="K46:N46" si="29">SUM(K42:K45)</f>
-        <v>0</v>
-      </c>
-      <c r="L46" s="47">
-        <f t="shared" si="29"/>
+      <c r="J46" s="52">
+        <f>AVERAGE(J42:J45)</f>
+        <v>0</v>
+      </c>
+      <c r="K46" s="52">
+        <f t="shared" ref="K46" si="41">AVERAGE(K42:K45)</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="52">
+        <f t="shared" ref="L46" si="42">AVERAGE(L42:L45)</f>
+        <v>216.61636114955013</v>
+      </c>
+      <c r="M46" s="52">
+        <f t="shared" ref="M46" si="43">AVERAGE(M42:M45)</f>
+        <v>176.21192603659591</v>
+      </c>
+      <c r="N46" s="52">
+        <f t="shared" ref="N46" si="44">AVERAGE(N42:N45)</f>
+        <v>206.1126761203513</v>
+      </c>
+      <c r="O46" s="108" t="s">
+        <v>37</v>
+      </c>
+      <c r="P46" s="57">
+        <f>SUM(P42:P45)</f>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="55">
+        <f t="shared" ref="Q46" si="45">SUM(Q42:Q45)</f>
+        <v>0</v>
+      </c>
+      <c r="R46" s="55">
+        <f t="shared" ref="R46" si="46">SUM(R42:R45)</f>
         <v>866.46544459820052</v>
       </c>
-      <c r="M46" s="47">
-        <f t="shared" si="29"/>
+      <c r="S46" s="55">
+        <f t="shared" ref="S46" si="47">SUM(S42:S45)</f>
         <v>704.84770414638365</v>
       </c>
-      <c r="N46" s="51">
-        <f t="shared" si="29"/>
-        <v>824.45070448140518</v>
-      </c>
-      <c r="O46" s="111" t="s">
-        <v>37</v>
-      </c>
-      <c r="P46" s="59">
-        <f>SUM(P42:P45)</f>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="57">
-        <f t="shared" ref="Q46" si="30">SUM(Q42:Q45)</f>
-        <v>0</v>
-      </c>
-      <c r="R46" s="57">
-        <f t="shared" ref="R46" si="31">SUM(R42:R45)</f>
-        <v>866.46544459820052</v>
-      </c>
-      <c r="S46" s="57">
-        <f t="shared" ref="S46" si="32">SUM(S42:S45)</f>
-        <v>704.84770414638365</v>
-      </c>
-      <c r="T46" s="78">
-        <f t="shared" ref="T46" si="33">SUM(T42:T45)</f>
+      <c r="T46" s="76">
+        <f t="shared" ref="T46" si="48">SUM(T42:T45)</f>
         <v>824.45070448140518</v>
       </c>
     </row>
@@ -6376,7 +6373,7 @@
       <c r="A47" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="105" t="s">
+      <c r="B47" s="103" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="40" t="s">
@@ -6394,13 +6391,13 @@
       <c r="G47" s="6">
         <v>398.58958475999992</v>
       </c>
-      <c r="H47" s="74">
+      <c r="H47" s="72">
         <v>1015.0873143599998</v>
       </c>
-      <c r="I47" s="86" t="s">
+      <c r="I47" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="J47" s="55">
+      <c r="J47" s="53">
         <v>0</v>
       </c>
       <c r="K47" s="44">
@@ -6412,13 +6409,13 @@
       <c r="M47" s="44">
         <v>194.38304712243104</v>
       </c>
-      <c r="N47" s="50">
+      <c r="N47" s="49">
         <v>200.75446101793028</v>
       </c>
-      <c r="O47" s="114" t="s">
+      <c r="O47" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="P47" s="55">
+      <c r="P47" s="53">
         <v>0</v>
       </c>
       <c r="Q47" s="44">
@@ -6430,7 +6427,7 @@
       <c r="S47" s="44">
         <v>194.38304712243104</v>
       </c>
-      <c r="T47" s="63">
+      <c r="T47" s="61">
         <v>200.75446101793028</v>
       </c>
     </row>
@@ -6456,13 +6453,13 @@
       <c r="G48" s="6">
         <v>5878.8671680799998</v>
       </c>
-      <c r="H48" s="74">
+      <c r="H48" s="72">
         <v>5021.5056389399997</v>
       </c>
-      <c r="I48" s="86" t="s">
+      <c r="I48" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="J48" s="53">
+      <c r="J48" s="51">
         <v>113.71424784015332</v>
       </c>
       <c r="K48" s="41">
@@ -6474,13 +6471,13 @@
       <c r="M48" s="41">
         <v>160.00026451749227</v>
       </c>
-      <c r="N48" s="48">
+      <c r="N48" s="47">
         <v>186.83269255911492</v>
       </c>
-      <c r="O48" s="114" t="s">
+      <c r="O48" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="P48" s="53">
+      <c r="P48" s="51">
         <v>113.71424784015332</v>
       </c>
       <c r="Q48" s="41">
@@ -6492,7 +6489,7 @@
       <c r="S48" s="41">
         <v>160.00026451749227</v>
       </c>
-      <c r="T48" s="62">
+      <c r="T48" s="60">
         <v>186.83269255911492</v>
       </c>
     </row>
@@ -6518,13 +6515,13 @@
       <c r="G49" s="6">
         <v>89.498050139999989</v>
       </c>
-      <c r="H49" s="74">
+      <c r="H49" s="72">
         <v>44.3459097</v>
       </c>
-      <c r="I49" s="86" t="s">
+      <c r="I49" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="J49" s="53">
+      <c r="J49" s="51">
         <v>156.42940050700022</v>
       </c>
       <c r="K49" s="41">
@@ -6536,13 +6533,13 @@
       <c r="M49" s="41">
         <v>176.40987598447018</v>
       </c>
-      <c r="N49" s="48">
+      <c r="N49" s="47">
         <v>180.52791752577298</v>
       </c>
-      <c r="O49" s="114" t="s">
+      <c r="O49" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="P49" s="53">
+      <c r="P49" s="51">
         <v>156.42940050700022</v>
       </c>
       <c r="Q49" s="41">
@@ -6554,7 +6551,7 @@
       <c r="S49" s="41">
         <v>176.40987598447018</v>
       </c>
-      <c r="T49" s="62">
+      <c r="T49" s="60">
         <v>180.52791752577298</v>
       </c>
     </row>
@@ -6580,13 +6577,13 @@
       <c r="G50" s="6">
         <v>1569.8803548599999</v>
       </c>
-      <c r="H50" s="74">
+      <c r="H50" s="72">
         <v>3147.7264471200006</v>
       </c>
-      <c r="I50" s="86" t="s">
+      <c r="I50" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="J50" s="53">
+      <c r="J50" s="51">
         <v>0</v>
       </c>
       <c r="K50" s="41">
@@ -6598,13 +6595,13 @@
       <c r="M50" s="41">
         <v>168.39804997132606</v>
       </c>
-      <c r="N50" s="48">
+      <c r="N50" s="47">
         <v>188.47870204843571</v>
       </c>
-      <c r="O50" s="114" t="s">
+      <c r="O50" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="P50" s="53">
+      <c r="P50" s="51">
         <v>0</v>
       </c>
       <c r="Q50" s="41">
@@ -6616,7 +6613,7 @@
       <c r="S50" s="41">
         <v>168.39804997132606</v>
       </c>
-      <c r="T50" s="62">
+      <c r="T50" s="60">
         <v>188.47870204843571</v>
       </c>
     </row>
@@ -6642,13 +6639,13 @@
       <c r="G51" s="6">
         <v>1165.8692659200001</v>
       </c>
-      <c r="H51" s="74">
+      <c r="H51" s="72">
         <v>553.8226407599999</v>
       </c>
-      <c r="I51" s="86" t="s">
+      <c r="I51" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="J51" s="88">
+      <c r="J51" s="86">
         <v>113.27984051185929</v>
       </c>
       <c r="K51" s="41">
@@ -6660,13 +6657,13 @@
       <c r="M51" s="41">
         <v>130.4435016969004</v>
       </c>
-      <c r="N51" s="48">
+      <c r="N51" s="47">
         <v>172.90956493015923</v>
       </c>
-      <c r="O51" s="114" t="s">
+      <c r="O51" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="P51" s="53">
+      <c r="P51" s="51">
         <v>113.27984051185929</v>
       </c>
       <c r="Q51" s="41">
@@ -6678,7 +6675,7 @@
       <c r="S51" s="41">
         <v>130.4435016969004</v>
       </c>
-      <c r="T51" s="62">
+      <c r="T51" s="60">
         <v>172.90956493015923</v>
       </c>
     </row>
@@ -6704,13 +6701,13 @@
       <c r="G52" s="6">
         <v>0</v>
       </c>
-      <c r="H52" s="74">
-        <v>0</v>
-      </c>
-      <c r="I52" s="86" t="s">
+      <c r="H52" s="72">
+        <v>0</v>
+      </c>
+      <c r="I52" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="J52" s="53">
+      <c r="J52" s="51">
         <v>120.04122080961525</v>
       </c>
       <c r="K52" s="41">
@@ -6722,13 +6719,13 @@
       <c r="M52" s="41">
         <v>0</v>
       </c>
-      <c r="N52" s="48">
-        <v>0</v>
-      </c>
-      <c r="O52" s="114" t="s">
+      <c r="N52" s="47">
+        <v>0</v>
+      </c>
+      <c r="O52" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="53">
+      <c r="P52" s="51">
         <v>120.04122080961525</v>
       </c>
       <c r="Q52" s="41">
@@ -6740,7 +6737,7 @@
       <c r="S52" s="41">
         <v>0</v>
       </c>
-      <c r="T52" s="62">
+      <c r="T52" s="60">
         <v>0</v>
       </c>
     </row>
@@ -6766,13 +6763,13 @@
       <c r="G53" s="6">
         <v>143.47585163999997</v>
       </c>
-      <c r="H53" s="74">
+      <c r="H53" s="72">
         <v>191.67773706000003</v>
       </c>
-      <c r="I53" s="86" t="s">
+      <c r="I53" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="J53" s="53">
+      <c r="J53" s="51">
         <v>0</v>
       </c>
       <c r="K53" s="41">
@@ -6784,13 +6781,13 @@
       <c r="M53" s="41">
         <v>182.26288475836472</v>
       </c>
-      <c r="N53" s="48">
+      <c r="N53" s="47">
         <v>185.92807074622013</v>
       </c>
-      <c r="O53" s="114" t="s">
+      <c r="O53" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="P53" s="53">
+      <c r="P53" s="51">
         <v>0</v>
       </c>
       <c r="Q53" s="41">
@@ -6802,7 +6799,7 @@
       <c r="S53" s="41">
         <v>182.26288475836472</v>
       </c>
-      <c r="T53" s="62">
+      <c r="T53" s="60">
         <v>185.92807074622013</v>
       </c>
     </row>
@@ -6828,13 +6825,13 @@
       <c r="G54" s="6">
         <v>802.87995413999988</v>
       </c>
-      <c r="H54" s="74">
+      <c r="H54" s="72">
         <v>429.37243109999991</v>
       </c>
-      <c r="I54" s="86" t="s">
+      <c r="I54" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="J54" s="53">
+      <c r="J54" s="51">
         <v>96.406372662427273</v>
       </c>
       <c r="K54" s="41">
@@ -6846,13 +6843,13 @@
       <c r="M54" s="41">
         <v>158.29805197168363</v>
       </c>
-      <c r="N54" s="48">
+      <c r="N54" s="47">
         <v>131.60380646830563</v>
       </c>
-      <c r="O54" s="114" t="s">
+      <c r="O54" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="P54" s="53">
+      <c r="P54" s="51">
         <v>96.406372662427273</v>
       </c>
       <c r="Q54" s="41">
@@ -6864,7 +6861,7 @@
       <c r="S54" s="41">
         <v>158.29805197168363</v>
       </c>
-      <c r="T54" s="62">
+      <c r="T54" s="60">
         <v>131.60380646830563</v>
       </c>
     </row>
@@ -6890,13 +6887,13 @@
       <c r="G55" s="6">
         <v>2.2925717999999997</v>
       </c>
-      <c r="H55" s="74">
+      <c r="H55" s="72">
         <v>7.519584E-2</v>
       </c>
-      <c r="I55" s="86" t="s">
+      <c r="I55" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="J55" s="53">
+      <c r="J55" s="51">
         <v>119.07330151244987</v>
       </c>
       <c r="K55" s="41">
@@ -6908,13 +6905,13 @@
       <c r="M55" s="41">
         <v>121.96958083832352</v>
       </c>
-      <c r="N55" s="48">
+      <c r="N55" s="47">
         <v>83.512000000000015</v>
       </c>
-      <c r="O55" s="114" t="s">
+      <c r="O55" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="P55" s="53">
+      <c r="P55" s="51">
         <v>119.07330151244987</v>
       </c>
       <c r="Q55" s="41">
@@ -6926,7 +6923,7 @@
       <c r="S55" s="41">
         <v>121.96958083832352</v>
       </c>
-      <c r="T55" s="62">
+      <c r="T55" s="60">
         <v>83.512000000000015</v>
       </c>
     </row>
@@ -6952,13 +6949,13 @@
       <c r="G56" s="6">
         <v>552.11425307999991</v>
       </c>
-      <c r="H56" s="74">
+      <c r="H56" s="72">
         <v>606.6236402400001</v>
       </c>
-      <c r="I56" s="87" t="s">
+      <c r="I56" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="J56" s="53">
+      <c r="J56" s="51">
         <v>0</v>
       </c>
       <c r="K56" s="41">
@@ -6970,13 +6967,13 @@
       <c r="M56" s="41">
         <v>182.99958411520046</v>
       </c>
-      <c r="N56" s="48">
+      <c r="N56" s="47">
         <v>209.20708223192608</v>
       </c>
-      <c r="O56" s="115" t="s">
+      <c r="O56" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="P56" s="53">
+      <c r="P56" s="51">
         <v>0</v>
       </c>
       <c r="Q56" s="41">
@@ -6988,7 +6985,7 @@
       <c r="S56" s="41">
         <v>182.99958411520046</v>
       </c>
-      <c r="T56" s="62">
+      <c r="T56" s="60">
         <v>209.20708223192608</v>
       </c>
     </row>
@@ -7014,13 +7011,13 @@
       <c r="G57" s="6">
         <v>3854.0566165800001</v>
       </c>
-      <c r="H57" s="74">
+      <c r="H57" s="72">
         <v>2047.4977415999999</v>
       </c>
-      <c r="I57" s="87" t="s">
+      <c r="I57" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="J57" s="53">
+      <c r="J57" s="51">
         <v>103.16234022340612</v>
       </c>
       <c r="K57" s="41">
@@ -7032,13 +7029,13 @@
       <c r="M57" s="41">
         <v>164.73819874049255</v>
       </c>
-      <c r="N57" s="48">
+      <c r="N57" s="47">
         <v>161.24928237129487</v>
       </c>
-      <c r="O57" s="115" t="s">
+      <c r="O57" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="P57" s="53">
+      <c r="P57" s="51">
         <v>103.16234022340612</v>
       </c>
       <c r="Q57" s="41">
@@ -7050,7 +7047,7 @@
       <c r="S57" s="41">
         <v>164.73819874049255</v>
       </c>
-      <c r="T57" s="62">
+      <c r="T57" s="60">
         <v>161.24928237129487</v>
       </c>
     </row>
@@ -7058,7 +7055,7 @@
       <c r="A58" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="104" t="s">
+      <c r="B58" s="102" t="s">
         <v>6</v>
       </c>
       <c r="C58" s="43" t="s">
@@ -7076,13 +7073,13 @@
       <c r="G58" s="6">
         <v>1.6194789000000001</v>
       </c>
-      <c r="H58" s="74">
+      <c r="H58" s="72">
         <v>0.85966613999999997</v>
       </c>
-      <c r="I58" s="87" t="s">
+      <c r="I58" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="53">
+      <c r="J58" s="51">
         <v>138.15373614801274</v>
       </c>
       <c r="K58" s="41">
@@ -7094,13 +7091,13 @@
       <c r="M58" s="41">
         <v>96.245217391304365</v>
       </c>
-      <c r="N58" s="48">
+      <c r="N58" s="47">
         <v>127.29860000000002</v>
       </c>
-      <c r="O58" s="115" t="s">
+      <c r="O58" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="53">
+      <c r="P58" s="51">
         <v>138.15373614801274</v>
       </c>
       <c r="Q58" s="41">
@@ -7112,7 +7109,7 @@
       <c r="S58" s="41">
         <v>96.245217391304365</v>
       </c>
-      <c r="T58" s="62">
+      <c r="T58" s="60">
         <v>127.29860000000002</v>
       </c>
     </row>
@@ -7123,7 +7120,7 @@
       <c r="B59" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="148" t="s">
+      <c r="C59" s="144" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="17">
@@ -7131,65 +7128,65 @@
         <v>20363.951080140003</v>
       </c>
       <c r="E59" s="17">
-        <f t="shared" ref="E59:H59" si="34">SUM(E47:E58)</f>
+        <f t="shared" ref="E59:H59" si="49">SUM(E47:E58)</f>
         <v>25942.260475739997</v>
       </c>
       <c r="F59" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>17128.281295500001</v>
       </c>
       <c r="G59" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>14459.143149899999</v>
       </c>
-      <c r="H59" s="75">
-        <f t="shared" si="34"/>
+      <c r="H59" s="73">
+        <f t="shared" si="49"/>
         <v>13058.594362860002</v>
       </c>
-      <c r="I59" s="84" t="s">
+      <c r="I59" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="J59" s="56">
-        <f>SUM(J47:J58)</f>
+      <c r="J59" s="52">
+        <f>AVERAGE(J48,J49,J51,J52,J54,J55,J57,J58)</f>
+        <v>120.03255752686552</v>
+      </c>
+      <c r="K59" s="52">
+        <f>AVERAGE(K48,K49,K51,K52,K54,K55,K57,K58)</f>
+        <v>134.38991529959287</v>
+      </c>
+      <c r="L59" s="52">
+        <f t="shared" ref="K59:N59" si="50">AVERAGE(L47:L58)</f>
+        <v>149.82331681443097</v>
+      </c>
+      <c r="M59" s="52">
+        <f>AVERAGE(M47:M51,M53:M58)</f>
+        <v>157.83165973708992</v>
+      </c>
+      <c r="N59" s="52">
+        <f>AVERAGE(N47:N51,N53:N58)</f>
+        <v>166.20928908174182</v>
+      </c>
+      <c r="O59" s="108" t="s">
+        <v>37</v>
+      </c>
+      <c r="P59" s="58">
+        <f t="shared" ref="K59:T59" si="51">SUM(P47:P58)</f>
         <v>960.26046021492414</v>
       </c>
-      <c r="K59" s="47">
-        <f t="shared" ref="K59:T59" si="35">SUM(K47:K58)</f>
+      <c r="Q59" s="56">
+        <f t="shared" si="51"/>
         <v>1075.119322396743</v>
       </c>
-      <c r="L59" s="47">
-        <f t="shared" si="35"/>
+      <c r="R59" s="56">
+        <f t="shared" si="51"/>
         <v>1797.8798017731717</v>
       </c>
-      <c r="M59" s="47">
-        <f t="shared" si="35"/>
+      <c r="S59" s="56">
+        <f t="shared" si="51"/>
         <v>1736.1482571079891</v>
       </c>
-      <c r="N59" s="51">
-        <f t="shared" si="35"/>
-        <v>1828.3021798991599</v>
-      </c>
-      <c r="O59" s="111" t="s">
-        <v>37</v>
-      </c>
-      <c r="P59" s="60">
-        <f t="shared" si="35"/>
-        <v>960.26046021492414</v>
-      </c>
-      <c r="Q59" s="58">
-        <f t="shared" si="35"/>
-        <v>1075.119322396743</v>
-      </c>
-      <c r="R59" s="58">
-        <f t="shared" si="35"/>
-        <v>1797.8798017731717</v>
-      </c>
-      <c r="S59" s="58">
-        <f t="shared" si="35"/>
-        <v>1736.1482571079891</v>
-      </c>
-      <c r="T59" s="79">
-        <f t="shared" si="35"/>
+      <c r="T59" s="77">
+        <f t="shared" si="51"/>
         <v>1828.3021798991599</v>
       </c>
     </row>
@@ -7197,7 +7194,7 @@
       <c r="A60" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B60" s="104" t="s">
+      <c r="B60" s="102" t="s">
         <v>17</v>
       </c>
       <c r="C60" s="37" t="s">
@@ -7215,13 +7212,13 @@
       <c r="G60" s="10">
         <v>687.10070039999994</v>
       </c>
-      <c r="H60" s="76">
+      <c r="H60" s="74">
         <v>209.04662411999999</v>
       </c>
-      <c r="I60" s="82" t="s">
+      <c r="I60" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="J60" s="55">
+      <c r="J60" s="53">
         <v>159.98743591988642</v>
       </c>
       <c r="K60" s="44">
@@ -7233,13 +7230,13 @@
       <c r="M60" s="44">
         <v>201.80211431027078</v>
       </c>
-      <c r="N60" s="50">
+      <c r="N60" s="49">
         <v>203.9225217391305</v>
       </c>
-      <c r="O60" s="110" t="s">
+      <c r="O60" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="P60" s="55">
+      <c r="P60" s="53">
         <v>159.98743591988642</v>
       </c>
       <c r="Q60" s="44">
@@ -7251,7 +7248,7 @@
       <c r="S60" s="44">
         <v>201.80211431027078</v>
       </c>
-      <c r="T60" s="63">
+      <c r="T60" s="61">
         <v>203.9225217391305</v>
       </c>
     </row>
@@ -7259,7 +7256,7 @@
       <c r="A61" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="103" t="s">
+      <c r="B61" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C61" s="36" t="s">
@@ -7277,13 +7274,13 @@
       <c r="G61" s="6">
         <v>980.84835647999989</v>
       </c>
-      <c r="H61" s="69">
+      <c r="H61" s="67">
         <v>204.92520965999998</v>
       </c>
-      <c r="I61" s="82" t="s">
+      <c r="I61" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="J61" s="53">
+      <c r="J61" s="51">
         <v>109.26484033496862</v>
       </c>
       <c r="K61" s="41">
@@ -7295,13 +7292,13 @@
       <c r="M61" s="41">
         <v>121.01663362101917</v>
       </c>
-      <c r="N61" s="48">
+      <c r="N61" s="47">
         <v>137.52094897843588</v>
       </c>
-      <c r="O61" s="110" t="s">
+      <c r="O61" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="P61" s="53">
+      <c r="P61" s="51">
         <v>109.26484033496862</v>
       </c>
       <c r="Q61" s="41">
@@ -7313,7 +7310,7 @@
       <c r="S61" s="41">
         <v>121.01663362101917</v>
       </c>
-      <c r="T61" s="62">
+      <c r="T61" s="60">
         <v>137.52094897843588</v>
       </c>
     </row>
@@ -7321,7 +7318,7 @@
       <c r="A62" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B62" s="103" t="s">
+      <c r="B62" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C62" s="36" t="s">
@@ -7339,13 +7336,13 @@
       <c r="G62" s="6">
         <v>23.503142220000001</v>
       </c>
-      <c r="H62" s="69">
+      <c r="H62" s="67">
         <v>85.906289939999994</v>
       </c>
-      <c r="I62" s="82" t="s">
+      <c r="I62" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="J62" s="53">
+      <c r="J62" s="51">
         <v>169.87713422818771</v>
       </c>
       <c r="K62" s="41">
@@ -7357,13 +7354,13 @@
       <c r="M62" s="41">
         <v>209.65810040160588</v>
       </c>
-      <c r="N62" s="48">
+      <c r="N62" s="47">
         <v>236.22891860105253</v>
       </c>
-      <c r="O62" s="110" t="s">
+      <c r="O62" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="P62" s="53">
+      <c r="P62" s="51">
         <v>169.87713422818771</v>
       </c>
       <c r="Q62" s="41">
@@ -7375,7 +7372,7 @@
       <c r="S62" s="41">
         <v>209.65810040160588</v>
       </c>
-      <c r="T62" s="62">
+      <c r="T62" s="60">
         <v>236.22891860105253</v>
       </c>
     </row>
@@ -7383,10 +7380,10 @@
       <c r="A63" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="103" t="s">
+      <c r="B63" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="147" t="s">
+      <c r="C63" s="143" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="2">
@@ -7401,13 +7398,13 @@
       <c r="G63" s="23">
         <v>401.6</v>
       </c>
-      <c r="H63" s="72">
+      <c r="H63" s="70">
         <v>204.9</v>
       </c>
-      <c r="I63" s="82" t="s">
+      <c r="I63" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="J63" s="53">
+      <c r="J63" s="51">
         <v>106.76248863890245</v>
       </c>
       <c r="K63" s="41">
@@ -7419,13 +7416,13 @@
       <c r="M63" s="41">
         <v>131.57902658848721</v>
       </c>
-      <c r="N63" s="48">
+      <c r="N63" s="47">
         <v>153.90680711840034</v>
       </c>
-      <c r="O63" s="110" t="s">
+      <c r="O63" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P63" s="53">
+      <c r="P63" s="51">
         <v>106.76248863890245</v>
       </c>
       <c r="Q63" s="41">
@@ -7437,7 +7434,7 @@
       <c r="S63" s="41">
         <v>131.57902658848721</v>
       </c>
-      <c r="T63" s="62">
+      <c r="T63" s="60">
         <v>153.90680711840034</v>
       </c>
     </row>
@@ -7448,7 +7445,7 @@
       <c r="B64" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C64" s="148" t="s">
+      <c r="C64" s="144" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="17">
@@ -7463,53 +7460,53 @@
       <c r="G64" s="25">
         <v>2213.8000000000002</v>
       </c>
-      <c r="H64" s="93">
+      <c r="H64" s="91">
         <v>922</v>
       </c>
-      <c r="I64" s="84" t="s">
+      <c r="I64" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="J64" s="56">
-        <f>SUM(J60:J63)</f>
-        <v>545.89189912194524</v>
-      </c>
-      <c r="K64" s="47">
-        <f t="shared" ref="K64" si="36">SUM(K60:K63)</f>
-        <v>576.14209608937881</v>
-      </c>
-      <c r="L64" s="47">
-        <f t="shared" ref="L64" si="37">SUM(L60:L63)</f>
-        <v>629.99803710765309</v>
-      </c>
-      <c r="M64" s="47">
-        <f t="shared" ref="M64" si="38">SUM(M60:M63)</f>
-        <v>664.05587492138307</v>
-      </c>
-      <c r="N64" s="51">
-        <f t="shared" ref="N64" si="39">SUM(N60:N63)</f>
-        <v>731.57919643701928</v>
-      </c>
-      <c r="O64" s="111" t="s">
+      <c r="J64" s="52">
+        <f>AVERAGE(J60:J63)</f>
+        <v>136.47297478048631</v>
+      </c>
+      <c r="K64" s="52">
+        <f t="shared" ref="K64" si="52">AVERAGE(K60:K63)</f>
+        <v>144.0355240223447</v>
+      </c>
+      <c r="L64" s="52">
+        <f t="shared" ref="L64" si="53">AVERAGE(L60:L63)</f>
+        <v>157.49950927691327</v>
+      </c>
+      <c r="M64" s="52">
+        <f t="shared" ref="M64" si="54">AVERAGE(M60:M63)</f>
+        <v>166.01396873034577</v>
+      </c>
+      <c r="N64" s="52">
+        <f t="shared" ref="N64" si="55">AVERAGE(N60:N63)</f>
+        <v>182.89479910925482</v>
+      </c>
+      <c r="O64" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="P64" s="60">
+      <c r="P64" s="58">
         <f>SUM(P60:P63)</f>
         <v>545.89189912194524</v>
       </c>
-      <c r="Q64" s="58">
-        <f t="shared" ref="Q64" si="40">SUM(Q60:Q63)</f>
+      <c r="Q64" s="56">
+        <f t="shared" ref="Q64" si="56">SUM(Q60:Q63)</f>
         <v>576.14209608937881</v>
       </c>
-      <c r="R64" s="58">
-        <f t="shared" ref="R64" si="41">SUM(R60:R63)</f>
+      <c r="R64" s="56">
+        <f t="shared" ref="R64" si="57">SUM(R60:R63)</f>
         <v>629.99803710765309</v>
       </c>
-      <c r="S64" s="58">
-        <f t="shared" ref="S64" si="42">SUM(S60:S63)</f>
+      <c r="S64" s="56">
+        <f t="shared" ref="S64" si="58">SUM(S60:S63)</f>
         <v>664.05587492138307</v>
       </c>
-      <c r="T64" s="79">
-        <f t="shared" ref="T64" si="43">SUM(T60:T63)</f>
+      <c r="T64" s="77">
+        <f t="shared" ref="T64" si="59">SUM(T60:T63)</f>
         <v>731.57919643701928</v>
       </c>
     </row>
@@ -7517,7 +7514,7 @@
       <c r="A65" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B65" s="104" t="s">
+      <c r="B65" s="102" t="s">
         <v>6</v>
       </c>
       <c r="C65" s="37" t="s">
@@ -7538,7 +7535,7 @@
       <c r="H65" s="6">
         <v>22512.437027999997</v>
       </c>
-      <c r="I65" s="82" t="s">
+      <c r="I65" s="80" t="s">
         <v>24</v>
       </c>
       <c r="J65" s="33">
@@ -7553,10 +7550,10 @@
       <c r="M65" s="33">
         <v>81.116420041114296</v>
       </c>
-      <c r="N65" s="107">
+      <c r="N65" s="105">
         <v>99.768359506129499</v>
       </c>
-      <c r="O65" s="110" t="s">
+      <c r="O65" s="107" t="s">
         <v>24</v>
       </c>
       <c r="P65" s="34">
@@ -7571,7 +7568,7 @@
       <c r="S65" s="33">
         <v>4.0836586616584114</v>
       </c>
-      <c r="T65" s="96">
+      <c r="T65" s="94">
         <v>4.2795977414970894</v>
       </c>
     </row>
@@ -7579,7 +7576,7 @@
       <c r="A66" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B66" s="104" t="s">
+      <c r="B66" s="102" t="s">
         <v>6</v>
       </c>
       <c r="C66" s="37" t="s">
@@ -7600,7 +7597,7 @@
       <c r="H66" s="6">
         <v>5197.0115062799996</v>
       </c>
-      <c r="I66" s="82" t="s">
+      <c r="I66" s="80" t="s">
         <v>24</v>
       </c>
       <c r="J66" s="33">
@@ -7618,7 +7615,7 @@
       <c r="N66" s="33">
         <v>232.22802999532252</v>
       </c>
-      <c r="O66" s="110" t="s">
+      <c r="O66" s="107" t="s">
         <v>24</v>
       </c>
       <c r="P66" s="34">
@@ -7633,7 +7630,7 @@
       <c r="S66" s="33">
         <v>4.2698498866460586</v>
       </c>
-      <c r="T66" s="97">
+      <c r="T66" s="95">
         <v>4.3225973992976288</v>
       </c>
     </row>
@@ -7641,7 +7638,7 @@
       <c r="A67" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B67" s="104" t="s">
+      <c r="B67" s="102" t="s">
         <v>6</v>
       </c>
       <c r="C67" s="36" t="s">
@@ -7662,7 +7659,7 @@
       <c r="H67" s="6">
         <v>8952.4933940399987</v>
       </c>
-      <c r="I67" s="82" t="s">
+      <c r="I67" s="80" t="s">
         <v>4</v>
       </c>
       <c r="J67" s="33">
@@ -7680,10 +7677,10 @@
       <c r="N67" s="33">
         <v>97.10842528607931</v>
       </c>
-      <c r="O67" s="110" t="s">
+      <c r="O67" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="P67" s="61">
+      <c r="P67" s="59">
         <v>1.2960031029447601</v>
       </c>
       <c r="Q67" s="6">
@@ -7695,7 +7692,7 @@
       <c r="S67" s="6">
         <v>1.03151143310794</v>
       </c>
-      <c r="T67" s="74">
+      <c r="T67" s="72">
         <v>1.21738247656042</v>
       </c>
     </row>
@@ -7703,7 +7700,7 @@
       <c r="A68" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B68" s="104" t="s">
+      <c r="B68" s="102" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="36" t="s">
@@ -7724,7 +7721,7 @@
       <c r="H68" s="6">
         <v>14077.356101340001</v>
       </c>
-      <c r="I68" s="82" t="s">
+      <c r="I68" s="80" t="s">
         <v>4</v>
       </c>
       <c r="J68" s="33">
@@ -7742,10 +7739,10 @@
       <c r="N68" s="33">
         <v>233.24449433223683</v>
       </c>
-      <c r="O68" s="110" t="s">
+      <c r="O68" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="P68" s="61">
+      <c r="P68" s="59">
         <v>1.8214718190674299</v>
       </c>
       <c r="Q68" s="6">
@@ -7757,7 +7754,7 @@
       <c r="S68" s="6">
         <v>1.9838232126409701</v>
       </c>
-      <c r="T68" s="74">
+      <c r="T68" s="72">
         <v>1.91427414461777</v>
       </c>
     </row>
@@ -7765,7 +7762,7 @@
       <c r="A69" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B69" s="104" t="s">
+      <c r="B69" s="102" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="36" t="s">
@@ -7786,7 +7783,7 @@
       <c r="H69" s="6">
         <v>53583.988396199995</v>
       </c>
-      <c r="I69" s="82" t="s">
+      <c r="I69" s="80" t="s">
         <v>7</v>
       </c>
       <c r="J69" s="33">
@@ -7804,10 +7801,10 @@
       <c r="N69" s="33">
         <v>78.056134433969021</v>
       </c>
-      <c r="O69" s="110" t="s">
+      <c r="O69" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="P69" s="61">
+      <c r="P69" s="59">
         <v>7.2147729075989604</v>
       </c>
       <c r="Q69" s="6">
@@ -7819,7 +7816,7 @@
       <c r="S69" s="6">
         <v>12.4961269119769</v>
       </c>
-      <c r="T69" s="74">
+      <c r="T69" s="72">
         <v>10.081622762152</v>
       </c>
     </row>
@@ -7827,7 +7824,7 @@
       <c r="A70" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B70" s="104" t="s">
+      <c r="B70" s="102" t="s">
         <v>6</v>
       </c>
       <c r="C70" s="36" t="s">
@@ -7848,7 +7845,7 @@
       <c r="H70" s="6">
         <v>2502.4277450999998</v>
       </c>
-      <c r="I70" s="82" t="s">
+      <c r="I70" s="80" t="s">
         <v>7</v>
       </c>
       <c r="J70" s="33">
@@ -7866,10 +7863,10 @@
       <c r="N70" s="33">
         <v>205.74989880668656</v>
       </c>
-      <c r="O70" s="110" t="s">
+      <c r="O70" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="P70" s="61">
+      <c r="P70" s="59">
         <v>1.6023884863411699</v>
       </c>
       <c r="Q70" s="6">
@@ -7881,7 +7878,7 @@
       <c r="S70" s="6">
         <v>0.901917548868017</v>
       </c>
-      <c r="T70" s="74">
+      <c r="T70" s="72">
         <v>0.47082222265914597</v>
       </c>
     </row>
@@ -7889,10 +7886,10 @@
       <c r="A71" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B71" s="104" t="s">
+      <c r="B71" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="147" t="s">
+      <c r="C71" s="143" t="s">
         <v>8</v>
       </c>
       <c r="D71" s="6">
@@ -7910,7 +7907,7 @@
       <c r="H71" s="6">
         <v>37029.994405199999</v>
       </c>
-      <c r="I71" s="82" t="s">
+      <c r="I71" s="80" t="s">
         <v>8</v>
       </c>
       <c r="J71" s="33">
@@ -7928,10 +7925,10 @@
       <c r="N71" s="33">
         <v>91.006732623531533</v>
       </c>
-      <c r="O71" s="110" t="s">
+      <c r="O71" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P71" s="61">
+      <c r="P71" s="59">
         <v>2.1820294994983298</v>
       </c>
       <c r="Q71" s="6">
@@ -7943,7 +7940,7 @@
       <c r="S71" s="6">
         <v>3.52589086128887</v>
       </c>
-      <c r="T71" s="74">
+      <c r="T71" s="72">
         <v>3.3652535485044099</v>
       </c>
     </row>
@@ -7951,10 +7948,10 @@
       <c r="A72" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B72" s="104" t="s">
+      <c r="B72" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="147" t="s">
+      <c r="C72" s="143" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="6">
@@ -7972,117 +7969,117 @@
       <c r="H72" s="6">
         <v>6308.4600363</v>
       </c>
-      <c r="I72" s="82" t="s">
+      <c r="I72" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="J72" s="98">
+      <c r="J72" s="96">
         <v>145.78954514051014</v>
       </c>
-      <c r="K72" s="98">
+      <c r="K72" s="96">
         <v>163.77704740441729</v>
       </c>
-      <c r="L72" s="98">
+      <c r="L72" s="96">
         <v>174.81580280905541</v>
       </c>
-      <c r="M72" s="98">
+      <c r="M72" s="96">
         <v>152.73837995873373</v>
       </c>
-      <c r="N72" s="98">
+      <c r="N72" s="96">
         <v>212.87434591800525</v>
       </c>
-      <c r="O72" s="110" t="s">
+      <c r="O72" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P72" s="102">
+      <c r="P72" s="100">
         <v>1.5154344148279599</v>
       </c>
-      <c r="Q72" s="99">
+      <c r="Q72" s="97">
         <v>0.52115519679316802</v>
       </c>
-      <c r="R72" s="99">
+      <c r="R72" s="97">
         <v>0.54478749839130103</v>
       </c>
-      <c r="S72" s="99">
+      <c r="S72" s="97">
         <v>0.65398416539825599</v>
       </c>
-      <c r="T72" s="100">
+      <c r="T72" s="98">
         <v>0.57330733811225298</v>
       </c>
     </row>
     <row r="73" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="94" t="s">
+      <c r="A73" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B73" s="106" t="s">
+      <c r="B73" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="148" t="s">
+      <c r="C73" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="95">
+      <c r="D73" s="93">
         <f>SUM(D65:D72)</f>
         <v>107212.64241318</v>
       </c>
-      <c r="E73" s="95">
-        <f t="shared" ref="E73:G73" si="44">SUM(E65:E72)</f>
+      <c r="E73" s="93">
+        <f t="shared" ref="E73:G73" si="60">SUM(E65:E72)</f>
         <v>108147.40144956001</v>
       </c>
-      <c r="F73" s="95">
-        <f t="shared" si="44"/>
+      <c r="F73" s="93">
+        <f t="shared" si="60"/>
         <v>124930.22359223999</v>
       </c>
-      <c r="G73" s="95">
-        <f t="shared" si="44"/>
+      <c r="G73" s="93">
+        <f t="shared" si="60"/>
         <v>163769.62047264</v>
       </c>
-      <c r="H73" s="95">
+      <c r="H73" s="93">
         <f>SUM(H65:H72)</f>
         <v>150164.16861245999</v>
       </c>
-      <c r="I73" s="101" t="s">
+      <c r="I73" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="J73" s="45">
-        <f>SUM(J65:J72)</f>
-        <v>854.89373744688055</v>
-      </c>
-      <c r="K73" s="45">
-        <f t="shared" ref="K73:T73" si="45">SUM(K65:K72)</f>
-        <v>911.82839122469295</v>
-      </c>
-      <c r="L73" s="45">
-        <f t="shared" si="45"/>
-        <v>941.67416115379308</v>
-      </c>
-      <c r="M73" s="45">
-        <f t="shared" si="45"/>
-        <v>970.4166055897723</v>
-      </c>
-      <c r="N73" s="108">
-        <f t="shared" si="45"/>
-        <v>1250.0364209019604</v>
-      </c>
-      <c r="O73" s="111" t="s">
+      <c r="J73" s="46">
+        <f>AVERAGE(J65:J72)</f>
+        <v>106.86171718086007</v>
+      </c>
+      <c r="K73" s="46">
+        <f t="shared" ref="K73:N73" si="61">AVERAGE(K65:K72)</f>
+        <v>113.97854890308662</v>
+      </c>
+      <c r="L73" s="46">
+        <f t="shared" si="61"/>
+        <v>117.70927014422413</v>
+      </c>
+      <c r="M73" s="46">
+        <f t="shared" si="61"/>
+        <v>121.30207569872154</v>
+      </c>
+      <c r="N73" s="46">
+        <f t="shared" si="61"/>
+        <v>156.25455261274504</v>
+      </c>
+      <c r="O73" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="P73" s="56">
-        <f t="shared" si="45"/>
+      <c r="P73" s="54">
+        <f t="shared" ref="K73:T73" si="62">SUM(P65:P72)</f>
         <v>24.607668695647774</v>
       </c>
-      <c r="Q73" s="47">
-        <f t="shared" si="45"/>
+      <c r="Q73" s="46">
+        <f t="shared" si="62"/>
         <v>21.747806952940262</v>
       </c>
-      <c r="R73" s="47">
-        <f t="shared" si="45"/>
+      <c r="R73" s="46">
+        <f t="shared" si="62"/>
         <v>25.535595768392572</v>
       </c>
-      <c r="S73" s="47">
-        <f t="shared" si="45"/>
+      <c r="S73" s="46">
+        <f t="shared" si="62"/>
         <v>28.946762681585426</v>
       </c>
-      <c r="T73" s="64">
-        <f t="shared" si="45"/>
+      <c r="T73" s="62">
+        <f t="shared" si="62"/>
         <v>26.224857633400717</v>
       </c>
     </row>
@@ -8126,22 +8123,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="123" t="s">
+      <c r="C1" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="129" t="s">
+      <c r="D1" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="128" t="s">
+      <c r="E1" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="128" t="s">
+      <c r="F1" s="124" t="s">
         <v>46</v>
       </c>
       <c r="G1" s="1"/>
@@ -8160,22 +8157,22 @@
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="121">
+      <c r="B2" s="117">
         <v>90</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="130" t="s">
+      <c r="E2" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="130" t="s">
+      <c r="F2" s="126" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="1"/>
@@ -8194,22 +8191,22 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="121">
+      <c r="B3" s="117">
         <v>90</v>
       </c>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="132" t="s">
+      <c r="D3" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="136">
+      <c r="E3" s="132">
         <v>1186</v>
       </c>
-      <c r="F3" s="131">
+      <c r="F3" s="127">
         <v>0.1</v>
       </c>
       <c r="G3" s="1"/>
@@ -8228,22 +8225,22 @@
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="133">
+      <c r="D4" s="129">
         <v>900</v>
       </c>
-      <c r="E4" s="130" t="s">
+      <c r="E4" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="130" t="s">
+      <c r="F4" s="126" t="s">
         <v>41</v>
       </c>
       <c r="G4" s="1"/>
@@ -8262,22 +8259,22 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="121">
+      <c r="B5" s="117">
         <v>90</v>
       </c>
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="136">
+      <c r="D5" s="132">
         <v>1186</v>
       </c>
-      <c r="E5" s="130" t="s">
+      <c r="E5" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="130" t="s">
+      <c r="F5" s="126" t="s">
         <v>41</v>
       </c>
       <c r="G5" s="1"/>
@@ -8296,22 +8293,22 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="121">
+      <c r="B6" s="117">
         <v>75</v>
       </c>
-      <c r="C6" s="126" t="s">
+      <c r="C6" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="136">
+      <c r="D6" s="132">
         <v>2320</v>
       </c>
-      <c r="E6" s="136">
+      <c r="E6" s="132">
         <v>1610</v>
       </c>
-      <c r="F6" s="131">
+      <c r="F6" s="127">
         <v>0.32</v>
       </c>
       <c r="G6" s="1"/>
@@ -8330,22 +8327,22 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="121">
+      <c r="B7" s="117">
         <v>75</v>
       </c>
-      <c r="C7" s="124" t="s">
+      <c r="C7" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="136">
+      <c r="D7" s="132">
         <v>397</v>
       </c>
-      <c r="E7" s="130" t="s">
+      <c r="E7" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="130" t="s">
+      <c r="F7" s="126" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="1"/>
@@ -8364,22 +8361,22 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="121">
+      <c r="B8" s="117">
         <v>75</v>
       </c>
-      <c r="C8" s="124" t="s">
+      <c r="C8" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="136">
+      <c r="D8" s="132">
         <v>435</v>
       </c>
-      <c r="E8" s="130" t="s">
+      <c r="E8" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="130" t="s">
+      <c r="F8" s="126" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="1"/>
@@ -8398,22 +8395,22 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="121">
+      <c r="B9" s="117">
         <v>75</v>
       </c>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="136">
+      <c r="D9" s="132">
         <v>349</v>
       </c>
-      <c r="E9" s="130" t="s">
+      <c r="E9" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="130" t="s">
+      <c r="F9" s="126" t="s">
         <v>41</v>
       </c>
       <c r="G9" s="1"/>
@@ -8432,22 +8429,22 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="121">
+      <c r="B10" s="117">
         <v>75</v>
       </c>
-      <c r="C10" s="125" t="s">
+      <c r="C10" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="136">
+      <c r="D10" s="132">
         <v>857</v>
       </c>
-      <c r="E10" s="136">
+      <c r="E10" s="132">
         <v>625</v>
       </c>
-      <c r="F10" s="131">
+      <c r="F10" s="127">
         <v>0.27</v>
       </c>
       <c r="G10" s="1"/>
@@ -8466,22 +8463,22 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="134" t="s">
+      <c r="A11" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="121">
+      <c r="B11" s="117">
         <v>75</v>
       </c>
-      <c r="C11" s="125" t="s">
+      <c r="C11" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="136">
+      <c r="D11" s="132">
         <v>952</v>
       </c>
-      <c r="E11" s="136">
+      <c r="E11" s="132">
         <v>694</v>
       </c>
-      <c r="F11" s="131">
+      <c r="F11" s="127">
         <v>0.27</v>
       </c>
       <c r="G11" s="1"/>
@@ -8500,22 +8497,22 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="134" t="s">
+      <c r="A12" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="121">
+      <c r="B12" s="117">
         <v>75</v>
       </c>
-      <c r="C12" s="125" t="s">
+      <c r="C12" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="136">
+      <c r="D12" s="132">
         <v>889</v>
       </c>
-      <c r="E12" s="136">
+      <c r="E12" s="132">
         <v>551</v>
       </c>
-      <c r="F12" s="131">
+      <c r="F12" s="127">
         <v>0.38</v>
       </c>
       <c r="G12" s="1"/>
@@ -8534,22 +8531,22 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="134" t="s">
+      <c r="A13" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="121">
+      <c r="B13" s="117">
         <v>75</v>
       </c>
-      <c r="C13" s="125" t="s">
+      <c r="C13" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="136">
+      <c r="D13" s="132">
         <v>818</v>
       </c>
-      <c r="E13" s="136">
+      <c r="E13" s="132">
         <v>449</v>
       </c>
-      <c r="F13" s="131">
+      <c r="F13" s="127">
         <v>0.45</v>
       </c>
       <c r="G13" s="1"/>
@@ -8568,22 +8565,22 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="121">
+      <c r="B14" s="117">
         <v>75</v>
       </c>
-      <c r="C14" s="126" t="s">
+      <c r="C14" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="136">
+      <c r="D14" s="132">
         <v>300</v>
       </c>
-      <c r="E14" s="136">
+      <c r="E14" s="132">
         <v>276</v>
       </c>
-      <c r="F14" s="131">
+      <c r="F14" s="127">
         <v>0.1</v>
       </c>
       <c r="G14" s="1"/>
@@ -8602,22 +8599,22 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="134" t="s">
+      <c r="A15" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="121">
+      <c r="B15" s="117">
         <v>75</v>
       </c>
-      <c r="C15" s="125" t="s">
+      <c r="C15" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="136">
+      <c r="D15" s="132">
         <v>342</v>
       </c>
-      <c r="E15" s="136">
+      <c r="E15" s="132">
         <v>570</v>
       </c>
-      <c r="F15" s="131">
+      <c r="F15" s="127">
         <v>0.4</v>
       </c>
       <c r="G15" s="1"/>
@@ -8636,22 +8633,22 @@
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="134" t="s">
+      <c r="A16" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="121">
+      <c r="B16" s="117">
         <v>75</v>
       </c>
-      <c r="C16" s="125" t="s">
+      <c r="C16" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="136">
+      <c r="D16" s="132">
         <v>380</v>
       </c>
-      <c r="E16" s="130" t="s">
+      <c r="E16" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="130" t="s">
+      <c r="F16" s="126" t="s">
         <v>41</v>
       </c>
       <c r="G16" s="1"/>
@@ -8670,22 +8667,22 @@
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="134" t="s">
+      <c r="A17" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="121">
+      <c r="B17" s="117">
         <v>75</v>
       </c>
-      <c r="C17" s="125" t="s">
+      <c r="C17" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="136">
+      <c r="D17" s="132">
         <v>857</v>
       </c>
-      <c r="E17" s="136">
+      <c r="E17" s="132">
         <v>625</v>
       </c>
-      <c r="F17" s="131">
+      <c r="F17" s="127">
         <v>0.27</v>
       </c>
       <c r="G17" s="1"/>
@@ -8704,22 +8701,22 @@
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="134" t="s">
+      <c r="A18" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="121">
+      <c r="B18" s="117">
         <v>75</v>
       </c>
-      <c r="C18" s="125" t="s">
+      <c r="C18" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="136">
+      <c r="D18" s="132">
         <v>847</v>
       </c>
-      <c r="E18" s="136">
+      <c r="E18" s="132">
         <v>618</v>
       </c>
-      <c r="F18" s="131">
+      <c r="F18" s="127">
         <v>0.27</v>
       </c>
       <c r="G18" s="1"/>
@@ -8738,22 +8735,22 @@
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="135" t="s">
+      <c r="A19" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="127">
+      <c r="B19" s="123">
         <v>75</v>
       </c>
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="136">
+      <c r="D19" s="132">
         <v>938</v>
       </c>
-      <c r="E19" s="136">
+      <c r="E19" s="132">
         <v>684</v>
       </c>
-      <c r="F19" s="131">
+      <c r="F19" s="127">
         <v>0.27</v>
       </c>
       <c r="G19" s="1"/>
@@ -8772,12 +8769,12 @@
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="143"/>
-      <c r="B20" s="142"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
+      <c r="A20" s="139"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -8794,7 +8791,7 @@
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="142"/>
+      <c r="A21" s="138"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -9568,142 +9565,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="123" t="s">
+      <c r="C1" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="129" t="s">
+      <c r="D1" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="128" t="s">
+      <c r="E1" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="128" t="s">
+      <c r="F1" s="124" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="130" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="121">
+      <c r="B2" s="117">
         <v>250</v>
       </c>
-      <c r="C2" s="137" t="s">
+      <c r="C2" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="128" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="132" t="s">
+      <c r="E2" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="131">
+      <c r="F2" s="127">
         <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="130" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="121">
+      <c r="B3" s="117">
         <v>250</v>
       </c>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="132" t="s">
+      <c r="D3" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="132" t="s">
+      <c r="E3" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="131">
+      <c r="F3" s="127">
         <v>0.33</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="130" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="121">
+      <c r="B4" s="117">
         <v>250</v>
       </c>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="132" t="s">
+      <c r="D4" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="132" t="s">
+      <c r="E4" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="131">
+      <c r="F4" s="127">
         <v>0.44</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="130" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="121">
+      <c r="B5" s="117">
         <v>250</v>
       </c>
-      <c r="C5" s="137" t="s">
+      <c r="C5" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="133">
+      <c r="D5" s="129">
         <v>2157</v>
       </c>
-      <c r="E5" s="132" t="s">
+      <c r="E5" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="131">
+      <c r="F5" s="127">
         <v>0.62</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="127">
+      <c r="B6" s="123">
         <v>250</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="140">
+      <c r="D6" s="136">
         <v>919</v>
       </c>
-      <c r="E6" s="130" t="s">
+      <c r="E6" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="130" t="s">
+      <c r="F6" s="126" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="135" t="s">
+      <c r="A7" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="127">
+      <c r="B7" s="123">
         <v>250</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="140">
+      <c r="D7" s="136">
         <v>1200</v>
       </c>
-      <c r="E7" s="130" t="s">
+      <c r="E7" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="130" t="s">
+      <c r="F7" s="126" t="s">
         <v>41</v>
       </c>
     </row>
@@ -9719,7 +9716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -9730,482 +9727,482 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="123" t="s">
+      <c r="C1" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="129" t="s">
+      <c r="D1" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="128" t="s">
+      <c r="E1" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="128" t="s">
+      <c r="F1" s="124" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="121">
+      <c r="B2" s="117">
         <v>50</v>
       </c>
-      <c r="C2" s="125" t="s">
+      <c r="C2" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="128" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="132" t="s">
+      <c r="E2" s="128" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="131">
+      <c r="F2" s="127">
         <v>0.16</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="121">
+      <c r="B3" s="117">
         <v>50</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="132" t="s">
+      <c r="D3" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="132" t="s">
+      <c r="E3" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="131">
+      <c r="F3" s="127">
         <v>0.08</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="121">
+      <c r="B4" s="117">
         <v>50</v>
       </c>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="133">
+      <c r="D4" s="129">
         <v>5700</v>
       </c>
-      <c r="E4" s="132" t="s">
+      <c r="E4" s="128" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="131">
+      <c r="F4" s="127">
         <v>0.78</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="121">
+      <c r="B5" s="117">
         <v>50</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="133">
+      <c r="D5" s="129">
         <v>1100</v>
       </c>
-      <c r="E5" s="133">
+      <c r="E5" s="129">
         <v>649</v>
       </c>
-      <c r="F5" s="131">
+      <c r="F5" s="127">
         <v>0.41</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="121">
+      <c r="B6" s="117">
         <v>0.6</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="140">
+      <c r="D6" s="136">
         <v>1190</v>
       </c>
-      <c r="E6" s="140">
+      <c r="E6" s="136">
         <v>595</v>
       </c>
-      <c r="F6" s="131">
+      <c r="F6" s="127">
         <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="121">
+      <c r="B7" s="117">
         <v>0.6</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="140">
+      <c r="D7" s="136">
         <v>1030</v>
       </c>
-      <c r="E7" s="140">
+      <c r="E7" s="136">
         <v>597</v>
       </c>
-      <c r="F7" s="149">
+      <c r="F7" s="145">
         <v>0.42</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A8" s="135" t="s">
+      <c r="A8" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="127">
+      <c r="B8" s="123">
         <v>50</v>
       </c>
-      <c r="C8" s="125" t="s">
+      <c r="C8" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="141" t="s">
+      <c r="D8" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="141" t="s">
+      <c r="E8" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="141" t="s">
+      <c r="F8" s="137" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A9" s="135" t="s">
+      <c r="A9" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="127">
+      <c r="B9" s="123">
         <v>50</v>
       </c>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="141" t="s">
+      <c r="D9" s="137" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="141" t="s">
+      <c r="E9" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="150" t="s">
+      <c r="F9" s="146" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="127">
+      <c r="B10" s="123">
         <v>25</v>
       </c>
-      <c r="C10" s="125" t="s">
+      <c r="C10" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="140">
+      <c r="D10" s="136">
         <v>3000</v>
       </c>
-      <c r="E10" s="140">
+      <c r="E10" s="136">
         <v>1500</v>
       </c>
-      <c r="F10" s="149">
+      <c r="F10" s="145">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="135" t="s">
+      <c r="A11" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="127">
+      <c r="B11" s="123">
         <v>50</v>
       </c>
-      <c r="C11" s="125" t="s">
+      <c r="C11" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="141" t="s">
+      <c r="D11" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="141" t="s">
+      <c r="E11" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="141" t="s">
+      <c r="F11" s="137" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" s="134" t="s">
+      <c r="A12" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="121">
+      <c r="B12" s="117">
         <v>25</v>
       </c>
-      <c r="C12" s="125" t="s">
+      <c r="C12" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="140">
+      <c r="D12" s="136">
         <v>6600</v>
       </c>
-      <c r="E12" s="140">
+      <c r="E12" s="136">
         <v>3366</v>
       </c>
-      <c r="F12" s="149">
+      <c r="F12" s="145">
         <v>0.49</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="134" t="s">
+      <c r="A13" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="121">
+      <c r="B13" s="117">
         <v>50</v>
       </c>
-      <c r="C13" s="125" t="s">
+      <c r="C13" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="133">
+      <c r="D13" s="129">
         <v>1780</v>
       </c>
-      <c r="E13" s="132" t="s">
+      <c r="E13" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="131">
+      <c r="F13" s="127">
         <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="121">
+      <c r="B14" s="117">
         <v>50</v>
       </c>
-      <c r="C14" s="125" t="s">
+      <c r="C14" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="133">
+      <c r="D14" s="129">
         <v>1300</v>
       </c>
-      <c r="E14" s="133">
+      <c r="E14" s="129">
         <v>650</v>
       </c>
-      <c r="F14" s="131">
+      <c r="F14" s="127">
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="134" t="s">
+      <c r="A15" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="121">
+      <c r="B15" s="117">
         <v>25</v>
       </c>
-      <c r="C15" s="125" t="s">
+      <c r="C15" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="133">
+      <c r="D15" s="129">
         <v>749</v>
       </c>
-      <c r="E15" s="133">
+      <c r="E15" s="129">
         <v>509</v>
       </c>
-      <c r="F15" s="131">
+      <c r="F15" s="127">
         <v>0.32</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A16" s="135" t="s">
+      <c r="A16" s="131" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="121">
+      <c r="B16" s="117">
         <v>25</v>
       </c>
-      <c r="C16" s="125" t="s">
+      <c r="C16" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="133">
+      <c r="D16" s="129">
         <v>693</v>
       </c>
-      <c r="E16" s="133">
+      <c r="E16" s="129">
         <v>630</v>
       </c>
-      <c r="F16" s="131">
+      <c r="F16" s="127">
         <v>0.09</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A17" s="134" t="s">
+      <c r="A17" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="121">
+      <c r="B17" s="117">
         <v>50</v>
       </c>
-      <c r="C17" s="124" t="s">
+      <c r="C17" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="132" t="s">
+      <c r="D17" s="128" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="132" t="s">
+      <c r="E17" s="128" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="131">
+      <c r="F17" s="127">
         <v>0.18</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A18" s="134" t="s">
+      <c r="A18" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="121">
+      <c r="B18" s="117">
         <v>50</v>
       </c>
-      <c r="C18" s="124" t="s">
+      <c r="C18" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="132" t="s">
+      <c r="D18" s="128" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="132" t="s">
+      <c r="E18" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="131">
+      <c r="F18" s="127">
         <v>0.6</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A19" s="134" t="s">
+      <c r="A19" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="121">
+      <c r="B19" s="117">
         <v>0.6</v>
       </c>
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="132" t="s">
+      <c r="D19" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="132" t="s">
+      <c r="E19" s="128" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="131">
+      <c r="F19" s="127">
         <v>0.23</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="134" t="s">
+      <c r="A20" s="130" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="121">
+      <c r="B20" s="117">
         <v>25</v>
       </c>
-      <c r="C20" s="124" t="s">
+      <c r="C20" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="132" t="s">
+      <c r="D20" s="128" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="139" t="s">
+      <c r="E20" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="139" t="s">
+      <c r="F20" s="135" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A21" s="134" t="s">
+      <c r="A21" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="121">
+      <c r="B21" s="117">
         <v>50</v>
       </c>
-      <c r="C21" s="138" t="s">
+      <c r="C21" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="132" t="s">
+      <c r="D21" s="128" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="132" t="s">
+      <c r="E21" s="128" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="131">
+      <c r="F21" s="127">
         <v>0.35</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A22" s="134" t="s">
+      <c r="A22" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="121">
+      <c r="B22" s="117">
         <v>50</v>
       </c>
-      <c r="C22" s="138" t="s">
+      <c r="C22" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="132" t="s">
+      <c r="D22" s="128" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="132" t="s">
+      <c r="E22" s="128" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="131">
+      <c r="F22" s="127">
         <v>0.39</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A23" s="134" t="s">
+      <c r="A23" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="121">
+      <c r="B23" s="117">
         <v>0.6</v>
       </c>
-      <c r="C23" s="138" t="s">
+      <c r="C23" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="132" t="s">
+      <c r="D23" s="128" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="132" t="s">
+      <c r="E23" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="131">
+      <c r="F23" s="127">
         <v>0.3</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A24" s="134" t="s">
+      <c r="A24" s="130" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="121">
+      <c r="B24" s="117">
         <v>25</v>
       </c>
-      <c r="C24" s="138" t="s">
+      <c r="C24" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="132" t="s">
+      <c r="D24" s="128" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="132" t="s">
+      <c r="E24" s="128" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="151">
+      <c r="F24" s="147">
         <v>0.45</v>
       </c>
     </row>

--- a/OralB_analysis.xlsx
+++ b/OralB_analysis.xlsx
@@ -4,15 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Зубные щетки" sheetId="1" r:id="rId1"/>
     <sheet name="Зубная паста" sheetId="2" r:id="rId2"/>
     <sheet name="Ополаскиватели" sheetId="3" r:id="rId3"/>
     <sheet name="Зубные Нити" sheetId="4" r:id="rId4"/>
+    <sheet name="Детские зубные щетки" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Детские зубные щетки'!$A$3:$O$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Зубные щетки'!$J$2:$T$73</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="108">
   <si>
     <t>Объем продаж в денежном выражении</t>
   </si>
@@ -300,6 +302,51 @@
   <si>
     <t>237 ₽</t>
   </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>ORAL-B KIDS 3-5 YEARS T S K 1PCS</t>
+  </si>
+  <si>
+    <t>KIDS</t>
+  </si>
+  <si>
+    <t>ORAL-B KIDS 2-4 YEARS T S K 1PCS</t>
+  </si>
+  <si>
+    <t>BABY</t>
+  </si>
+  <si>
+    <t>ORAL-B BABY T S K 1PCS</t>
+  </si>
+  <si>
+    <t>ORAL-B JUNIOR T S K 1PCS</t>
+  </si>
+  <si>
+    <t>MICKEY MOUSE</t>
+  </si>
+  <si>
+    <t>ORAL-B MICKEY FOR KIDS T S K 1PCS</t>
+  </si>
+  <si>
+    <t>JUNIOR</t>
+  </si>
+  <si>
+    <t>STAGES</t>
+  </si>
+  <si>
+    <t>ORAL-B PRO-EXPERT STAGES 2-4 YEARS T S K 1PCS</t>
+  </si>
+  <si>
+    <t>ORAL-B PRO-EXPERT STAGES 5-7 YEARS T S K 1PCS</t>
+  </si>
+  <si>
+    <t>ORAL-B PRO-EXPERT STAGES 8+ YEARS T S K 1PCS</t>
+  </si>
+  <si>
+    <t>ORAL-B PRO-EXPERT STAGES 4-24 MONTHS T S K 1PCS</t>
+  </si>
 </sst>
 </file>
 
@@ -439,7 +486,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,8 +545,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="72">
+  <borders count="86">
     <border>
       <left/>
       <right/>
@@ -1400,6 +1453,180 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF979991"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF979991"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF979991"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF979991"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF979991"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF979991"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF979991"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF979991"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA9A9A9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA9A9A9"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF979991"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1409,7 +1636,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1541,6 +1768,9 @@
     <xf numFmtId="3" fontId="4" fillId="4" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="11" fillId="4" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1556,6 +1786,9 @@
     <xf numFmtId="3" fontId="4" fillId="4" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1722,6 +1955,9 @@
     <xf numFmtId="3" fontId="4" fillId="4" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1729,6 +1965,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1876,6 +2115,128 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="6" borderId="81" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="6" borderId="82" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="6" borderId="83" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3115,6 +3476,60 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>93110</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="899160" cy="45719"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32476440" y="4695590"/>
+          <a:ext cx="899160" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A2:I73" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42">
   <autoFilter ref="A2:I73"/>
@@ -3467,8 +3882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="K74" sqref="K74"/>
+    <sheetView topLeftCell="A58" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3477,33 +3892,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="148"/>
-      <c r="B1" s="149"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="155" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="151" t="s">
+      <c r="A1" s="152"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="155" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="152" t="s">
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="153"/>
-      <c r="Q1" s="153"/>
-      <c r="R1" s="153"/>
-      <c r="S1" s="153"/>
-      <c r="T1" s="154"/>
-      <c r="U1" s="78"/>
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="157"/>
+      <c r="S1" s="157"/>
+      <c r="T1" s="158"/>
+      <c r="U1" s="80"/>
     </row>
     <row r="2" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -3527,13 +3942,13 @@
       <c r="G2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="79" t="s">
+      <c r="I2" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="52" t="s">
         <v>19</v>
       </c>
       <c r="K2" s="30" t="s">
@@ -3548,7 +3963,7 @@
       <c r="N2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="106" t="s">
+      <c r="O2" s="109" t="s">
         <v>36</v>
       </c>
       <c r="P2" s="30" t="s">
@@ -3563,15 +3978,15 @@
       <c r="S2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="75" t="s">
+      <c r="T2" s="77" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="103" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="36" t="s">
@@ -3589,13 +4004,13 @@
       <c r="G3" s="18">
         <v>1462.8</v>
       </c>
-      <c r="H3" s="64">
+      <c r="H3" s="66">
         <v>1312</v>
       </c>
-      <c r="I3" s="80" t="s">
+      <c r="I3" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="51">
+      <c r="J3" s="53">
         <v>191.95720692209321</v>
       </c>
       <c r="K3" s="41">
@@ -3607,13 +4022,13 @@
       <c r="M3" s="41">
         <v>216.38089103471299</v>
       </c>
-      <c r="N3" s="47">
+      <c r="N3" s="48">
         <v>235.44710480018614</v>
       </c>
-      <c r="O3" s="107" t="s">
+      <c r="O3" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="59">
+      <c r="P3" s="61">
         <v>6.6131615140452502E-2</v>
       </c>
       <c r="Q3" s="6">
@@ -3625,15 +4040,15 @@
       <c r="S3" s="6">
         <v>0.248588930045161</v>
       </c>
-      <c r="T3" s="72">
+      <c r="T3" s="74">
         <v>0.22989331963696799</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="103" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="36" t="s">
@@ -3651,13 +4066,13 @@
       <c r="G4" s="18">
         <v>2778.4</v>
       </c>
-      <c r="H4" s="64">
+      <c r="H4" s="66">
         <v>2493.1999999999998</v>
       </c>
-      <c r="I4" s="80" t="s">
+      <c r="I4" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="51">
+      <c r="J4" s="53">
         <v>168.65354650786475</v>
       </c>
       <c r="K4" s="41">
@@ -3669,13 +4084,13 @@
       <c r="M4" s="41">
         <v>178.12100884649271</v>
       </c>
-      <c r="N4" s="47">
+      <c r="N4" s="48">
         <v>227.55405766060056</v>
       </c>
-      <c r="O4" s="107" t="s">
+      <c r="O4" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="59">
+      <c r="P4" s="61">
         <v>0.135404131377239</v>
       </c>
       <c r="Q4" s="6">
@@ -3687,15 +4102,15 @@
       <c r="S4" s="6">
         <v>0.89617577930511105</v>
       </c>
-      <c r="T4" s="72">
+      <c r="T4" s="74">
         <v>0.75065706784299202</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="103" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="36" t="s">
@@ -3713,13 +4128,13 @@
       <c r="G5" s="18">
         <v>2778.4</v>
       </c>
-      <c r="H5" s="64">
+      <c r="H5" s="66">
         <v>2493.1999999999998</v>
       </c>
-      <c r="I5" s="80" t="s">
+      <c r="I5" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="51">
+      <c r="J5" s="53">
         <v>173.86514017043831</v>
       </c>
       <c r="K5" s="41">
@@ -3731,13 +4146,13 @@
       <c r="M5" s="41">
         <v>158.08907957660193</v>
       </c>
-      <c r="N5" s="114">
+      <c r="N5" s="118">
         <v>232.0406871758473</v>
       </c>
-      <c r="O5" s="112" t="s">
+      <c r="O5" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="59">
+      <c r="P5" s="61">
         <v>2.05938146192144E-2</v>
       </c>
       <c r="Q5" s="6">
@@ -3749,15 +4164,15 @@
       <c r="S5" s="6">
         <v>0.57791057438718896</v>
       </c>
-      <c r="T5" s="72">
+      <c r="T5" s="74">
         <v>0.58504509006710403</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="103" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="36" t="s">
@@ -3775,13 +4190,13 @@
       <c r="G6" s="18">
         <v>4530.7</v>
       </c>
-      <c r="H6" s="64">
+      <c r="H6" s="66">
         <v>2488.8000000000002</v>
       </c>
-      <c r="I6" s="80" t="s">
+      <c r="I6" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="51">
+      <c r="J6" s="53">
         <v>165.56513747195251</v>
       </c>
       <c r="K6" s="41">
@@ -3793,13 +4208,13 @@
       <c r="M6" s="41">
         <v>182.59790712369264</v>
       </c>
-      <c r="N6" s="47">
+      <c r="N6" s="48">
         <v>240.28610832984705</v>
       </c>
-      <c r="O6" s="116" t="s">
+      <c r="O6" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="59">
+      <c r="P6" s="61">
         <v>0.148654188327207</v>
       </c>
       <c r="Q6" s="6">
@@ -3811,18 +4226,18 @@
       <c r="S6" s="6">
         <v>0.83045820306745699</v>
       </c>
-      <c r="T6" s="72">
+      <c r="T6" s="74">
         <v>0.39475828029092702</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="89" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="141" t="s">
+      <c r="C7" s="145" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="14">
@@ -3837,53 +4252,48 @@
       <c r="G7" s="19">
         <v>12010.2</v>
       </c>
-      <c r="H7" s="65">
+      <c r="H7" s="67">
         <v>9448.5</v>
       </c>
-      <c r="I7" s="81" t="s">
+      <c r="I7" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="52">
-        <f>AVERAGE(J3:J6)</f>
-        <v>175.0102577680872</v>
-      </c>
-      <c r="K7" s="52">
-        <f t="shared" ref="K7:N7" si="0">AVERAGE(K3:K6)</f>
-        <v>184.9820108198823</v>
-      </c>
-      <c r="L7" s="52">
-        <f t="shared" si="0"/>
-        <v>188.15947138069458</v>
-      </c>
-      <c r="M7" s="52">
-        <f t="shared" si="0"/>
-        <v>183.79722164537506</v>
-      </c>
-      <c r="N7" s="52">
-        <f t="shared" si="0"/>
-        <v>233.83198949162025</v>
-      </c>
-      <c r="O7" s="140" t="s">
+      <c r="J7" s="54">
+        <v>172.77017322106028</v>
+      </c>
+      <c r="K7" s="46">
+        <v>188.07069194561191</v>
+      </c>
+      <c r="L7" s="46">
+        <v>184.29912410651457</v>
+      </c>
+      <c r="M7" s="46">
+        <v>182.93116594393672</v>
+      </c>
+      <c r="N7" s="49">
+        <v>232.274477406074</v>
+      </c>
+      <c r="O7" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="57">
+      <c r="P7" s="59">
         <f>SUM(P3:P6)</f>
         <v>0.37078374946411291</v>
       </c>
-      <c r="Q7" s="55">
-        <f t="shared" ref="Q7:T7" si="1">SUM(Q3:Q6)</f>
+      <c r="Q7" s="57">
+        <f t="shared" ref="Q7:T7" si="0">SUM(Q3:Q6)</f>
         <v>2.132841881081065</v>
       </c>
-      <c r="R7" s="55">
-        <f t="shared" si="1"/>
+      <c r="R7" s="57">
+        <f t="shared" si="0"/>
         <v>2.8535787537627471</v>
       </c>
-      <c r="S7" s="55">
-        <f t="shared" si="1"/>
+      <c r="S7" s="57">
+        <f t="shared" si="0"/>
         <v>2.553133486804918</v>
       </c>
-      <c r="T7" s="76">
-        <f t="shared" si="1"/>
+      <c r="T7" s="78">
+        <f t="shared" si="0"/>
         <v>1.9603537578379913</v>
       </c>
     </row>
@@ -3891,7 +4301,7 @@
       <c r="A8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="104" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="37" t="s">
@@ -3909,13 +4319,13 @@
       <c r="G8" s="20">
         <v>1137</v>
       </c>
-      <c r="H8" s="66">
+      <c r="H8" s="68">
         <v>1647.9</v>
       </c>
-      <c r="I8" s="80" t="s">
+      <c r="I8" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="53">
+      <c r="J8" s="55">
         <v>0</v>
       </c>
       <c r="K8" s="44">
@@ -3927,13 +4337,13 @@
       <c r="M8" s="44">
         <v>187.95184393547504</v>
       </c>
-      <c r="N8" s="49">
+      <c r="N8" s="50">
         <v>206.84484195209467</v>
       </c>
-      <c r="O8" s="113" t="s">
+      <c r="O8" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="53">
+      <c r="P8" s="55">
         <v>0</v>
       </c>
       <c r="Q8" s="44">
@@ -3945,7 +4355,7 @@
       <c r="S8" s="44">
         <v>187.95184393547504</v>
       </c>
-      <c r="T8" s="61">
+      <c r="T8" s="63">
         <v>206.84484195209467</v>
       </c>
     </row>
@@ -3953,7 +4363,7 @@
       <c r="A9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="103" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="36" t="s">
@@ -3971,13 +4381,13 @@
       <c r="G9" s="18">
         <v>8346.5</v>
       </c>
-      <c r="H9" s="64">
+      <c r="H9" s="66">
         <v>9747.1</v>
       </c>
-      <c r="I9" s="80" t="s">
+      <c r="I9" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="53">
         <v>0</v>
       </c>
       <c r="K9" s="41">
@@ -3989,10 +4399,10 @@
       <c r="M9" s="41">
         <v>150.2896068857612</v>
       </c>
-      <c r="N9" s="47">
+      <c r="N9" s="48">
         <v>173.23128890240204</v>
       </c>
-      <c r="O9" s="115" t="s">
+      <c r="O9" s="119" t="s">
         <v>4</v>
       </c>
       <c r="P9" s="41">
@@ -4007,7 +4417,7 @@
       <c r="S9" s="41">
         <v>150.2896068857612</v>
       </c>
-      <c r="T9" s="60">
+      <c r="T9" s="62">
         <v>173.23128890240204</v>
       </c>
     </row>
@@ -4015,7 +4425,7 @@
       <c r="A10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="103" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="36" t="s">
@@ -4033,13 +4443,13 @@
       <c r="G10" s="18">
         <v>3290.9</v>
       </c>
-      <c r="H10" s="64">
+      <c r="H10" s="66">
         <v>5078.5</v>
       </c>
-      <c r="I10" s="80" t="s">
+      <c r="I10" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="51">
+      <c r="J10" s="53">
         <v>0</v>
       </c>
       <c r="K10" s="41">
@@ -4051,13 +4461,13 @@
       <c r="M10" s="41">
         <v>140.03747810760822</v>
       </c>
-      <c r="N10" s="47">
+      <c r="N10" s="48">
         <v>176.94104956540357</v>
       </c>
-      <c r="O10" s="107" t="s">
+      <c r="O10" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="51">
+      <c r="P10" s="53">
         <v>0</v>
       </c>
       <c r="Q10" s="41">
@@ -4069,7 +4479,7 @@
       <c r="S10" s="41">
         <v>140.03747810760822</v>
       </c>
-      <c r="T10" s="60">
+      <c r="T10" s="62">
         <v>176.94104956540357</v>
       </c>
     </row>
@@ -4077,7 +4487,7 @@
       <c r="A11" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="103" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="36" t="s">
@@ -4095,13 +4505,13 @@
       <c r="G11" s="18">
         <v>18258.7</v>
       </c>
-      <c r="H11" s="64">
+      <c r="H11" s="66">
         <v>25182.7</v>
       </c>
-      <c r="I11" s="80" t="s">
+      <c r="I11" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="51">
+      <c r="J11" s="53">
         <v>0</v>
       </c>
       <c r="K11" s="41">
@@ -4113,13 +4523,13 @@
       <c r="M11" s="41">
         <v>147.12862961086921</v>
       </c>
-      <c r="N11" s="47">
+      <c r="N11" s="48">
         <v>188.44159524511352</v>
       </c>
-      <c r="O11" s="107" t="s">
+      <c r="O11" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="P11" s="51">
+      <c r="P11" s="53">
         <v>0</v>
       </c>
       <c r="Q11" s="41">
@@ -4131,7 +4541,7 @@
       <c r="S11" s="41">
         <v>147.12862961086921</v>
       </c>
-      <c r="T11" s="60">
+      <c r="T11" s="62">
         <v>188.44159524511352</v>
       </c>
     </row>
@@ -4142,7 +4552,7 @@
       <c r="B12" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="142" t="s">
+      <c r="C12" s="146" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="13">
@@ -4157,52 +4567,48 @@
       <c r="G12" s="19">
         <v>34493.1</v>
       </c>
-      <c r="H12" s="65">
+      <c r="H12" s="67">
         <v>47526.5</v>
       </c>
-      <c r="I12" s="81" t="s">
+      <c r="I12" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="52">
-        <f>AVERAGE(J8:J11)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="52">
-        <v>223</v>
-      </c>
-      <c r="L12" s="52">
-        <f t="shared" ref="L12" si="2">AVERAGE(L8:L11)</f>
-        <v>183.36696481948533</v>
-      </c>
-      <c r="M12" s="52">
-        <f t="shared" ref="M12" si="3">AVERAGE(M8:M11)</f>
-        <v>156.35188963492843</v>
-      </c>
-      <c r="N12" s="52">
-        <f t="shared" ref="N12" si="4">AVERAGE(N8:N11)</f>
-        <v>186.36469391625343</v>
-      </c>
-      <c r="O12" s="108" t="s">
+      <c r="J12" s="54">
+        <v>0</v>
+      </c>
+      <c r="K12" s="46">
+        <v>222.96560000000002</v>
+      </c>
+      <c r="L12" s="46">
+        <v>154.93478925566356</v>
+      </c>
+      <c r="M12" s="46">
+        <v>147.56727964766333</v>
+      </c>
+      <c r="N12" s="49">
+        <v>183.59173603837581</v>
+      </c>
+      <c r="O12" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="P12" s="57">
+      <c r="P12" s="59">
         <f>SUM(P8:P11)</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="55">
-        <f t="shared" ref="Q12" si="5">SUM(Q8:Q11)</f>
+      <c r="Q12" s="57">
+        <f t="shared" ref="Q12" si="1">SUM(Q8:Q11)</f>
         <v>222.96560000000002</v>
       </c>
-      <c r="R12" s="55">
-        <f t="shared" ref="R12" si="6">SUM(R8:R11)</f>
+      <c r="R12" s="57">
+        <f t="shared" ref="R12" si="2">SUM(R8:R11)</f>
         <v>733.46785927794133</v>
       </c>
-      <c r="S12" s="55">
-        <f t="shared" ref="S12" si="7">SUM(S8:S11)</f>
+      <c r="S12" s="57">
+        <f t="shared" ref="S12" si="3">SUM(S8:S11)</f>
         <v>625.4075585397137</v>
       </c>
-      <c r="T12" s="76">
-        <f t="shared" ref="T12" si="8">SUM(T8:T11)</f>
+      <c r="T12" s="78">
+        <f t="shared" ref="T12" si="4">SUM(T8:T11)</f>
         <v>745.45877566501372</v>
       </c>
     </row>
@@ -4210,7 +4616,7 @@
       <c r="A13" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="104" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="37" t="s">
@@ -4228,13 +4634,13 @@
       <c r="G13" s="20">
         <v>4928</v>
       </c>
-      <c r="H13" s="66">
+      <c r="H13" s="68">
         <v>5702.8</v>
       </c>
-      <c r="I13" s="80" t="s">
+      <c r="I13" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="53">
+      <c r="J13" s="55">
         <v>0</v>
       </c>
       <c r="K13" s="44">
@@ -4246,13 +4652,13 @@
       <c r="M13" s="44">
         <v>178.55437214177076</v>
       </c>
-      <c r="N13" s="49">
+      <c r="N13" s="50">
         <v>192.56408635488714</v>
       </c>
-      <c r="O13" s="107" t="s">
+      <c r="O13" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="P13" s="53">
+      <c r="P13" s="55">
         <v>0</v>
       </c>
       <c r="Q13" s="44">
@@ -4264,7 +4670,7 @@
       <c r="S13" s="44">
         <v>178.55437214177076</v>
       </c>
-      <c r="T13" s="61">
+      <c r="T13" s="63">
         <v>192.56408635488714</v>
       </c>
     </row>
@@ -4272,7 +4678,7 @@
       <c r="A14" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="103" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="36" t="s">
@@ -4290,13 +4696,13 @@
       <c r="G14" s="18">
         <v>3863.3</v>
       </c>
-      <c r="H14" s="64">
+      <c r="H14" s="66">
         <v>6499.3</v>
       </c>
-      <c r="I14" s="80" t="s">
+      <c r="I14" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="51">
+      <c r="J14" s="53">
         <v>0</v>
       </c>
       <c r="K14" s="41">
@@ -4308,13 +4714,13 @@
       <c r="M14" s="41">
         <v>158.87126155811541</v>
       </c>
-      <c r="N14" s="47">
+      <c r="N14" s="48">
         <v>187.6187338453943</v>
       </c>
-      <c r="O14" s="107" t="s">
+      <c r="O14" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="51">
+      <c r="P14" s="53">
         <v>0</v>
       </c>
       <c r="Q14" s="41">
@@ -4326,7 +4732,7 @@
       <c r="S14" s="41">
         <v>158.87126155811541</v>
       </c>
-      <c r="T14" s="60">
+      <c r="T14" s="62">
         <v>187.6187338453943</v>
       </c>
     </row>
@@ -4334,7 +4740,7 @@
       <c r="A15" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="103" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="36" t="s">
@@ -4352,13 +4758,13 @@
       <c r="G15" s="18">
         <v>1248.2</v>
       </c>
-      <c r="H15" s="64">
+      <c r="H15" s="66">
         <v>1774.1</v>
       </c>
-      <c r="I15" s="80" t="s">
+      <c r="I15" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="51">
+      <c r="J15" s="53">
         <v>0</v>
       </c>
       <c r="K15" s="41">
@@ -4370,13 +4776,13 @@
       <c r="M15" s="41">
         <v>152.60878765318247</v>
       </c>
-      <c r="N15" s="47">
+      <c r="N15" s="48">
         <v>192.34505125201312</v>
       </c>
-      <c r="O15" s="107" t="s">
+      <c r="O15" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="51">
+      <c r="P15" s="53">
         <v>0</v>
       </c>
       <c r="Q15" s="41">
@@ -4388,7 +4794,7 @@
       <c r="S15" s="41">
         <v>152.60878765318247</v>
       </c>
-      <c r="T15" s="60">
+      <c r="T15" s="62">
         <v>192.34505125201312</v>
       </c>
     </row>
@@ -4396,7 +4802,7 @@
       <c r="A16" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="103" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="36" t="s">
@@ -4414,13 +4820,13 @@
       <c r="G16" s="18">
         <v>6968.4</v>
       </c>
-      <c r="H16" s="64">
+      <c r="H16" s="66">
         <v>4783.3</v>
       </c>
-      <c r="I16" s="80" t="s">
+      <c r="I16" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="51">
+      <c r="J16" s="53">
         <v>0</v>
       </c>
       <c r="K16" s="41">
@@ -4432,13 +4838,13 @@
       <c r="M16" s="41">
         <v>159.80184033729461</v>
       </c>
-      <c r="N16" s="47">
+      <c r="N16" s="48">
         <v>201.06449489511073</v>
       </c>
-      <c r="O16" s="107" t="s">
+      <c r="O16" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="P16" s="51">
+      <c r="P16" s="53">
         <v>0</v>
       </c>
       <c r="Q16" s="41">
@@ -4450,7 +4856,7 @@
       <c r="S16" s="41">
         <v>159.80184033729461</v>
       </c>
-      <c r="T16" s="60">
+      <c r="T16" s="62">
         <v>201.06449489511073</v>
       </c>
     </row>
@@ -4461,7 +4867,7 @@
       <c r="B17" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="142" t="s">
+      <c r="C17" s="146" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="13">
@@ -4476,48 +4882,48 @@
       <c r="G17" s="19">
         <v>19310.400000000001</v>
       </c>
-      <c r="H17" s="65">
+      <c r="H17" s="67">
         <v>21720.2</v>
       </c>
-      <c r="I17" s="82" t="s">
+      <c r="I17" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="J17" s="52">
-        <v>0</v>
-      </c>
-      <c r="K17" s="45">
-        <v>0</v>
-      </c>
-      <c r="L17" s="45">
+      <c r="J17" s="54">
+        <v>0</v>
+      </c>
+      <c r="K17" s="46">
+        <v>0</v>
+      </c>
+      <c r="L17" s="46">
         <v>171.87149220205424</v>
       </c>
-      <c r="M17" s="45">
+      <c r="M17" s="46">
         <v>163.66734584694896</v>
       </c>
-      <c r="N17" s="48">
+      <c r="N17" s="49">
         <v>194.46378004005643</v>
       </c>
-      <c r="O17" s="108" t="s">
+      <c r="O17" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="P17" s="57">
+      <c r="P17" s="59">
         <f>SUM(P13:P16)</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="55">
-        <f t="shared" ref="Q17" si="9">SUM(Q13:Q16)</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="55">
-        <f t="shared" ref="R17" si="10">SUM(R13:R16)</f>
+      <c r="Q17" s="57">
+        <f t="shared" ref="Q17" si="5">SUM(Q13:Q16)</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="57">
+        <f t="shared" ref="R17" si="6">SUM(R13:R16)</f>
         <v>719.85173132332693</v>
       </c>
-      <c r="S17" s="55">
-        <f t="shared" ref="S17" si="11">SUM(S13:S16)</f>
+      <c r="S17" s="57">
+        <f t="shared" ref="S17" si="7">SUM(S13:S16)</f>
         <v>649.83626169036324</v>
       </c>
-      <c r="T17" s="76">
-        <f t="shared" ref="T17" si="12">SUM(T13:T16)</f>
+      <c r="T17" s="78">
+        <f t="shared" ref="T17" si="8">SUM(T13:T16)</f>
         <v>773.59236634740523</v>
       </c>
     </row>
@@ -4525,7 +4931,7 @@
       <c r="A18" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="104" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="37" t="s">
@@ -4543,13 +4949,13 @@
       <c r="G18" s="6">
         <v>1458.9686153999999</v>
       </c>
-      <c r="H18" s="67">
+      <c r="H18" s="69">
         <v>1745.6753527799997</v>
       </c>
-      <c r="I18" s="83" t="s">
+      <c r="I18" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="53">
+      <c r="J18" s="55">
         <v>0</v>
       </c>
       <c r="K18" s="44">
@@ -4561,13 +4967,13 @@
       <c r="M18" s="44">
         <v>188.36696325682436</v>
       </c>
-      <c r="N18" s="49">
+      <c r="N18" s="50">
         <v>204.64017537702367</v>
       </c>
-      <c r="O18" s="109" t="s">
+      <c r="O18" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="P18" s="53">
+      <c r="P18" s="55">
         <v>0</v>
       </c>
       <c r="Q18" s="44">
@@ -4579,7 +4985,7 @@
       <c r="S18" s="44">
         <v>188.36696325682436</v>
       </c>
-      <c r="T18" s="61">
+      <c r="T18" s="63">
         <v>204.64017537702367</v>
       </c>
     </row>
@@ -4587,7 +4993,7 @@
       <c r="A19" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="104" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="37" t="s">
@@ -4605,13 +5011,13 @@
       <c r="G19" s="6">
         <v>14524.560118559999</v>
       </c>
-      <c r="H19" s="67">
+      <c r="H19" s="69">
         <v>10251.201132959999</v>
       </c>
-      <c r="I19" s="83" t="s">
+      <c r="I19" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="51">
+      <c r="J19" s="53">
         <v>157.62744102672539</v>
       </c>
       <c r="K19" s="41">
@@ -4623,13 +5029,13 @@
       <c r="M19" s="41">
         <v>156.42710034595416</v>
       </c>
-      <c r="N19" s="47">
+      <c r="N19" s="48">
         <v>192.68320244896469</v>
       </c>
-      <c r="O19" s="109" t="s">
+      <c r="O19" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="P19" s="51">
+      <c r="P19" s="53">
         <v>157.62744102672539</v>
       </c>
       <c r="Q19" s="41">
@@ -4641,7 +5047,7 @@
       <c r="S19" s="41">
         <v>156.42710034595416</v>
       </c>
-      <c r="T19" s="60">
+      <c r="T19" s="62">
         <v>192.68320244896469</v>
       </c>
     </row>
@@ -4649,7 +5055,7 @@
       <c r="A20" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="104" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="36" t="s">
@@ -4667,13 +5073,13 @@
       <c r="G20" s="6">
         <v>5472.8225724599997</v>
       </c>
-      <c r="H20" s="67">
+      <c r="H20" s="69">
         <v>6600.6651475799999</v>
       </c>
-      <c r="I20" s="80" t="s">
+      <c r="I20" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="51">
+      <c r="J20" s="53">
         <v>0</v>
       </c>
       <c r="K20" s="41">
@@ -4685,13 +5091,13 @@
       <c r="M20" s="41">
         <v>154.55579123292767</v>
       </c>
-      <c r="N20" s="47">
+      <c r="N20" s="48">
         <v>184.6893444712305</v>
       </c>
-      <c r="O20" s="107" t="s">
+      <c r="O20" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="51">
+      <c r="P20" s="53">
         <v>0</v>
       </c>
       <c r="Q20" s="41">
@@ -4703,7 +5109,7 @@
       <c r="S20" s="41">
         <v>154.55579123292767</v>
       </c>
-      <c r="T20" s="60">
+      <c r="T20" s="62">
         <v>184.6893444712305</v>
       </c>
     </row>
@@ -4711,7 +5117,7 @@
       <c r="A21" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="104" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="36" t="s">
@@ -4729,13 +5135,13 @@
       <c r="G21" s="6">
         <v>1616.8953306000001</v>
       </c>
-      <c r="H21" s="67">
+      <c r="H21" s="69">
         <v>726.86223906000009</v>
       </c>
-      <c r="I21" s="80" t="s">
+      <c r="I21" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="51">
+      <c r="J21" s="53">
         <v>135.02255180359663</v>
       </c>
       <c r="K21" s="41">
@@ -4747,13 +5153,13 @@
       <c r="M21" s="41">
         <v>165.85701829937128</v>
       </c>
-      <c r="N21" s="47">
+      <c r="N21" s="48">
         <v>193.04080121958518</v>
       </c>
-      <c r="O21" s="107" t="s">
+      <c r="O21" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="51">
+      <c r="P21" s="53">
         <v>135.02255180359663</v>
       </c>
       <c r="Q21" s="41">
@@ -4765,7 +5171,7 @@
       <c r="S21" s="41">
         <v>165.85701829937128</v>
       </c>
-      <c r="T21" s="60">
+      <c r="T21" s="62">
         <v>193.04080121958518</v>
       </c>
     </row>
@@ -4773,7 +5179,7 @@
       <c r="A22" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="104" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="36" t="s">
@@ -4791,13 +5197,13 @@
       <c r="G22" s="6">
         <v>140.95447332000001</v>
       </c>
-      <c r="H22" s="67">
+      <c r="H22" s="69">
         <v>164.92366235999998</v>
       </c>
-      <c r="I22" s="80" t="s">
+      <c r="I22" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="J22" s="51">
+      <c r="J22" s="53">
         <v>0</v>
       </c>
       <c r="K22" s="41">
@@ -4809,13 +5215,13 @@
       <c r="M22" s="41">
         <v>189.30463426800642</v>
       </c>
-      <c r="N22" s="47">
+      <c r="N22" s="48">
         <v>209.19480105646409</v>
       </c>
-      <c r="O22" s="107" t="s">
+      <c r="O22" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="P22" s="51">
+      <c r="P22" s="53">
         <v>0</v>
       </c>
       <c r="Q22" s="41">
@@ -4827,7 +5233,7 @@
       <c r="S22" s="41">
         <v>189.30463426800642</v>
       </c>
-      <c r="T22" s="60">
+      <c r="T22" s="62">
         <v>209.19480105646409</v>
       </c>
     </row>
@@ -4835,7 +5241,7 @@
       <c r="A23" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="102" t="s">
+      <c r="B23" s="104" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="36" t="s">
@@ -4853,13 +5259,13 @@
       <c r="G23" s="6">
         <v>1437.64100214</v>
       </c>
-      <c r="H23" s="67">
+      <c r="H23" s="69">
         <v>1765.82371758</v>
       </c>
-      <c r="I23" s="80" t="s">
+      <c r="I23" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="51">
+      <c r="J23" s="53">
         <v>141.05480351305545</v>
       </c>
       <c r="K23" s="41">
@@ -4871,13 +5277,13 @@
       <c r="M23" s="41">
         <v>176.17428800386159</v>
       </c>
-      <c r="N23" s="47">
+      <c r="N23" s="48">
         <v>169.11514600007573</v>
       </c>
-      <c r="O23" s="107" t="s">
+      <c r="O23" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="P23" s="51">
+      <c r="P23" s="53">
         <v>141.05480351305545</v>
       </c>
       <c r="Q23" s="41">
@@ -4889,7 +5295,7 @@
       <c r="S23" s="41">
         <v>176.17428800386159</v>
       </c>
-      <c r="T23" s="60">
+      <c r="T23" s="62">
         <v>169.11514600007573</v>
       </c>
     </row>
@@ -4897,7 +5303,7 @@
       <c r="A24" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="102" t="s">
+      <c r="B24" s="104" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="36" t="s">
@@ -4915,13 +5321,13 @@
       <c r="G24" s="6">
         <v>1666.1466743999999</v>
       </c>
-      <c r="H24" s="67">
+      <c r="H24" s="69">
         <v>2115.9301406999998</v>
       </c>
-      <c r="I24" s="80" t="s">
+      <c r="I24" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="51">
+      <c r="J24" s="53">
         <v>0</v>
       </c>
       <c r="K24" s="41">
@@ -4933,13 +5339,13 @@
       <c r="M24" s="41">
         <v>193.9444022141432</v>
       </c>
-      <c r="N24" s="47">
+      <c r="N24" s="48">
         <v>213.63921951441213</v>
       </c>
-      <c r="O24" s="107" t="s">
+      <c r="O24" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="P24" s="51">
+      <c r="P24" s="53">
         <v>0</v>
       </c>
       <c r="Q24" s="41">
@@ -4951,7 +5357,7 @@
       <c r="S24" s="41">
         <v>193.9444022141432</v>
       </c>
-      <c r="T24" s="60">
+      <c r="T24" s="62">
         <v>213.63921951441213</v>
       </c>
     </row>
@@ -4959,7 +5365,7 @@
       <c r="A25" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="104" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="36" t="s">
@@ -4977,13 +5383,13 @@
       <c r="G25" s="6">
         <v>7762.1689344599999</v>
       </c>
-      <c r="H25" s="67">
+      <c r="H25" s="69">
         <v>7020.4825566</v>
       </c>
-      <c r="I25" s="80" t="s">
+      <c r="I25" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="J25" s="51">
+      <c r="J25" s="53">
         <v>145.96525444797643</v>
       </c>
       <c r="K25" s="41">
@@ -4995,13 +5401,13 @@
       <c r="M25" s="41">
         <v>176.28367414890235</v>
       </c>
-      <c r="N25" s="47">
+      <c r="N25" s="48">
         <v>174.400010177377</v>
       </c>
-      <c r="O25" s="107" t="s">
+      <c r="O25" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="P25" s="51">
+      <c r="P25" s="53">
         <v>145.96525444797643</v>
       </c>
       <c r="Q25" s="41">
@@ -5013,7 +5419,7 @@
       <c r="S25" s="41">
         <v>176.28367414890235</v>
       </c>
-      <c r="T25" s="60">
+      <c r="T25" s="62">
         <v>174.400010177377</v>
       </c>
     </row>
@@ -5024,7 +5430,7 @@
       <c r="B26" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="142" t="s">
+      <c r="C26" s="146" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="14">
@@ -5039,53 +5445,53 @@
       <c r="G26" s="19">
         <v>39193.1</v>
       </c>
-      <c r="H26" s="65">
+      <c r="H26" s="67">
         <v>34607.300000000003</v>
       </c>
-      <c r="I26" s="82" t="s">
+      <c r="I26" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="54">
-        <f>AVERAGE(J19,J21:J23,J25)</f>
-        <v>115.93401015827078</v>
-      </c>
-      <c r="K26" s="54">
-        <f>AVERAGE(K19,K21:K23,K25)</f>
-        <v>117.61270937991915</v>
-      </c>
-      <c r="L26" s="46">
-        <f>AVERAGE(L18:L25)</f>
-        <v>180.54820436356607</v>
-      </c>
-      <c r="M26" s="46">
-        <f t="shared" ref="M26:N26" si="13">AVERAGE(M18:M25)</f>
-        <v>175.11423397124886</v>
-      </c>
-      <c r="N26" s="46">
-        <f t="shared" si="13"/>
-        <v>192.67533753314163</v>
-      </c>
-      <c r="O26" s="108" t="s">
+      <c r="J26" s="56">
+        <f>SUM(J18:J25)</f>
+        <v>579.6700507913539</v>
+      </c>
+      <c r="K26" s="47">
+        <f t="shared" ref="K26:N26" si="9">SUM(K18:K25)</f>
+        <v>807.65434689959579</v>
+      </c>
+      <c r="L26" s="47">
+        <f t="shared" si="9"/>
+        <v>1444.3856349085286</v>
+      </c>
+      <c r="M26" s="47">
+        <f t="shared" si="9"/>
+        <v>1400.9138717699909</v>
+      </c>
+      <c r="N26" s="51">
+        <f t="shared" si="9"/>
+        <v>1541.402700265133</v>
+      </c>
+      <c r="O26" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="P26" s="57">
+      <c r="P26" s="59">
         <f>SUM(P18:P25)</f>
         <v>579.6700507913539</v>
       </c>
-      <c r="Q26" s="55">
-        <f t="shared" ref="Q26" si="14">SUM(Q22:Q25)</f>
+      <c r="Q26" s="57">
+        <f t="shared" ref="Q26" si="10">SUM(Q22:Q25)</f>
         <v>516.98697249388226</v>
       </c>
-      <c r="R26" s="55">
-        <f t="shared" ref="R26" si="15">SUM(R22:R25)</f>
+      <c r="R26" s="57">
+        <f t="shared" ref="R26" si="11">SUM(R22:R25)</f>
         <v>790.70886904858321</v>
       </c>
-      <c r="S26" s="55">
-        <f t="shared" ref="S26" si="16">SUM(S22:S25)</f>
+      <c r="S26" s="57">
+        <f t="shared" ref="S26" si="12">SUM(S22:S25)</f>
         <v>735.70699863491359</v>
       </c>
-      <c r="T26" s="76">
-        <f t="shared" ref="T26" si="17">SUM(T22:T25)</f>
+      <c r="T26" s="78">
+        <f t="shared" ref="T26" si="13">SUM(T22:T25)</f>
         <v>766.349176748329</v>
       </c>
     </row>
@@ -5093,7 +5499,7 @@
       <c r="A27" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="102" t="s">
+      <c r="B27" s="104" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="37" t="s">
@@ -5111,13 +5517,13 @@
       <c r="G27" s="20">
         <v>5860.8</v>
       </c>
-      <c r="H27" s="66">
+      <c r="H27" s="68">
         <v>5179.3</v>
       </c>
-      <c r="I27" s="80" t="s">
+      <c r="I27" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="53">
+      <c r="J27" s="55">
         <v>0</v>
       </c>
       <c r="K27" s="44">
@@ -5129,13 +5535,13 @@
       <c r="M27" s="44">
         <v>183.37492723485366</v>
       </c>
-      <c r="N27" s="49">
+      <c r="N27" s="50">
         <v>210.84453866666706</v>
       </c>
-      <c r="O27" s="107" t="s">
+      <c r="O27" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="P27" s="53">
+      <c r="P27" s="55">
         <v>0</v>
       </c>
       <c r="Q27" s="44">
@@ -5147,7 +5553,7 @@
       <c r="S27" s="44">
         <v>183.37492723485366</v>
       </c>
-      <c r="T27" s="61">
+      <c r="T27" s="63">
         <v>210.84453866666706</v>
       </c>
     </row>
@@ -5155,7 +5561,7 @@
       <c r="A28" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="101" t="s">
+      <c r="B28" s="103" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="36" t="s">
@@ -5173,13 +5579,13 @@
       <c r="G28" s="18">
         <v>7116.9</v>
       </c>
-      <c r="H28" s="64">
+      <c r="H28" s="66">
         <v>8248.6</v>
       </c>
-      <c r="I28" s="80" t="s">
+      <c r="I28" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="J28" s="51">
+      <c r="J28" s="53">
         <v>0</v>
       </c>
       <c r="K28" s="41">
@@ -5191,13 +5597,13 @@
       <c r="M28" s="41">
         <v>184.94126846474825</v>
       </c>
-      <c r="N28" s="47">
+      <c r="N28" s="48">
         <v>221.96709380153538</v>
       </c>
-      <c r="O28" s="107" t="s">
+      <c r="O28" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="P28" s="51">
+      <c r="P28" s="53">
         <v>0</v>
       </c>
       <c r="Q28" s="41">
@@ -5209,7 +5615,7 @@
       <c r="S28" s="41">
         <v>184.94126846474825</v>
       </c>
-      <c r="T28" s="60">
+      <c r="T28" s="62">
         <v>221.96709380153538</v>
       </c>
     </row>
@@ -5217,7 +5623,7 @@
       <c r="A29" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="101" t="s">
+      <c r="B29" s="103" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="36" t="s">
@@ -5235,13 +5641,13 @@
       <c r="G29" s="21">
         <v>36.700000000000003</v>
       </c>
-      <c r="H29" s="68">
+      <c r="H29" s="70">
         <v>50.1</v>
       </c>
-      <c r="I29" s="80" t="s">
+      <c r="I29" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="J29" s="51">
+      <c r="J29" s="53">
         <v>0</v>
       </c>
       <c r="K29" s="41">
@@ -5253,13 +5659,13 @@
       <c r="M29" s="41">
         <v>213.64181245901668</v>
       </c>
-      <c r="N29" s="47">
+      <c r="N29" s="48">
         <v>222.27080838323394</v>
       </c>
-      <c r="O29" s="107" t="s">
+      <c r="O29" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="P29" s="51">
+      <c r="P29" s="53">
         <v>0</v>
       </c>
       <c r="Q29" s="41">
@@ -5271,7 +5677,7 @@
       <c r="S29" s="41">
         <v>213.64181245901668</v>
       </c>
-      <c r="T29" s="60">
+      <c r="T29" s="62">
         <v>222.27080838323394</v>
       </c>
     </row>
@@ -5279,7 +5685,7 @@
       <c r="A30" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="101" t="s">
+      <c r="B30" s="103" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="36" t="s">
@@ -5297,13 +5703,13 @@
       <c r="G30" s="18">
         <v>1410.6</v>
       </c>
-      <c r="H30" s="64">
+      <c r="H30" s="66">
         <v>1469.2</v>
       </c>
-      <c r="I30" s="80" t="s">
+      <c r="I30" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="J30" s="51">
+      <c r="J30" s="53">
         <v>0</v>
       </c>
       <c r="K30" s="41">
@@ -5315,13 +5721,13 @@
       <c r="M30" s="41">
         <v>200.36954278816563</v>
       </c>
-      <c r="N30" s="47">
+      <c r="N30" s="48">
         <v>232.96641357771267</v>
       </c>
-      <c r="O30" s="107" t="s">
+      <c r="O30" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="P30" s="51">
+      <c r="P30" s="53">
         <v>0</v>
       </c>
       <c r="Q30" s="41">
@@ -5333,7 +5739,7 @@
       <c r="S30" s="41">
         <v>200.36954278816563</v>
       </c>
-      <c r="T30" s="60">
+      <c r="T30" s="62">
         <v>232.96641357771267</v>
       </c>
     </row>
@@ -5344,7 +5750,7 @@
       <c r="B31" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="142" t="s">
+      <c r="C31" s="146" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="13">
@@ -5359,53 +5765,53 @@
       <c r="G31" s="19">
         <v>15637.3</v>
       </c>
-      <c r="H31" s="65">
+      <c r="H31" s="67">
         <v>16129</v>
       </c>
-      <c r="I31" s="82" t="s">
+      <c r="I31" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="J31" s="52">
-        <f>AVERAGE(J27:J30)</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="52">
-        <f t="shared" ref="K31" si="18">AVERAGE(K27:K30)</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="52">
-        <f t="shared" ref="L31" si="19">AVERAGE(L27:L30)</f>
-        <v>211.52541227679436</v>
-      </c>
-      <c r="M31" s="52">
-        <f t="shared" ref="M31" si="20">AVERAGE(M27:M30)</f>
-        <v>195.58188773669605</v>
-      </c>
-      <c r="N31" s="52">
-        <f t="shared" ref="N31" si="21">AVERAGE(N27:N30)</f>
-        <v>222.01221360728726</v>
-      </c>
-      <c r="O31" s="108" t="s">
-        <v>37</v>
-      </c>
-      <c r="P31" s="57">
+      <c r="J31" s="56">
+        <f>SUM(J27:J30)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="47">
+        <f t="shared" ref="K31:N31" si="14">SUM(K27:K30)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="47">
+        <f t="shared" si="14"/>
+        <v>846.10164910717742</v>
+      </c>
+      <c r="M31" s="47">
+        <f t="shared" si="14"/>
+        <v>782.32755094678419</v>
+      </c>
+      <c r="N31" s="51">
+        <f t="shared" si="14"/>
+        <v>888.04885442914906</v>
+      </c>
+      <c r="O31" s="112" t="s">
+        <v>26</v>
+      </c>
+      <c r="P31" s="59">
         <f>SUM(P27:P30)</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="55">
-        <f t="shared" ref="Q31" si="22">SUM(Q27:Q30)</f>
-        <v>0</v>
-      </c>
-      <c r="R31" s="55">
-        <f t="shared" ref="R31" si="23">SUM(R27:R30)</f>
+      <c r="Q31" s="57">
+        <f t="shared" ref="Q31" si="15">SUM(Q27:Q30)</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="57">
+        <f t="shared" ref="R31" si="16">SUM(R27:R30)</f>
         <v>846.10164910717742</v>
       </c>
-      <c r="S31" s="55">
-        <f t="shared" ref="S31" si="24">SUM(S27:S30)</f>
+      <c r="S31" s="57">
+        <f t="shared" ref="S31" si="17">SUM(S27:S30)</f>
         <v>782.32755094678419</v>
       </c>
-      <c r="T31" s="76">
-        <f t="shared" ref="T31" si="25">SUM(T27:T30)</f>
+      <c r="T31" s="78">
+        <f t="shared" ref="T31" si="18">SUM(T27:T30)</f>
         <v>888.04885442914906</v>
       </c>
     </row>
@@ -5413,7 +5819,7 @@
       <c r="A32" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="102" t="s">
+      <c r="B32" s="104" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="37" t="s">
@@ -5431,13 +5837,13 @@
       <c r="G32" s="22">
         <v>11.7</v>
       </c>
-      <c r="H32" s="69">
+      <c r="H32" s="71">
         <v>330.9</v>
       </c>
-      <c r="I32" s="80" t="s">
+      <c r="I32" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="J32" s="53">
+      <c r="J32" s="55">
         <v>0</v>
       </c>
       <c r="K32" s="44">
@@ -5449,13 +5855,13 @@
       <c r="M32" s="44">
         <v>251.19838841978341</v>
       </c>
-      <c r="N32" s="49">
+      <c r="N32" s="50">
         <v>242.6268502104476</v>
       </c>
-      <c r="O32" s="107" t="s">
+      <c r="O32" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="P32" s="53">
+      <c r="P32" s="55">
         <v>0</v>
       </c>
       <c r="Q32" s="44">
@@ -5467,7 +5873,7 @@
       <c r="S32" s="44">
         <v>251.19838841978341</v>
       </c>
-      <c r="T32" s="61">
+      <c r="T32" s="63">
         <v>242.6268502104476</v>
       </c>
     </row>
@@ -5475,7 +5881,7 @@
       <c r="A33" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="101" t="s">
+      <c r="B33" s="103" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="36" t="s">
@@ -5493,13 +5899,13 @@
       <c r="G33" s="21">
         <v>216.7</v>
       </c>
-      <c r="H33" s="64">
+      <c r="H33" s="66">
         <v>2081.4</v>
       </c>
-      <c r="I33" s="80" t="s">
+      <c r="I33" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="51">
+      <c r="J33" s="53">
         <v>0</v>
       </c>
       <c r="K33" s="41">
@@ -5511,13 +5917,13 @@
       <c r="M33" s="41">
         <v>208.68652622453411</v>
       </c>
-      <c r="N33" s="47">
+      <c r="N33" s="48">
         <v>215.57247332835959</v>
       </c>
-      <c r="O33" s="107" t="s">
+      <c r="O33" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="P33" s="51">
+      <c r="P33" s="53">
         <v>0</v>
       </c>
       <c r="Q33" s="41">
@@ -5529,7 +5935,7 @@
       <c r="S33" s="41">
         <v>208.68652622453411</v>
       </c>
-      <c r="T33" s="60">
+      <c r="T33" s="62">
         <v>215.57247332835959</v>
       </c>
     </row>
@@ -5537,7 +5943,7 @@
       <c r="A34" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="101" t="s">
+      <c r="B34" s="103" t="s">
         <v>6</v>
       </c>
       <c r="C34" s="36" t="s">
@@ -5555,13 +5961,13 @@
       <c r="G34" s="21">
         <v>0</v>
       </c>
-      <c r="H34" s="68">
+      <c r="H34" s="70">
         <v>67.900000000000006</v>
       </c>
-      <c r="I34" s="80" t="s">
+      <c r="I34" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="J34" s="51">
+      <c r="J34" s="53">
         <v>0</v>
       </c>
       <c r="K34" s="41">
@@ -5573,13 +5979,13 @@
       <c r="M34" s="41">
         <v>0</v>
       </c>
-      <c r="N34" s="47">
+      <c r="N34" s="48">
         <v>205.04101630434823</v>
       </c>
-      <c r="O34" s="107" t="s">
+      <c r="O34" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="P34" s="51">
+      <c r="P34" s="53">
         <v>0</v>
       </c>
       <c r="Q34" s="41">
@@ -5591,7 +5997,7 @@
       <c r="S34" s="41">
         <v>0</v>
       </c>
-      <c r="T34" s="60">
+      <c r="T34" s="62">
         <v>205.04101630434823</v>
       </c>
     </row>
@@ -5599,7 +6005,7 @@
       <c r="A35" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="101" t="s">
+      <c r="B35" s="103" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="36" t="s">
@@ -5617,13 +6023,13 @@
       <c r="G35" s="21">
         <v>5.2</v>
       </c>
-      <c r="H35" s="68">
+      <c r="H35" s="70">
         <v>625.20000000000005</v>
       </c>
-      <c r="I35" s="80" t="s">
+      <c r="I35" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="51">
+      <c r="J35" s="53">
         <v>0</v>
       </c>
       <c r="K35" s="41">
@@ -5635,13 +6041,13 @@
       <c r="M35" s="41">
         <v>230.82422055137818</v>
       </c>
-      <c r="N35" s="47">
+      <c r="N35" s="48">
         <v>261.75827879359105</v>
       </c>
-      <c r="O35" s="107" t="s">
+      <c r="O35" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="P35" s="51">
+      <c r="P35" s="53">
         <v>0</v>
       </c>
       <c r="Q35" s="41">
@@ -5653,7 +6059,7 @@
       <c r="S35" s="41">
         <v>230.82422055137818</v>
       </c>
-      <c r="T35" s="60">
+      <c r="T35" s="62">
         <v>261.75827879359105</v>
       </c>
     </row>
@@ -5664,7 +6070,7 @@
       <c r="B36" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="142" t="s">
+      <c r="C36" s="146" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="13">
@@ -5679,53 +6085,53 @@
       <c r="G36" s="19">
         <v>4489.6000000000004</v>
       </c>
-      <c r="H36" s="65">
+      <c r="H36" s="67">
         <v>5032.1000000000004</v>
       </c>
-      <c r="I36" s="82" t="s">
+      <c r="I36" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="J36" s="52">
-        <f>AVERAGE(J32:J35)</f>
-        <v>0</v>
-      </c>
-      <c r="K36" s="52">
-        <f t="shared" ref="K36" si="26">AVERAGE(K32:K35)</f>
-        <v>0</v>
-      </c>
-      <c r="L36" s="52">
-        <f t="shared" ref="L36" si="27">AVERAGE(L32:L35)</f>
-        <v>0</v>
-      </c>
-      <c r="M36" s="52">
-        <f>AVERAGE(M32,M33,M35)</f>
-        <v>230.23637839856522</v>
-      </c>
-      <c r="N36" s="52">
-        <f t="shared" ref="N36" si="28">AVERAGE(N32:N35)</f>
-        <v>231.2496546591866</v>
-      </c>
-      <c r="O36" s="108" t="s">
-        <v>37</v>
-      </c>
-      <c r="P36" s="57">
+      <c r="J36" s="56">
+        <f>SUM(J32:J35)</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="47">
+        <f t="shared" ref="K36:N36" si="19">SUM(K32:K35)</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="47">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="47">
+        <f t="shared" si="19"/>
+        <v>690.70913519569569</v>
+      </c>
+      <c r="N36" s="51">
+        <f t="shared" si="19"/>
+        <v>924.99861863674641</v>
+      </c>
+      <c r="O36" s="112" t="s">
+        <v>26</v>
+      </c>
+      <c r="P36" s="59">
         <f>SUM(P32:P35)</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="55">
-        <f t="shared" ref="Q36" si="29">SUM(Q32:Q35)</f>
-        <v>0</v>
-      </c>
-      <c r="R36" s="55">
-        <f t="shared" ref="R36" si="30">SUM(R32:R35)</f>
-        <v>0</v>
-      </c>
-      <c r="S36" s="55">
-        <f t="shared" ref="S36" si="31">SUM(S32:S35)</f>
+      <c r="Q36" s="57">
+        <f t="shared" ref="Q36" si="20">SUM(Q32:Q35)</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="57">
+        <f t="shared" ref="R36" si="21">SUM(R32:R35)</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="57">
+        <f t="shared" ref="S36" si="22">SUM(S32:S35)</f>
         <v>690.70913519569569</v>
       </c>
-      <c r="T36" s="76">
-        <f t="shared" ref="T36" si="32">SUM(T32:T35)</f>
+      <c r="T36" s="78">
+        <f t="shared" ref="T36" si="23">SUM(T32:T35)</f>
         <v>924.99861863674641</v>
       </c>
     </row>
@@ -5733,7 +6139,7 @@
       <c r="A37" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="102" t="s">
+      <c r="B37" s="104" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="37" t="s">
@@ -5751,13 +6157,13 @@
       <c r="G37" s="22">
         <v>184.2</v>
       </c>
-      <c r="H37" s="69">
+      <c r="H37" s="71">
         <v>271.5</v>
       </c>
-      <c r="I37" s="80" t="s">
+      <c r="I37" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="J37" s="53">
+      <c r="J37" s="55">
         <v>0</v>
       </c>
       <c r="K37" s="44">
@@ -5769,13 +6175,13 @@
       <c r="M37" s="44">
         <v>204.82652952952938</v>
       </c>
-      <c r="N37" s="49">
+      <c r="N37" s="50">
         <v>240.29025440780933</v>
       </c>
-      <c r="O37" s="107" t="s">
+      <c r="O37" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="P37" s="53">
+      <c r="P37" s="55">
         <v>0</v>
       </c>
       <c r="Q37" s="44">
@@ -5787,7 +6193,7 @@
       <c r="S37" s="44">
         <v>204.82652952952938</v>
       </c>
-      <c r="T37" s="61">
+      <c r="T37" s="63">
         <v>240.29025440780933</v>
       </c>
     </row>
@@ -5795,7 +6201,7 @@
       <c r="A38" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="101" t="s">
+      <c r="B38" s="103" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="36" t="s">
@@ -5813,13 +6219,13 @@
       <c r="G38" s="18">
         <v>3539.5</v>
       </c>
-      <c r="H38" s="64">
+      <c r="H38" s="66">
         <v>3948.9</v>
       </c>
-      <c r="I38" s="80" t="s">
+      <c r="I38" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="J38" s="51">
+      <c r="J38" s="53">
         <v>0</v>
       </c>
       <c r="K38" s="41">
@@ -5831,13 +6237,13 @@
       <c r="M38" s="41">
         <v>169.93985787778544</v>
       </c>
-      <c r="N38" s="47">
+      <c r="N38" s="48">
         <v>209.13519896520683</v>
       </c>
-      <c r="O38" s="107" t="s">
+      <c r="O38" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="P38" s="51">
+      <c r="P38" s="53">
         <v>0</v>
       </c>
       <c r="Q38" s="41">
@@ -5849,7 +6255,7 @@
       <c r="S38" s="41">
         <v>169.93985787778544</v>
       </c>
-      <c r="T38" s="60">
+      <c r="T38" s="62">
         <v>209.13519896520683</v>
       </c>
     </row>
@@ -5857,7 +6263,7 @@
       <c r="A39" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="101" t="s">
+      <c r="B39" s="103" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="36" t="s">
@@ -5875,13 +6281,13 @@
       <c r="G39" s="21">
         <v>17.600000000000001</v>
       </c>
-      <c r="H39" s="68">
+      <c r="H39" s="70">
         <v>20.3</v>
       </c>
-      <c r="I39" s="80" t="s">
+      <c r="I39" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="J39" s="51">
+      <c r="J39" s="53">
         <v>0</v>
       </c>
       <c r="K39" s="41">
@@ -5893,13 +6299,13 @@
       <c r="M39" s="41">
         <v>198.89101397712867</v>
       </c>
-      <c r="N39" s="47">
+      <c r="N39" s="48">
         <v>242.5080375838921</v>
       </c>
-      <c r="O39" s="107" t="s">
+      <c r="O39" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="P39" s="51">
+      <c r="P39" s="53">
         <v>0</v>
       </c>
       <c r="Q39" s="41">
@@ -5911,7 +6317,7 @@
       <c r="S39" s="41">
         <v>198.89101397712867</v>
       </c>
-      <c r="T39" s="60">
+      <c r="T39" s="62">
         <v>242.5080375838921</v>
       </c>
     </row>
@@ -5919,7 +6325,7 @@
       <c r="A40" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="101" t="s">
+      <c r="B40" s="103" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="36" t="s">
@@ -5937,13 +6343,13 @@
       <c r="G40" s="21">
         <v>679</v>
       </c>
-      <c r="H40" s="68">
+      <c r="H40" s="70">
         <v>597.20000000000005</v>
       </c>
-      <c r="I40" s="80" t="s">
+      <c r="I40" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="J40" s="51">
+      <c r="J40" s="53">
         <v>0</v>
       </c>
       <c r="K40" s="41">
@@ -5955,13 +6361,13 @@
       <c r="M40" s="41">
         <v>200.3911226706532</v>
       </c>
-      <c r="N40" s="47">
+      <c r="N40" s="48">
         <v>246.25550413069666</v>
       </c>
-      <c r="O40" s="107" t="s">
+      <c r="O40" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="P40" s="51">
+      <c r="P40" s="53">
         <v>0</v>
       </c>
       <c r="Q40" s="41">
@@ -5973,7 +6379,7 @@
       <c r="S40" s="41">
         <v>200.3911226706532</v>
       </c>
-      <c r="T40" s="60">
+      <c r="T40" s="62">
         <v>246.25550413069666</v>
       </c>
     </row>
@@ -5984,7 +6390,7 @@
       <c r="B41" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="142" t="s">
+      <c r="C41" s="146" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="13">
@@ -5999,53 +6405,53 @@
       <c r="G41" s="19">
         <v>4489.6000000000004</v>
       </c>
-      <c r="H41" s="65">
+      <c r="H41" s="67">
         <v>5032.1000000000004</v>
       </c>
-      <c r="I41" s="82" t="s">
+      <c r="I41" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="J41" s="52">
-        <f>AVERAGE(J37:J40)</f>
-        <v>0</v>
-      </c>
-      <c r="K41" s="52">
-        <f t="shared" ref="K41" si="33">AVERAGE(K37:K40)</f>
-        <v>0</v>
-      </c>
-      <c r="L41" s="52">
-        <f t="shared" ref="L41" si="34">AVERAGE(L37:L40)</f>
-        <v>209.85991262104386</v>
-      </c>
-      <c r="M41" s="52">
-        <f t="shared" ref="M41" si="35">AVERAGE(M37:M40)</f>
-        <v>193.51213101377417</v>
-      </c>
-      <c r="N41" s="52">
-        <f t="shared" ref="N41" si="36">AVERAGE(N37:N40)</f>
-        <v>234.54724877190122</v>
-      </c>
-      <c r="O41" s="108" t="s">
+      <c r="J41" s="56">
+        <f>SUM(J37:J40)</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="47">
+        <f t="shared" ref="K41:N41" si="24">SUM(K37:K40)</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="47">
+        <f t="shared" si="24"/>
+        <v>839.43965048417544</v>
+      </c>
+      <c r="M41" s="47">
+        <f t="shared" si="24"/>
+        <v>774.04852405509666</v>
+      </c>
+      <c r="N41" s="51">
+        <f t="shared" si="24"/>
+        <v>938.18899508760489</v>
+      </c>
+      <c r="O41" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="P41" s="57">
+      <c r="P41" s="59">
         <f>SUM(P37:P40)</f>
         <v>0</v>
       </c>
-      <c r="Q41" s="55">
-        <f t="shared" ref="Q41" si="37">SUM(Q37:Q40)</f>
-        <v>0</v>
-      </c>
-      <c r="R41" s="55">
-        <f t="shared" ref="R41" si="38">SUM(R37:R40)</f>
+      <c r="Q41" s="57">
+        <f t="shared" ref="Q41" si="25">SUM(Q37:Q40)</f>
+        <v>0</v>
+      </c>
+      <c r="R41" s="57">
+        <f t="shared" ref="R41" si="26">SUM(R37:R40)</f>
         <v>839.43965048417544</v>
       </c>
-      <c r="S41" s="55">
-        <f t="shared" ref="S41" si="39">SUM(S37:S40)</f>
+      <c r="S41" s="57">
+        <f t="shared" ref="S41" si="27">SUM(S37:S40)</f>
         <v>774.04852405509666</v>
       </c>
-      <c r="T41" s="76">
-        <f t="shared" ref="T41" si="40">SUM(T37:T40)</f>
+      <c r="T41" s="78">
+        <f t="shared" ref="T41" si="28">SUM(T37:T40)</f>
         <v>938.18899508760489</v>
       </c>
     </row>
@@ -6053,7 +6459,7 @@
       <c r="A42" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="102" t="s">
+      <c r="B42" s="104" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="37" t="s">
@@ -6071,13 +6477,13 @@
       <c r="G42" s="20">
         <v>4511.5</v>
       </c>
-      <c r="H42" s="66">
+      <c r="H42" s="68">
         <v>4529</v>
       </c>
-      <c r="I42" s="80" t="s">
+      <c r="I42" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="J42" s="53">
+      <c r="J42" s="55">
         <v>0</v>
       </c>
       <c r="K42" s="44">
@@ -6089,13 +6495,13 @@
       <c r="M42" s="44">
         <v>182.27693362285609</v>
       </c>
-      <c r="N42" s="49">
+      <c r="N42" s="50">
         <v>209.62642316388346</v>
       </c>
-      <c r="O42" s="107" t="s">
+      <c r="O42" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="P42" s="53">
+      <c r="P42" s="55">
         <v>0</v>
       </c>
       <c r="Q42" s="44">
@@ -6107,7 +6513,7 @@
       <c r="S42" s="44">
         <v>182.27693362285609</v>
       </c>
-      <c r="T42" s="61">
+      <c r="T42" s="63">
         <v>209.62642316388346</v>
       </c>
     </row>
@@ -6115,7 +6521,7 @@
       <c r="A43" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="101" t="s">
+      <c r="B43" s="103" t="s">
         <v>17</v>
       </c>
       <c r="C43" s="36" t="s">
@@ -6133,13 +6539,13 @@
       <c r="G43" s="18">
         <v>2282.3000000000002</v>
       </c>
-      <c r="H43" s="64">
+      <c r="H43" s="66">
         <v>3024</v>
       </c>
-      <c r="I43" s="80" t="s">
+      <c r="I43" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="51">
+      <c r="J43" s="53">
         <v>0</v>
       </c>
       <c r="K43" s="41">
@@ -6151,13 +6557,13 @@
       <c r="M43" s="41">
         <v>178.69291996686533</v>
       </c>
-      <c r="N43" s="47">
+      <c r="N43" s="48">
         <v>202.47686545635466</v>
       </c>
-      <c r="O43" s="107" t="s">
+      <c r="O43" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="51">
+      <c r="P43" s="53">
         <v>0</v>
       </c>
       <c r="Q43" s="41">
@@ -6169,7 +6575,7 @@
       <c r="S43" s="41">
         <v>178.69291996686533</v>
       </c>
-      <c r="T43" s="60">
+      <c r="T43" s="62">
         <v>202.47686545635466</v>
       </c>
     </row>
@@ -6177,7 +6583,7 @@
       <c r="A44" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="101" t="s">
+      <c r="B44" s="103" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="36" t="s">
@@ -6195,13 +6601,13 @@
       <c r="G44" s="21">
         <v>5.7</v>
       </c>
-      <c r="H44" s="68">
+      <c r="H44" s="70">
         <v>10.6</v>
       </c>
-      <c r="I44" s="80" t="s">
+      <c r="I44" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="J44" s="51">
+      <c r="J44" s="53">
         <v>0</v>
       </c>
       <c r="K44" s="41">
@@ -6213,13 +6619,13 @@
       <c r="M44" s="41">
         <v>152.8418406015038</v>
       </c>
-      <c r="N44" s="47">
+      <c r="N44" s="48">
         <v>198.97013953488332</v>
       </c>
-      <c r="O44" s="107" t="s">
+      <c r="O44" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="P44" s="51">
+      <c r="P44" s="53">
         <v>0</v>
       </c>
       <c r="Q44" s="41">
@@ -6231,7 +6637,7 @@
       <c r="S44" s="41">
         <v>152.8418406015038</v>
       </c>
-      <c r="T44" s="60">
+      <c r="T44" s="62">
         <v>198.97013953488332</v>
       </c>
     </row>
@@ -6239,10 +6645,10 @@
       <c r="A45" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="101" t="s">
+      <c r="B45" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="143" t="s">
+      <c r="C45" s="147" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="2">
@@ -6257,13 +6663,13 @@
       <c r="G45" s="26">
         <v>1002.2</v>
       </c>
-      <c r="H45" s="70">
+      <c r="H45" s="72">
         <v>993.7</v>
       </c>
-      <c r="I45" s="80" t="s">
+      <c r="I45" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="51">
+      <c r="J45" s="53">
         <v>0</v>
       </c>
       <c r="K45" s="41">
@@ -6275,13 +6681,13 @@
       <c r="M45" s="41">
         <v>191.03600995515839</v>
       </c>
-      <c r="N45" s="47">
+      <c r="N45" s="48">
         <v>213.37727632628381</v>
       </c>
-      <c r="O45" s="107" t="s">
+      <c r="O45" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="P45" s="51">
+      <c r="P45" s="53">
         <v>0</v>
       </c>
       <c r="Q45" s="41">
@@ -6293,7 +6699,7 @@
       <c r="S45" s="41">
         <v>191.03600995515839</v>
       </c>
-      <c r="T45" s="60">
+      <c r="T45" s="62">
         <v>213.37727632628381</v>
       </c>
     </row>
@@ -6304,7 +6710,7 @@
       <c r="B46" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="144" t="s">
+      <c r="C46" s="148" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="16">
@@ -6319,53 +6725,53 @@
       <c r="G46" s="25">
         <v>8606.7999999999993</v>
       </c>
-      <c r="H46" s="71">
+      <c r="H46" s="73">
         <v>9468.1</v>
       </c>
-      <c r="I46" s="82" t="s">
+      <c r="I46" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="J46" s="52">
-        <f>AVERAGE(J42:J45)</f>
-        <v>0</v>
-      </c>
-      <c r="K46" s="52">
-        <f t="shared" ref="K46" si="41">AVERAGE(K42:K45)</f>
-        <v>0</v>
-      </c>
-      <c r="L46" s="52">
-        <f t="shared" ref="L46" si="42">AVERAGE(L42:L45)</f>
-        <v>216.61636114955013</v>
-      </c>
-      <c r="M46" s="52">
-        <f t="shared" ref="M46" si="43">AVERAGE(M42:M45)</f>
-        <v>176.21192603659591</v>
-      </c>
-      <c r="N46" s="52">
-        <f t="shared" ref="N46" si="44">AVERAGE(N42:N45)</f>
-        <v>206.1126761203513</v>
-      </c>
-      <c r="O46" s="108" t="s">
+      <c r="J46" s="56">
+        <f>SUM(J42:J45)</f>
+        <v>0</v>
+      </c>
+      <c r="K46" s="47">
+        <f t="shared" ref="K46:N46" si="29">SUM(K42:K45)</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="47">
+        <f t="shared" si="29"/>
+        <v>866.46544459820052</v>
+      </c>
+      <c r="M46" s="47">
+        <f t="shared" si="29"/>
+        <v>704.84770414638365</v>
+      </c>
+      <c r="N46" s="51">
+        <f t="shared" si="29"/>
+        <v>824.45070448140518</v>
+      </c>
+      <c r="O46" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="P46" s="57">
+      <c r="P46" s="59">
         <f>SUM(P42:P45)</f>
         <v>0</v>
       </c>
-      <c r="Q46" s="55">
-        <f t="shared" ref="Q46" si="45">SUM(Q42:Q45)</f>
-        <v>0</v>
-      </c>
-      <c r="R46" s="55">
-        <f t="shared" ref="R46" si="46">SUM(R42:R45)</f>
+      <c r="Q46" s="57">
+        <f t="shared" ref="Q46" si="30">SUM(Q42:Q45)</f>
+        <v>0</v>
+      </c>
+      <c r="R46" s="57">
+        <f t="shared" ref="R46" si="31">SUM(R42:R45)</f>
         <v>866.46544459820052</v>
       </c>
-      <c r="S46" s="55">
-        <f t="shared" ref="S46" si="47">SUM(S42:S45)</f>
+      <c r="S46" s="57">
+        <f t="shared" ref="S46" si="32">SUM(S42:S45)</f>
         <v>704.84770414638365</v>
       </c>
-      <c r="T46" s="76">
-        <f t="shared" ref="T46" si="48">SUM(T42:T45)</f>
+      <c r="T46" s="78">
+        <f t="shared" ref="T46" si="33">SUM(T42:T45)</f>
         <v>824.45070448140518</v>
       </c>
     </row>
@@ -6373,7 +6779,7 @@
       <c r="A47" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="103" t="s">
+      <c r="B47" s="105" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="40" t="s">
@@ -6391,13 +6797,13 @@
       <c r="G47" s="6">
         <v>398.58958475999992</v>
       </c>
-      <c r="H47" s="72">
+      <c r="H47" s="74">
         <v>1015.0873143599998</v>
       </c>
-      <c r="I47" s="84" t="s">
+      <c r="I47" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="J47" s="53">
+      <c r="J47" s="55">
         <v>0</v>
       </c>
       <c r="K47" s="44">
@@ -6409,13 +6815,13 @@
       <c r="M47" s="44">
         <v>194.38304712243104</v>
       </c>
-      <c r="N47" s="49">
+      <c r="N47" s="50">
         <v>200.75446101793028</v>
       </c>
-      <c r="O47" s="110" t="s">
+      <c r="O47" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="P47" s="53">
+      <c r="P47" s="55">
         <v>0</v>
       </c>
       <c r="Q47" s="44">
@@ -6427,7 +6833,7 @@
       <c r="S47" s="44">
         <v>194.38304712243104</v>
       </c>
-      <c r="T47" s="61">
+      <c r="T47" s="63">
         <v>200.75446101793028</v>
       </c>
     </row>
@@ -6453,13 +6859,13 @@
       <c r="G48" s="6">
         <v>5878.8671680799998</v>
       </c>
-      <c r="H48" s="72">
+      <c r="H48" s="74">
         <v>5021.5056389399997</v>
       </c>
-      <c r="I48" s="84" t="s">
+      <c r="I48" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="J48" s="51">
+      <c r="J48" s="53">
         <v>113.71424784015332</v>
       </c>
       <c r="K48" s="41">
@@ -6471,13 +6877,13 @@
       <c r="M48" s="41">
         <v>160.00026451749227</v>
       </c>
-      <c r="N48" s="47">
+      <c r="N48" s="48">
         <v>186.83269255911492</v>
       </c>
-      <c r="O48" s="110" t="s">
+      <c r="O48" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="P48" s="51">
+      <c r="P48" s="53">
         <v>113.71424784015332</v>
       </c>
       <c r="Q48" s="41">
@@ -6489,7 +6895,7 @@
       <c r="S48" s="41">
         <v>160.00026451749227</v>
       </c>
-      <c r="T48" s="60">
+      <c r="T48" s="62">
         <v>186.83269255911492</v>
       </c>
     </row>
@@ -6515,13 +6921,13 @@
       <c r="G49" s="6">
         <v>89.498050139999989</v>
       </c>
-      <c r="H49" s="72">
+      <c r="H49" s="74">
         <v>44.3459097</v>
       </c>
-      <c r="I49" s="84" t="s">
+      <c r="I49" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="J49" s="51">
+      <c r="J49" s="53">
         <v>156.42940050700022</v>
       </c>
       <c r="K49" s="41">
@@ -6533,13 +6939,13 @@
       <c r="M49" s="41">
         <v>176.40987598447018</v>
       </c>
-      <c r="N49" s="47">
+      <c r="N49" s="48">
         <v>180.52791752577298</v>
       </c>
-      <c r="O49" s="110" t="s">
+      <c r="O49" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="P49" s="51">
+      <c r="P49" s="53">
         <v>156.42940050700022</v>
       </c>
       <c r="Q49" s="41">
@@ -6551,7 +6957,7 @@
       <c r="S49" s="41">
         <v>176.40987598447018</v>
       </c>
-      <c r="T49" s="60">
+      <c r="T49" s="62">
         <v>180.52791752577298</v>
       </c>
     </row>
@@ -6577,13 +6983,13 @@
       <c r="G50" s="6">
         <v>1569.8803548599999</v>
       </c>
-      <c r="H50" s="72">
+      <c r="H50" s="74">
         <v>3147.7264471200006</v>
       </c>
-      <c r="I50" s="84" t="s">
+      <c r="I50" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="J50" s="51">
+      <c r="J50" s="53">
         <v>0</v>
       </c>
       <c r="K50" s="41">
@@ -6595,13 +7001,13 @@
       <c r="M50" s="41">
         <v>168.39804997132606</v>
       </c>
-      <c r="N50" s="47">
+      <c r="N50" s="48">
         <v>188.47870204843571</v>
       </c>
-      <c r="O50" s="110" t="s">
+      <c r="O50" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="P50" s="51">
+      <c r="P50" s="53">
         <v>0</v>
       </c>
       <c r="Q50" s="41">
@@ -6613,7 +7019,7 @@
       <c r="S50" s="41">
         <v>168.39804997132606</v>
       </c>
-      <c r="T50" s="60">
+      <c r="T50" s="62">
         <v>188.47870204843571</v>
       </c>
     </row>
@@ -6639,13 +7045,13 @@
       <c r="G51" s="6">
         <v>1165.8692659200001</v>
       </c>
-      <c r="H51" s="72">
+      <c r="H51" s="74">
         <v>553.8226407599999</v>
       </c>
-      <c r="I51" s="84" t="s">
+      <c r="I51" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="J51" s="86">
+      <c r="J51" s="88">
         <v>113.27984051185929</v>
       </c>
       <c r="K51" s="41">
@@ -6657,13 +7063,13 @@
       <c r="M51" s="41">
         <v>130.4435016969004</v>
       </c>
-      <c r="N51" s="47">
+      <c r="N51" s="48">
         <v>172.90956493015923</v>
       </c>
-      <c r="O51" s="110" t="s">
+      <c r="O51" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="P51" s="51">
+      <c r="P51" s="53">
         <v>113.27984051185929</v>
       </c>
       <c r="Q51" s="41">
@@ -6675,7 +7081,7 @@
       <c r="S51" s="41">
         <v>130.4435016969004</v>
       </c>
-      <c r="T51" s="60">
+      <c r="T51" s="62">
         <v>172.90956493015923</v>
       </c>
     </row>
@@ -6701,13 +7107,13 @@
       <c r="G52" s="6">
         <v>0</v>
       </c>
-      <c r="H52" s="72">
-        <v>0</v>
-      </c>
-      <c r="I52" s="84" t="s">
+      <c r="H52" s="74">
+        <v>0</v>
+      </c>
+      <c r="I52" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="J52" s="51">
+      <c r="J52" s="53">
         <v>120.04122080961525</v>
       </c>
       <c r="K52" s="41">
@@ -6719,13 +7125,13 @@
       <c r="M52" s="41">
         <v>0</v>
       </c>
-      <c r="N52" s="47">
-        <v>0</v>
-      </c>
-      <c r="O52" s="110" t="s">
+      <c r="N52" s="48">
+        <v>0</v>
+      </c>
+      <c r="O52" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="51">
+      <c r="P52" s="53">
         <v>120.04122080961525</v>
       </c>
       <c r="Q52" s="41">
@@ -6737,7 +7143,7 @@
       <c r="S52" s="41">
         <v>0</v>
       </c>
-      <c r="T52" s="60">
+      <c r="T52" s="62">
         <v>0</v>
       </c>
     </row>
@@ -6763,13 +7169,13 @@
       <c r="G53" s="6">
         <v>143.47585163999997</v>
       </c>
-      <c r="H53" s="72">
+      <c r="H53" s="74">
         <v>191.67773706000003</v>
       </c>
-      <c r="I53" s="84" t="s">
+      <c r="I53" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="J53" s="51">
+      <c r="J53" s="53">
         <v>0</v>
       </c>
       <c r="K53" s="41">
@@ -6781,13 +7187,13 @@
       <c r="M53" s="41">
         <v>182.26288475836472</v>
       </c>
-      <c r="N53" s="47">
+      <c r="N53" s="48">
         <v>185.92807074622013</v>
       </c>
-      <c r="O53" s="110" t="s">
+      <c r="O53" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="P53" s="51">
+      <c r="P53" s="53">
         <v>0</v>
       </c>
       <c r="Q53" s="41">
@@ -6799,7 +7205,7 @@
       <c r="S53" s="41">
         <v>182.26288475836472</v>
       </c>
-      <c r="T53" s="60">
+      <c r="T53" s="62">
         <v>185.92807074622013</v>
       </c>
     </row>
@@ -6825,13 +7231,13 @@
       <c r="G54" s="6">
         <v>802.87995413999988</v>
       </c>
-      <c r="H54" s="72">
+      <c r="H54" s="74">
         <v>429.37243109999991</v>
       </c>
-      <c r="I54" s="84" t="s">
+      <c r="I54" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="J54" s="51">
+      <c r="J54" s="53">
         <v>96.406372662427273</v>
       </c>
       <c r="K54" s="41">
@@ -6843,13 +7249,13 @@
       <c r="M54" s="41">
         <v>158.29805197168363</v>
       </c>
-      <c r="N54" s="47">
+      <c r="N54" s="48">
         <v>131.60380646830563</v>
       </c>
-      <c r="O54" s="110" t="s">
+      <c r="O54" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="P54" s="51">
+      <c r="P54" s="53">
         <v>96.406372662427273</v>
       </c>
       <c r="Q54" s="41">
@@ -6861,7 +7267,7 @@
       <c r="S54" s="41">
         <v>158.29805197168363</v>
       </c>
-      <c r="T54" s="60">
+      <c r="T54" s="62">
         <v>131.60380646830563</v>
       </c>
     </row>
@@ -6887,13 +7293,13 @@
       <c r="G55" s="6">
         <v>2.2925717999999997</v>
       </c>
-      <c r="H55" s="72">
+      <c r="H55" s="74">
         <v>7.519584E-2</v>
       </c>
-      <c r="I55" s="84" t="s">
+      <c r="I55" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="J55" s="51">
+      <c r="J55" s="53">
         <v>119.07330151244987</v>
       </c>
       <c r="K55" s="41">
@@ -6905,13 +7311,13 @@
       <c r="M55" s="41">
         <v>121.96958083832352</v>
       </c>
-      <c r="N55" s="47">
+      <c r="N55" s="48">
         <v>83.512000000000015</v>
       </c>
-      <c r="O55" s="110" t="s">
+      <c r="O55" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="P55" s="51">
+      <c r="P55" s="53">
         <v>119.07330151244987</v>
       </c>
       <c r="Q55" s="41">
@@ -6923,7 +7329,7 @@
       <c r="S55" s="41">
         <v>121.96958083832352</v>
       </c>
-      <c r="T55" s="60">
+      <c r="T55" s="62">
         <v>83.512000000000015</v>
       </c>
     </row>
@@ -6949,13 +7355,13 @@
       <c r="G56" s="6">
         <v>552.11425307999991</v>
       </c>
-      <c r="H56" s="72">
+      <c r="H56" s="74">
         <v>606.6236402400001</v>
       </c>
-      <c r="I56" s="85" t="s">
+      <c r="I56" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="J56" s="51">
+      <c r="J56" s="53">
         <v>0</v>
       </c>
       <c r="K56" s="41">
@@ -6967,13 +7373,13 @@
       <c r="M56" s="41">
         <v>182.99958411520046</v>
       </c>
-      <c r="N56" s="47">
+      <c r="N56" s="48">
         <v>209.20708223192608</v>
       </c>
-      <c r="O56" s="111" t="s">
+      <c r="O56" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="P56" s="51">
+      <c r="P56" s="53">
         <v>0</v>
       </c>
       <c r="Q56" s="41">
@@ -6985,7 +7391,7 @@
       <c r="S56" s="41">
         <v>182.99958411520046</v>
       </c>
-      <c r="T56" s="60">
+      <c r="T56" s="62">
         <v>209.20708223192608</v>
       </c>
     </row>
@@ -7011,13 +7417,13 @@
       <c r="G57" s="6">
         <v>3854.0566165800001</v>
       </c>
-      <c r="H57" s="72">
+      <c r="H57" s="74">
         <v>2047.4977415999999</v>
       </c>
-      <c r="I57" s="85" t="s">
+      <c r="I57" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="J57" s="51">
+      <c r="J57" s="53">
         <v>103.16234022340612</v>
       </c>
       <c r="K57" s="41">
@@ -7029,13 +7435,13 @@
       <c r="M57" s="41">
         <v>164.73819874049255</v>
       </c>
-      <c r="N57" s="47">
+      <c r="N57" s="48">
         <v>161.24928237129487</v>
       </c>
-      <c r="O57" s="111" t="s">
+      <c r="O57" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="P57" s="51">
+      <c r="P57" s="53">
         <v>103.16234022340612</v>
       </c>
       <c r="Q57" s="41">
@@ -7047,7 +7453,7 @@
       <c r="S57" s="41">
         <v>164.73819874049255</v>
       </c>
-      <c r="T57" s="60">
+      <c r="T57" s="62">
         <v>161.24928237129487</v>
       </c>
     </row>
@@ -7055,7 +7461,7 @@
       <c r="A58" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="102" t="s">
+      <c r="B58" s="104" t="s">
         <v>6</v>
       </c>
       <c r="C58" s="43" t="s">
@@ -7073,13 +7479,13 @@
       <c r="G58" s="6">
         <v>1.6194789000000001</v>
       </c>
-      <c r="H58" s="72">
+      <c r="H58" s="74">
         <v>0.85966613999999997</v>
       </c>
-      <c r="I58" s="85" t="s">
+      <c r="I58" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="51">
+      <c r="J58" s="53">
         <v>138.15373614801274</v>
       </c>
       <c r="K58" s="41">
@@ -7091,13 +7497,13 @@
       <c r="M58" s="41">
         <v>96.245217391304365</v>
       </c>
-      <c r="N58" s="47">
+      <c r="N58" s="48">
         <v>127.29860000000002</v>
       </c>
-      <c r="O58" s="111" t="s">
+      <c r="O58" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="51">
+      <c r="P58" s="53">
         <v>138.15373614801274</v>
       </c>
       <c r="Q58" s="41">
@@ -7109,7 +7515,7 @@
       <c r="S58" s="41">
         <v>96.245217391304365</v>
       </c>
-      <c r="T58" s="60">
+      <c r="T58" s="62">
         <v>127.29860000000002</v>
       </c>
     </row>
@@ -7120,7 +7526,7 @@
       <c r="B59" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="144" t="s">
+      <c r="C59" s="148" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="17">
@@ -7128,65 +7534,65 @@
         <v>20363.951080140003</v>
       </c>
       <c r="E59" s="17">
-        <f t="shared" ref="E59:H59" si="49">SUM(E47:E58)</f>
+        <f t="shared" ref="E59:H59" si="34">SUM(E47:E58)</f>
         <v>25942.260475739997</v>
       </c>
       <c r="F59" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="34"/>
         <v>17128.281295500001</v>
       </c>
       <c r="G59" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="34"/>
         <v>14459.143149899999</v>
       </c>
-      <c r="H59" s="73">
-        <f t="shared" si="49"/>
+      <c r="H59" s="75">
+        <f t="shared" si="34"/>
         <v>13058.594362860002</v>
       </c>
-      <c r="I59" s="82" t="s">
+      <c r="I59" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="J59" s="52">
-        <f>AVERAGE(J48,J49,J51,J52,J54,J55,J57,J58)</f>
-        <v>120.03255752686552</v>
-      </c>
-      <c r="K59" s="52">
-        <f>AVERAGE(K48,K49,K51,K52,K54,K55,K57,K58)</f>
-        <v>134.38991529959287</v>
-      </c>
-      <c r="L59" s="52">
-        <f t="shared" ref="K59:N59" si="50">AVERAGE(L47:L58)</f>
-        <v>149.82331681443097</v>
-      </c>
-      <c r="M59" s="52">
-        <f>AVERAGE(M47:M51,M53:M58)</f>
-        <v>157.83165973708992</v>
-      </c>
-      <c r="N59" s="52">
-        <f>AVERAGE(N47:N51,N53:N58)</f>
-        <v>166.20928908174182</v>
-      </c>
-      <c r="O59" s="108" t="s">
+      <c r="J59" s="56">
+        <f>SUM(J47:J58)</f>
+        <v>960.26046021492414</v>
+      </c>
+      <c r="K59" s="47">
+        <f t="shared" ref="K59:T59" si="35">SUM(K47:K58)</f>
+        <v>1075.119322396743</v>
+      </c>
+      <c r="L59" s="47">
+        <f t="shared" si="35"/>
+        <v>1797.8798017731717</v>
+      </c>
+      <c r="M59" s="47">
+        <f t="shared" si="35"/>
+        <v>1736.1482571079891</v>
+      </c>
+      <c r="N59" s="51">
+        <f t="shared" si="35"/>
+        <v>1828.3021798991599</v>
+      </c>
+      <c r="O59" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="P59" s="58">
-        <f t="shared" ref="K59:T59" si="51">SUM(P47:P58)</f>
+      <c r="P59" s="60">
+        <f t="shared" si="35"/>
         <v>960.26046021492414</v>
       </c>
-      <c r="Q59" s="56">
-        <f t="shared" si="51"/>
+      <c r="Q59" s="58">
+        <f t="shared" si="35"/>
         <v>1075.119322396743</v>
       </c>
-      <c r="R59" s="56">
-        <f t="shared" si="51"/>
+      <c r="R59" s="58">
+        <f t="shared" si="35"/>
         <v>1797.8798017731717</v>
       </c>
-      <c r="S59" s="56">
-        <f t="shared" si="51"/>
+      <c r="S59" s="58">
+        <f t="shared" si="35"/>
         <v>1736.1482571079891</v>
       </c>
-      <c r="T59" s="77">
-        <f t="shared" si="51"/>
+      <c r="T59" s="79">
+        <f t="shared" si="35"/>
         <v>1828.3021798991599</v>
       </c>
     </row>
@@ -7194,7 +7600,7 @@
       <c r="A60" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B60" s="102" t="s">
+      <c r="B60" s="104" t="s">
         <v>17</v>
       </c>
       <c r="C60" s="37" t="s">
@@ -7212,13 +7618,13 @@
       <c r="G60" s="10">
         <v>687.10070039999994</v>
       </c>
-      <c r="H60" s="74">
+      <c r="H60" s="76">
         <v>209.04662411999999</v>
       </c>
-      <c r="I60" s="80" t="s">
+      <c r="I60" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="J60" s="53">
+      <c r="J60" s="55">
         <v>159.98743591988642</v>
       </c>
       <c r="K60" s="44">
@@ -7230,13 +7636,13 @@
       <c r="M60" s="44">
         <v>201.80211431027078</v>
       </c>
-      <c r="N60" s="49">
+      <c r="N60" s="50">
         <v>203.9225217391305</v>
       </c>
-      <c r="O60" s="107" t="s">
+      <c r="O60" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="P60" s="53">
+      <c r="P60" s="55">
         <v>159.98743591988642</v>
       </c>
       <c r="Q60" s="44">
@@ -7248,7 +7654,7 @@
       <c r="S60" s="44">
         <v>201.80211431027078</v>
       </c>
-      <c r="T60" s="61">
+      <c r="T60" s="63">
         <v>203.9225217391305</v>
       </c>
     </row>
@@ -7256,7 +7662,7 @@
       <c r="A61" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="101" t="s">
+      <c r="B61" s="103" t="s">
         <v>17</v>
       </c>
       <c r="C61" s="36" t="s">
@@ -7274,13 +7680,13 @@
       <c r="G61" s="6">
         <v>980.84835647999989</v>
       </c>
-      <c r="H61" s="67">
+      <c r="H61" s="69">
         <v>204.92520965999998</v>
       </c>
-      <c r="I61" s="80" t="s">
+      <c r="I61" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="J61" s="51">
+      <c r="J61" s="53">
         <v>109.26484033496862</v>
       </c>
       <c r="K61" s="41">
@@ -7292,13 +7698,13 @@
       <c r="M61" s="41">
         <v>121.01663362101917</v>
       </c>
-      <c r="N61" s="47">
+      <c r="N61" s="48">
         <v>137.52094897843588</v>
       </c>
-      <c r="O61" s="107" t="s">
+      <c r="O61" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="P61" s="51">
+      <c r="P61" s="53">
         <v>109.26484033496862</v>
       </c>
       <c r="Q61" s="41">
@@ -7310,7 +7716,7 @@
       <c r="S61" s="41">
         <v>121.01663362101917</v>
       </c>
-      <c r="T61" s="60">
+      <c r="T61" s="62">
         <v>137.52094897843588</v>
       </c>
     </row>
@@ -7318,7 +7724,7 @@
       <c r="A62" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B62" s="101" t="s">
+      <c r="B62" s="103" t="s">
         <v>17</v>
       </c>
       <c r="C62" s="36" t="s">
@@ -7336,13 +7742,13 @@
       <c r="G62" s="6">
         <v>23.503142220000001</v>
       </c>
-      <c r="H62" s="67">
+      <c r="H62" s="69">
         <v>85.906289939999994</v>
       </c>
-      <c r="I62" s="80" t="s">
+      <c r="I62" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="J62" s="51">
+      <c r="J62" s="53">
         <v>169.87713422818771</v>
       </c>
       <c r="K62" s="41">
@@ -7354,13 +7760,13 @@
       <c r="M62" s="41">
         <v>209.65810040160588</v>
       </c>
-      <c r="N62" s="47">
+      <c r="N62" s="48">
         <v>236.22891860105253</v>
       </c>
-      <c r="O62" s="107" t="s">
+      <c r="O62" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="P62" s="51">
+      <c r="P62" s="53">
         <v>169.87713422818771</v>
       </c>
       <c r="Q62" s="41">
@@ -7372,7 +7778,7 @@
       <c r="S62" s="41">
         <v>209.65810040160588</v>
       </c>
-      <c r="T62" s="60">
+      <c r="T62" s="62">
         <v>236.22891860105253</v>
       </c>
     </row>
@@ -7380,10 +7786,10 @@
       <c r="A63" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="101" t="s">
+      <c r="B63" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="143" t="s">
+      <c r="C63" s="147" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="2">
@@ -7398,13 +7804,13 @@
       <c r="G63" s="23">
         <v>401.6</v>
       </c>
-      <c r="H63" s="70">
+      <c r="H63" s="72">
         <v>204.9</v>
       </c>
-      <c r="I63" s="80" t="s">
+      <c r="I63" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="J63" s="51">
+      <c r="J63" s="53">
         <v>106.76248863890245</v>
       </c>
       <c r="K63" s="41">
@@ -7416,13 +7822,13 @@
       <c r="M63" s="41">
         <v>131.57902658848721</v>
       </c>
-      <c r="N63" s="47">
+      <c r="N63" s="48">
         <v>153.90680711840034</v>
       </c>
-      <c r="O63" s="107" t="s">
+      <c r="O63" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="P63" s="51">
+      <c r="P63" s="53">
         <v>106.76248863890245</v>
       </c>
       <c r="Q63" s="41">
@@ -7434,7 +7840,7 @@
       <c r="S63" s="41">
         <v>131.57902658848721</v>
       </c>
-      <c r="T63" s="60">
+      <c r="T63" s="62">
         <v>153.90680711840034</v>
       </c>
     </row>
@@ -7445,7 +7851,7 @@
       <c r="B64" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C64" s="144" t="s">
+      <c r="C64" s="148" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="17">
@@ -7460,53 +7866,53 @@
       <c r="G64" s="25">
         <v>2213.8000000000002</v>
       </c>
-      <c r="H64" s="91">
+      <c r="H64" s="93">
         <v>922</v>
       </c>
-      <c r="I64" s="82" t="s">
+      <c r="I64" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="J64" s="52">
-        <f>AVERAGE(J60:J63)</f>
-        <v>136.47297478048631</v>
-      </c>
-      <c r="K64" s="52">
-        <f t="shared" ref="K64" si="52">AVERAGE(K60:K63)</f>
-        <v>144.0355240223447</v>
-      </c>
-      <c r="L64" s="52">
-        <f t="shared" ref="L64" si="53">AVERAGE(L60:L63)</f>
-        <v>157.49950927691327</v>
-      </c>
-      <c r="M64" s="52">
-        <f t="shared" ref="M64" si="54">AVERAGE(M60:M63)</f>
-        <v>166.01396873034577</v>
-      </c>
-      <c r="N64" s="52">
-        <f t="shared" ref="N64" si="55">AVERAGE(N60:N63)</f>
-        <v>182.89479910925482</v>
-      </c>
-      <c r="O64" s="108" t="s">
+      <c r="J64" s="56">
+        <f>SUM(J60:J63)</f>
+        <v>545.89189912194524</v>
+      </c>
+      <c r="K64" s="47">
+        <f t="shared" ref="K64" si="36">SUM(K60:K63)</f>
+        <v>576.14209608937881</v>
+      </c>
+      <c r="L64" s="47">
+        <f t="shared" ref="L64" si="37">SUM(L60:L63)</f>
+        <v>629.99803710765309</v>
+      </c>
+      <c r="M64" s="47">
+        <f t="shared" ref="M64" si="38">SUM(M60:M63)</f>
+        <v>664.05587492138307</v>
+      </c>
+      <c r="N64" s="51">
+        <f t="shared" ref="N64" si="39">SUM(N60:N63)</f>
+        <v>731.57919643701928</v>
+      </c>
+      <c r="O64" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="P64" s="58">
+      <c r="P64" s="60">
         <f>SUM(P60:P63)</f>
         <v>545.89189912194524</v>
       </c>
-      <c r="Q64" s="56">
-        <f t="shared" ref="Q64" si="56">SUM(Q60:Q63)</f>
+      <c r="Q64" s="58">
+        <f t="shared" ref="Q64" si="40">SUM(Q60:Q63)</f>
         <v>576.14209608937881</v>
       </c>
-      <c r="R64" s="56">
-        <f t="shared" ref="R64" si="57">SUM(R60:R63)</f>
+      <c r="R64" s="58">
+        <f t="shared" ref="R64" si="41">SUM(R60:R63)</f>
         <v>629.99803710765309</v>
       </c>
-      <c r="S64" s="56">
-        <f t="shared" ref="S64" si="58">SUM(S60:S63)</f>
+      <c r="S64" s="58">
+        <f t="shared" ref="S64" si="42">SUM(S60:S63)</f>
         <v>664.05587492138307</v>
       </c>
-      <c r="T64" s="77">
-        <f t="shared" ref="T64" si="59">SUM(T60:T63)</f>
+      <c r="T64" s="79">
+        <f t="shared" ref="T64" si="43">SUM(T60:T63)</f>
         <v>731.57919643701928</v>
       </c>
     </row>
@@ -7514,7 +7920,7 @@
       <c r="A65" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B65" s="102" t="s">
+      <c r="B65" s="104" t="s">
         <v>6</v>
       </c>
       <c r="C65" s="37" t="s">
@@ -7535,7 +7941,7 @@
       <c r="H65" s="6">
         <v>22512.437027999997</v>
       </c>
-      <c r="I65" s="80" t="s">
+      <c r="I65" s="82" t="s">
         <v>24</v>
       </c>
       <c r="J65" s="33">
@@ -7550,10 +7956,10 @@
       <c r="M65" s="33">
         <v>81.116420041114296</v>
       </c>
-      <c r="N65" s="105">
+      <c r="N65" s="107">
         <v>99.768359506129499</v>
       </c>
-      <c r="O65" s="107" t="s">
+      <c r="O65" s="110" t="s">
         <v>24</v>
       </c>
       <c r="P65" s="34">
@@ -7568,7 +7974,7 @@
       <c r="S65" s="33">
         <v>4.0836586616584114</v>
       </c>
-      <c r="T65" s="94">
+      <c r="T65" s="96">
         <v>4.2795977414970894</v>
       </c>
     </row>
@@ -7576,7 +7982,7 @@
       <c r="A66" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B66" s="102" t="s">
+      <c r="B66" s="104" t="s">
         <v>6</v>
       </c>
       <c r="C66" s="37" t="s">
@@ -7597,7 +8003,7 @@
       <c r="H66" s="6">
         <v>5197.0115062799996</v>
       </c>
-      <c r="I66" s="80" t="s">
+      <c r="I66" s="82" t="s">
         <v>24</v>
       </c>
       <c r="J66" s="33">
@@ -7615,7 +8021,7 @@
       <c r="N66" s="33">
         <v>232.22802999532252</v>
       </c>
-      <c r="O66" s="107" t="s">
+      <c r="O66" s="110" t="s">
         <v>24</v>
       </c>
       <c r="P66" s="34">
@@ -7630,7 +8036,7 @@
       <c r="S66" s="33">
         <v>4.2698498866460586</v>
       </c>
-      <c r="T66" s="95">
+      <c r="T66" s="97">
         <v>4.3225973992976288</v>
       </c>
     </row>
@@ -7638,7 +8044,7 @@
       <c r="A67" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B67" s="102" t="s">
+      <c r="B67" s="104" t="s">
         <v>6</v>
       </c>
       <c r="C67" s="36" t="s">
@@ -7659,7 +8065,7 @@
       <c r="H67" s="6">
         <v>8952.4933940399987</v>
       </c>
-      <c r="I67" s="80" t="s">
+      <c r="I67" s="82" t="s">
         <v>4</v>
       </c>
       <c r="J67" s="33">
@@ -7677,10 +8083,10 @@
       <c r="N67" s="33">
         <v>97.10842528607931</v>
       </c>
-      <c r="O67" s="107" t="s">
+      <c r="O67" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="P67" s="59">
+      <c r="P67" s="61">
         <v>1.2960031029447601</v>
       </c>
       <c r="Q67" s="6">
@@ -7692,7 +8098,7 @@
       <c r="S67" s="6">
         <v>1.03151143310794</v>
       </c>
-      <c r="T67" s="72">
+      <c r="T67" s="74">
         <v>1.21738247656042</v>
       </c>
     </row>
@@ -7700,7 +8106,7 @@
       <c r="A68" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B68" s="102" t="s">
+      <c r="B68" s="104" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="36" t="s">
@@ -7721,7 +8127,7 @@
       <c r="H68" s="6">
         <v>14077.356101340001</v>
       </c>
-      <c r="I68" s="80" t="s">
+      <c r="I68" s="82" t="s">
         <v>4</v>
       </c>
       <c r="J68" s="33">
@@ -7739,10 +8145,10 @@
       <c r="N68" s="33">
         <v>233.24449433223683</v>
       </c>
-      <c r="O68" s="107" t="s">
+      <c r="O68" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="P68" s="59">
+      <c r="P68" s="61">
         <v>1.8214718190674299</v>
       </c>
       <c r="Q68" s="6">
@@ -7754,7 +8160,7 @@
       <c r="S68" s="6">
         <v>1.9838232126409701</v>
       </c>
-      <c r="T68" s="72">
+      <c r="T68" s="74">
         <v>1.91427414461777</v>
       </c>
     </row>
@@ -7762,7 +8168,7 @@
       <c r="A69" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B69" s="102" t="s">
+      <c r="B69" s="104" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="36" t="s">
@@ -7783,7 +8189,7 @@
       <c r="H69" s="6">
         <v>53583.988396199995</v>
       </c>
-      <c r="I69" s="80" t="s">
+      <c r="I69" s="82" t="s">
         <v>7</v>
       </c>
       <c r="J69" s="33">
@@ -7801,10 +8207,10 @@
       <c r="N69" s="33">
         <v>78.056134433969021</v>
       </c>
-      <c r="O69" s="107" t="s">
+      <c r="O69" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="P69" s="59">
+      <c r="P69" s="61">
         <v>7.2147729075989604</v>
       </c>
       <c r="Q69" s="6">
@@ -7816,7 +8222,7 @@
       <c r="S69" s="6">
         <v>12.4961269119769</v>
       </c>
-      <c r="T69" s="72">
+      <c r="T69" s="74">
         <v>10.081622762152</v>
       </c>
     </row>
@@ -7824,7 +8230,7 @@
       <c r="A70" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B70" s="102" t="s">
+      <c r="B70" s="104" t="s">
         <v>6</v>
       </c>
       <c r="C70" s="36" t="s">
@@ -7845,7 +8251,7 @@
       <c r="H70" s="6">
         <v>2502.4277450999998</v>
       </c>
-      <c r="I70" s="80" t="s">
+      <c r="I70" s="82" t="s">
         <v>7</v>
       </c>
       <c r="J70" s="33">
@@ -7863,10 +8269,10 @@
       <c r="N70" s="33">
         <v>205.74989880668656</v>
       </c>
-      <c r="O70" s="107" t="s">
+      <c r="O70" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="P70" s="59">
+      <c r="P70" s="61">
         <v>1.6023884863411699</v>
       </c>
       <c r="Q70" s="6">
@@ -7878,7 +8284,7 @@
       <c r="S70" s="6">
         <v>0.901917548868017</v>
       </c>
-      <c r="T70" s="72">
+      <c r="T70" s="74">
         <v>0.47082222265914597</v>
       </c>
     </row>
@@ -7886,10 +8292,10 @@
       <c r="A71" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B71" s="102" t="s">
+      <c r="B71" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="143" t="s">
+      <c r="C71" s="147" t="s">
         <v>8</v>
       </c>
       <c r="D71" s="6">
@@ -7907,7 +8313,7 @@
       <c r="H71" s="6">
         <v>37029.994405199999</v>
       </c>
-      <c r="I71" s="80" t="s">
+      <c r="I71" s="82" t="s">
         <v>8</v>
       </c>
       <c r="J71" s="33">
@@ -7925,10 +8331,10 @@
       <c r="N71" s="33">
         <v>91.006732623531533</v>
       </c>
-      <c r="O71" s="107" t="s">
+      <c r="O71" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="P71" s="59">
+      <c r="P71" s="61">
         <v>2.1820294994983298</v>
       </c>
       <c r="Q71" s="6">
@@ -7940,7 +8346,7 @@
       <c r="S71" s="6">
         <v>3.52589086128887</v>
       </c>
-      <c r="T71" s="72">
+      <c r="T71" s="74">
         <v>3.3652535485044099</v>
       </c>
     </row>
@@ -7948,10 +8354,10 @@
       <c r="A72" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B72" s="102" t="s">
+      <c r="B72" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="143" t="s">
+      <c r="C72" s="147" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="6">
@@ -7969,117 +8375,117 @@
       <c r="H72" s="6">
         <v>6308.4600363</v>
       </c>
-      <c r="I72" s="80" t="s">
+      <c r="I72" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="J72" s="96">
+      <c r="J72" s="98">
         <v>145.78954514051014</v>
       </c>
-      <c r="K72" s="96">
+      <c r="K72" s="98">
         <v>163.77704740441729</v>
       </c>
-      <c r="L72" s="96">
+      <c r="L72" s="98">
         <v>174.81580280905541</v>
       </c>
-      <c r="M72" s="96">
+      <c r="M72" s="98">
         <v>152.73837995873373</v>
       </c>
-      <c r="N72" s="96">
+      <c r="N72" s="98">
         <v>212.87434591800525</v>
       </c>
-      <c r="O72" s="107" t="s">
+      <c r="O72" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="P72" s="100">
+      <c r="P72" s="102">
         <v>1.5154344148279599</v>
       </c>
-      <c r="Q72" s="97">
+      <c r="Q72" s="99">
         <v>0.52115519679316802</v>
       </c>
-      <c r="R72" s="97">
+      <c r="R72" s="99">
         <v>0.54478749839130103</v>
       </c>
-      <c r="S72" s="97">
+      <c r="S72" s="99">
         <v>0.65398416539825599</v>
       </c>
-      <c r="T72" s="98">
+      <c r="T72" s="100">
         <v>0.57330733811225298</v>
       </c>
     </row>
     <row r="73" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="92" t="s">
+      <c r="A73" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="B73" s="104" t="s">
+      <c r="B73" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="144" t="s">
+      <c r="C73" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="93">
+      <c r="D73" s="95">
         <f>SUM(D65:D72)</f>
         <v>107212.64241318</v>
       </c>
-      <c r="E73" s="93">
-        <f t="shared" ref="E73:G73" si="60">SUM(E65:E72)</f>
+      <c r="E73" s="95">
+        <f t="shared" ref="E73:G73" si="44">SUM(E65:E72)</f>
         <v>108147.40144956001</v>
       </c>
-      <c r="F73" s="93">
-        <f t="shared" si="60"/>
+      <c r="F73" s="95">
+        <f t="shared" si="44"/>
         <v>124930.22359223999</v>
       </c>
-      <c r="G73" s="93">
-        <f t="shared" si="60"/>
+      <c r="G73" s="95">
+        <f t="shared" si="44"/>
         <v>163769.62047264</v>
       </c>
-      <c r="H73" s="93">
+      <c r="H73" s="95">
         <f>SUM(H65:H72)</f>
         <v>150164.16861245999</v>
       </c>
-      <c r="I73" s="99" t="s">
+      <c r="I73" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="J73" s="46">
-        <f>AVERAGE(J65:J72)</f>
-        <v>106.86171718086007</v>
-      </c>
-      <c r="K73" s="46">
-        <f t="shared" ref="K73:N73" si="61">AVERAGE(K65:K72)</f>
-        <v>113.97854890308662</v>
-      </c>
-      <c r="L73" s="46">
-        <f t="shared" si="61"/>
-        <v>117.70927014422413</v>
-      </c>
-      <c r="M73" s="46">
-        <f t="shared" si="61"/>
-        <v>121.30207569872154</v>
-      </c>
-      <c r="N73" s="46">
-        <f t="shared" si="61"/>
-        <v>156.25455261274504</v>
-      </c>
-      <c r="O73" s="108" t="s">
+      <c r="J73" s="45">
+        <f>SUM(J65:J72)</f>
+        <v>854.89373744688055</v>
+      </c>
+      <c r="K73" s="45">
+        <f t="shared" ref="K73:T73" si="45">SUM(K65:K72)</f>
+        <v>911.82839122469295</v>
+      </c>
+      <c r="L73" s="45">
+        <f t="shared" si="45"/>
+        <v>941.67416115379308</v>
+      </c>
+      <c r="M73" s="45">
+        <f t="shared" si="45"/>
+        <v>970.4166055897723</v>
+      </c>
+      <c r="N73" s="108">
+        <f t="shared" si="45"/>
+        <v>1250.0364209019604</v>
+      </c>
+      <c r="O73" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="P73" s="54">
-        <f t="shared" ref="K73:T73" si="62">SUM(P65:P72)</f>
+      <c r="P73" s="56">
+        <f t="shared" si="45"/>
         <v>24.607668695647774</v>
       </c>
-      <c r="Q73" s="46">
-        <f t="shared" si="62"/>
+      <c r="Q73" s="47">
+        <f t="shared" si="45"/>
         <v>21.747806952940262</v>
       </c>
-      <c r="R73" s="46">
-        <f t="shared" si="62"/>
+      <c r="R73" s="47">
+        <f t="shared" si="45"/>
         <v>25.535595768392572</v>
       </c>
-      <c r="S73" s="46">
-        <f t="shared" si="62"/>
+      <c r="S73" s="47">
+        <f t="shared" si="45"/>
         <v>28.946762681585426</v>
       </c>
-      <c r="T73" s="62">
-        <f t="shared" si="62"/>
+      <c r="T73" s="64">
+        <f t="shared" si="45"/>
         <v>26.224857633400717</v>
       </c>
     </row>
@@ -8123,22 +8529,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="125" t="s">
+      <c r="D1" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="124" t="s">
+      <c r="E1" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="124" t="s">
+      <c r="F1" s="128" t="s">
         <v>46</v>
       </c>
       <c r="G1" s="1"/>
@@ -8157,22 +8563,22 @@
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="117">
+      <c r="B2" s="121">
         <v>90</v>
       </c>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="128" t="s">
+      <c r="D2" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="126" t="s">
+      <c r="E2" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="126" t="s">
+      <c r="F2" s="130" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="1"/>
@@ -8191,22 +8597,22 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="117">
+      <c r="B3" s="121">
         <v>90</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="132">
+      <c r="E3" s="136">
         <v>1186</v>
       </c>
-      <c r="F3" s="127">
+      <c r="F3" s="131">
         <v>0.1</v>
       </c>
       <c r="G3" s="1"/>
@@ -8225,22 +8631,22 @@
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="134" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="129">
+      <c r="D4" s="133">
         <v>900</v>
       </c>
-      <c r="E4" s="126" t="s">
+      <c r="E4" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="126" t="s">
+      <c r="F4" s="130" t="s">
         <v>41</v>
       </c>
       <c r="G4" s="1"/>
@@ -8259,22 +8665,22 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="117">
+      <c r="B5" s="121">
         <v>90</v>
       </c>
-      <c r="C5" s="120" t="s">
+      <c r="C5" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="132">
+      <c r="D5" s="136">
         <v>1186</v>
       </c>
-      <c r="E5" s="126" t="s">
+      <c r="E5" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="126" t="s">
+      <c r="F5" s="130" t="s">
         <v>41</v>
       </c>
       <c r="G5" s="1"/>
@@ -8293,22 +8699,22 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="130" t="s">
+      <c r="A6" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="117">
+      <c r="B6" s="121">
         <v>75</v>
       </c>
-      <c r="C6" s="122" t="s">
+      <c r="C6" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="132">
+      <c r="D6" s="136">
         <v>2320</v>
       </c>
-      <c r="E6" s="132">
+      <c r="E6" s="136">
         <v>1610</v>
       </c>
-      <c r="F6" s="127">
+      <c r="F6" s="131">
         <v>0.32</v>
       </c>
       <c r="G6" s="1"/>
@@ -8327,22 +8733,22 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="130" t="s">
+      <c r="A7" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="117">
+      <c r="B7" s="121">
         <v>75</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="132">
+      <c r="D7" s="136">
         <v>397</v>
       </c>
-      <c r="E7" s="126" t="s">
+      <c r="E7" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="126" t="s">
+      <c r="F7" s="130" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="1"/>
@@ -8361,22 +8767,22 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="117">
+      <c r="B8" s="121">
         <v>75</v>
       </c>
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="132">
+      <c r="D8" s="136">
         <v>435</v>
       </c>
-      <c r="E8" s="126" t="s">
+      <c r="E8" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="126" t="s">
+      <c r="F8" s="130" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="1"/>
@@ -8395,22 +8801,22 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="130" t="s">
+      <c r="A9" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="117">
+      <c r="B9" s="121">
         <v>75</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="132">
+      <c r="D9" s="136">
         <v>349</v>
       </c>
-      <c r="E9" s="126" t="s">
+      <c r="E9" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="126" t="s">
+      <c r="F9" s="130" t="s">
         <v>41</v>
       </c>
       <c r="G9" s="1"/>
@@ -8429,22 +8835,22 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="130" t="s">
+      <c r="A10" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="117">
+      <c r="B10" s="121">
         <v>75</v>
       </c>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="132">
+      <c r="D10" s="136">
         <v>857</v>
       </c>
-      <c r="E10" s="132">
+      <c r="E10" s="136">
         <v>625</v>
       </c>
-      <c r="F10" s="127">
+      <c r="F10" s="131">
         <v>0.27</v>
       </c>
       <c r="G10" s="1"/>
@@ -8463,22 +8869,22 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="130" t="s">
+      <c r="A11" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="117">
+      <c r="B11" s="121">
         <v>75</v>
       </c>
-      <c r="C11" s="121" t="s">
+      <c r="C11" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="132">
+      <c r="D11" s="136">
         <v>952</v>
       </c>
-      <c r="E11" s="132">
+      <c r="E11" s="136">
         <v>694</v>
       </c>
-      <c r="F11" s="127">
+      <c r="F11" s="131">
         <v>0.27</v>
       </c>
       <c r="G11" s="1"/>
@@ -8497,22 +8903,22 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="130" t="s">
+      <c r="A12" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="117">
+      <c r="B12" s="121">
         <v>75</v>
       </c>
-      <c r="C12" s="121" t="s">
+      <c r="C12" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="132">
+      <c r="D12" s="136">
         <v>889</v>
       </c>
-      <c r="E12" s="132">
+      <c r="E12" s="136">
         <v>551</v>
       </c>
-      <c r="F12" s="127">
+      <c r="F12" s="131">
         <v>0.38</v>
       </c>
       <c r="G12" s="1"/>
@@ -8531,22 +8937,22 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="130" t="s">
+      <c r="A13" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="117">
+      <c r="B13" s="121">
         <v>75</v>
       </c>
-      <c r="C13" s="121" t="s">
+      <c r="C13" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="132">
+      <c r="D13" s="136">
         <v>818</v>
       </c>
-      <c r="E13" s="132">
+      <c r="E13" s="136">
         <v>449</v>
       </c>
-      <c r="F13" s="127">
+      <c r="F13" s="131">
         <v>0.45</v>
       </c>
       <c r="G13" s="1"/>
@@ -8565,22 +8971,22 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="117">
+      <c r="B14" s="121">
         <v>75</v>
       </c>
-      <c r="C14" s="122" t="s">
+      <c r="C14" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="132">
+      <c r="D14" s="136">
         <v>300</v>
       </c>
-      <c r="E14" s="132">
+      <c r="E14" s="136">
         <v>276</v>
       </c>
-      <c r="F14" s="127">
+      <c r="F14" s="131">
         <v>0.1</v>
       </c>
       <c r="G14" s="1"/>
@@ -8599,22 +9005,22 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="117">
+      <c r="B15" s="121">
         <v>75</v>
       </c>
-      <c r="C15" s="121" t="s">
+      <c r="C15" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="132">
+      <c r="D15" s="136">
         <v>342</v>
       </c>
-      <c r="E15" s="132">
+      <c r="E15" s="136">
         <v>570</v>
       </c>
-      <c r="F15" s="127">
+      <c r="F15" s="131">
         <v>0.4</v>
       </c>
       <c r="G15" s="1"/>
@@ -8633,22 +9039,22 @@
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="130" t="s">
+      <c r="A16" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="117">
+      <c r="B16" s="121">
         <v>75</v>
       </c>
-      <c r="C16" s="121" t="s">
+      <c r="C16" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="132">
+      <c r="D16" s="136">
         <v>380</v>
       </c>
-      <c r="E16" s="126" t="s">
+      <c r="E16" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="126" t="s">
+      <c r="F16" s="130" t="s">
         <v>41</v>
       </c>
       <c r="G16" s="1"/>
@@ -8667,22 +9073,22 @@
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="117">
+      <c r="B17" s="121">
         <v>75</v>
       </c>
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="132">
+      <c r="D17" s="136">
         <v>857</v>
       </c>
-      <c r="E17" s="132">
+      <c r="E17" s="136">
         <v>625</v>
       </c>
-      <c r="F17" s="127">
+      <c r="F17" s="131">
         <v>0.27</v>
       </c>
       <c r="G17" s="1"/>
@@ -8701,22 +9107,22 @@
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="130" t="s">
+      <c r="A18" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="117">
+      <c r="B18" s="121">
         <v>75</v>
       </c>
-      <c r="C18" s="121" t="s">
+      <c r="C18" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="132">
+      <c r="D18" s="136">
         <v>847</v>
       </c>
-      <c r="E18" s="132">
+      <c r="E18" s="136">
         <v>618</v>
       </c>
-      <c r="F18" s="127">
+      <c r="F18" s="131">
         <v>0.27</v>
       </c>
       <c r="G18" s="1"/>
@@ -8735,22 +9141,22 @@
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="131" t="s">
+      <c r="A19" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="123">
+      <c r="B19" s="127">
         <v>75</v>
       </c>
-      <c r="C19" s="121" t="s">
+      <c r="C19" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="132">
+      <c r="D19" s="136">
         <v>938</v>
       </c>
-      <c r="E19" s="132">
+      <c r="E19" s="136">
         <v>684</v>
       </c>
-      <c r="F19" s="127">
+      <c r="F19" s="131">
         <v>0.27</v>
       </c>
       <c r="G19" s="1"/>
@@ -8769,12 +9175,12 @@
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="139"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="138"/>
+      <c r="A20" s="143"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -8791,7 +9197,7 @@
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="138"/>
+      <c r="A21" s="142"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -9565,142 +9971,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="125" t="s">
+      <c r="D1" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="124" t="s">
+      <c r="E1" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="124" t="s">
+      <c r="F1" s="128" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="117">
+      <c r="B2" s="121">
         <v>250</v>
       </c>
-      <c r="C2" s="133" t="s">
+      <c r="C2" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="128" t="s">
+      <c r="D2" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="128" t="s">
+      <c r="E2" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="127">
+      <c r="F2" s="131">
         <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="117">
+      <c r="B3" s="121">
         <v>250</v>
       </c>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="132" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="128" t="s">
+      <c r="E3" s="132" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="127">
+      <c r="F3" s="131">
         <v>0.33</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="117">
+      <c r="B4" s="121">
         <v>250</v>
       </c>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="128" t="s">
+      <c r="D4" s="132" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="128" t="s">
+      <c r="E4" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="127">
+      <c r="F4" s="131">
         <v>0.44</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="117">
+      <c r="B5" s="121">
         <v>250</v>
       </c>
-      <c r="C5" s="133" t="s">
+      <c r="C5" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="129">
+      <c r="D5" s="133">
         <v>2157</v>
       </c>
-      <c r="E5" s="128" t="s">
+      <c r="E5" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="127">
+      <c r="F5" s="131">
         <v>0.62</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="131" t="s">
+      <c r="A6" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="123">
+      <c r="B6" s="127">
         <v>250</v>
       </c>
-      <c r="C6" s="121" t="s">
+      <c r="C6" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="136">
+      <c r="D6" s="140">
         <v>919</v>
       </c>
-      <c r="E6" s="126" t="s">
+      <c r="E6" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="126" t="s">
+      <c r="F6" s="130" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="123">
+      <c r="B7" s="127">
         <v>250</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="136">
+      <c r="D7" s="140">
         <v>1200</v>
       </c>
-      <c r="E7" s="126" t="s">
+      <c r="E7" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="126" t="s">
+      <c r="F7" s="130" t="s">
         <v>41</v>
       </c>
     </row>
@@ -9727,482 +10133,482 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="125" t="s">
+      <c r="D1" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="124" t="s">
+      <c r="E1" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="124" t="s">
+      <c r="F1" s="128" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="117">
+      <c r="B2" s="121">
         <v>50</v>
       </c>
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="128" t="s">
+      <c r="D2" s="132" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="128" t="s">
+      <c r="E2" s="132" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="127">
+      <c r="F2" s="131">
         <v>0.16</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="117">
+      <c r="B3" s="121">
         <v>50</v>
       </c>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="132" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="128" t="s">
+      <c r="E3" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="127">
+      <c r="F3" s="131">
         <v>0.08</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="117">
+      <c r="B4" s="121">
         <v>50</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="129">
+      <c r="D4" s="133">
         <v>5700</v>
       </c>
-      <c r="E4" s="128" t="s">
+      <c r="E4" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="127">
+      <c r="F4" s="131">
         <v>0.78</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="117">
+      <c r="B5" s="121">
         <v>50</v>
       </c>
-      <c r="C5" s="121" t="s">
+      <c r="C5" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="129">
+      <c r="D5" s="133">
         <v>1100</v>
       </c>
-      <c r="E5" s="129">
+      <c r="E5" s="133">
         <v>649</v>
       </c>
-      <c r="F5" s="127">
+      <c r="F5" s="131">
         <v>0.41</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="130" t="s">
+      <c r="A6" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="117">
+      <c r="B6" s="121">
         <v>0.6</v>
       </c>
-      <c r="C6" s="121" t="s">
+      <c r="C6" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="136">
+      <c r="D6" s="140">
         <v>1190</v>
       </c>
-      <c r="E6" s="136">
+      <c r="E6" s="140">
         <v>595</v>
       </c>
-      <c r="F6" s="127">
+      <c r="F6" s="131">
         <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="130" t="s">
+      <c r="A7" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="117">
+      <c r="B7" s="121">
         <v>0.6</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="136">
+      <c r="D7" s="140">
         <v>1030</v>
       </c>
-      <c r="E7" s="136">
+      <c r="E7" s="140">
         <v>597</v>
       </c>
-      <c r="F7" s="145">
+      <c r="F7" s="149">
         <v>0.42</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="123">
+      <c r="B8" s="127">
         <v>50</v>
       </c>
-      <c r="C8" s="121" t="s">
+      <c r="C8" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="137" t="s">
+      <c r="D8" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="137" t="s">
+      <c r="E8" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="137" t="s">
+      <c r="F8" s="141" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="123">
+      <c r="B9" s="127">
         <v>50</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="137" t="s">
+      <c r="D9" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="137" t="s">
+      <c r="E9" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="146" t="s">
+      <c r="F9" s="150" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A10" s="131" t="s">
+      <c r="A10" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="123">
+      <c r="B10" s="127">
         <v>25</v>
       </c>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="136">
+      <c r="D10" s="140">
         <v>3000</v>
       </c>
-      <c r="E10" s="136">
+      <c r="E10" s="140">
         <v>1500</v>
       </c>
-      <c r="F10" s="145">
+      <c r="F10" s="149">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="131" t="s">
+      <c r="A11" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="123">
+      <c r="B11" s="127">
         <v>50</v>
       </c>
-      <c r="C11" s="121" t="s">
+      <c r="C11" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="141" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="137" t="s">
+      <c r="E11" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="137" t="s">
+      <c r="F11" s="141" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" s="130" t="s">
+      <c r="A12" s="134" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="117">
+      <c r="B12" s="121">
         <v>25</v>
       </c>
-      <c r="C12" s="121" t="s">
+      <c r="C12" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="136">
+      <c r="D12" s="140">
         <v>6600</v>
       </c>
-      <c r="E12" s="136">
+      <c r="E12" s="140">
         <v>3366</v>
       </c>
-      <c r="F12" s="145">
+      <c r="F12" s="149">
         <v>0.49</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="130" t="s">
+      <c r="A13" s="134" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="117">
+      <c r="B13" s="121">
         <v>50</v>
       </c>
-      <c r="C13" s="121" t="s">
+      <c r="C13" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="129">
+      <c r="D13" s="133">
         <v>1780</v>
       </c>
-      <c r="E13" s="128" t="s">
+      <c r="E13" s="132" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="127">
+      <c r="F13" s="131">
         <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="117">
+      <c r="B14" s="121">
         <v>50</v>
       </c>
-      <c r="C14" s="121" t="s">
+      <c r="C14" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="129">
+      <c r="D14" s="133">
         <v>1300</v>
       </c>
-      <c r="E14" s="129">
+      <c r="E14" s="133">
         <v>650</v>
       </c>
-      <c r="F14" s="127">
+      <c r="F14" s="131">
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="117">
+      <c r="B15" s="121">
         <v>25</v>
       </c>
-      <c r="C15" s="121" t="s">
+      <c r="C15" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="129">
+      <c r="D15" s="133">
         <v>749</v>
       </c>
-      <c r="E15" s="129">
+      <c r="E15" s="133">
         <v>509</v>
       </c>
-      <c r="F15" s="127">
+      <c r="F15" s="131">
         <v>0.32</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A16" s="131" t="s">
+      <c r="A16" s="135" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="117">
+      <c r="B16" s="121">
         <v>25</v>
       </c>
-      <c r="C16" s="121" t="s">
+      <c r="C16" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="129">
+      <c r="D16" s="133">
         <v>693</v>
       </c>
-      <c r="E16" s="129">
+      <c r="E16" s="133">
         <v>630</v>
       </c>
-      <c r="F16" s="127">
+      <c r="F16" s="131">
         <v>0.09</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="117">
+      <c r="B17" s="121">
         <v>50</v>
       </c>
-      <c r="C17" s="120" t="s">
+      <c r="C17" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="128" t="s">
+      <c r="D17" s="132" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="128" t="s">
+      <c r="E17" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="127">
+      <c r="F17" s="131">
         <v>0.18</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A18" s="130" t="s">
+      <c r="A18" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="117">
+      <c r="B18" s="121">
         <v>50</v>
       </c>
-      <c r="C18" s="120" t="s">
+      <c r="C18" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="128" t="s">
+      <c r="D18" s="132" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="128" t="s">
+      <c r="E18" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="127">
+      <c r="F18" s="131">
         <v>0.6</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A19" s="130" t="s">
+      <c r="A19" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="117">
+      <c r="B19" s="121">
         <v>0.6</v>
       </c>
-      <c r="C19" s="120" t="s">
+      <c r="C19" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="128" t="s">
+      <c r="D19" s="132" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="128" t="s">
+      <c r="E19" s="132" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="127">
+      <c r="F19" s="131">
         <v>0.23</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="117">
+      <c r="B20" s="121">
         <v>25</v>
       </c>
-      <c r="C20" s="120" t="s">
+      <c r="C20" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="128" t="s">
+      <c r="D20" s="132" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="135" t="s">
+      <c r="E20" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="135" t="s">
+      <c r="F20" s="139" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A21" s="130" t="s">
+      <c r="A21" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="117">
+      <c r="B21" s="121">
         <v>50</v>
       </c>
-      <c r="C21" s="134" t="s">
+      <c r="C21" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="128" t="s">
+      <c r="D21" s="132" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="128" t="s">
+      <c r="E21" s="132" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="127">
+      <c r="F21" s="131">
         <v>0.35</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A22" s="130" t="s">
+      <c r="A22" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="117">
+      <c r="B22" s="121">
         <v>50</v>
       </c>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="128" t="s">
+      <c r="D22" s="132" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="128" t="s">
+      <c r="E22" s="132" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="127">
+      <c r="F22" s="131">
         <v>0.39</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A23" s="130" t="s">
+      <c r="A23" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="117">
+      <c r="B23" s="121">
         <v>0.6</v>
       </c>
-      <c r="C23" s="134" t="s">
+      <c r="C23" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="128" t="s">
+      <c r="D23" s="132" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="128" t="s">
+      <c r="E23" s="132" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="127">
+      <c r="F23" s="131">
         <v>0.3</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A24" s="130" t="s">
+      <c r="A24" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="117">
+      <c r="B24" s="121">
         <v>25</v>
       </c>
-      <c r="C24" s="134" t="s">
+      <c r="C24" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="128" t="s">
+      <c r="D24" s="132" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="128" t="s">
+      <c r="E24" s="132" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="147">
+      <c r="F24" s="151">
         <v>0.45</v>
       </c>
     </row>
@@ -10212,4 +10618,2265 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.77734375" customWidth="1"/>
+    <col min="2" max="2" width="40.77734375" customWidth="1"/>
+    <col min="3" max="15" width="30.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="179"/>
+      <c r="J1" s="179"/>
+      <c r="O1" s="179"/>
+    </row>
+    <row r="2" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="152"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="189" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="195" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="197"/>
+    </row>
+    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="162" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="164" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="164" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="164" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="164" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="164" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="187" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="186" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="192" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="193" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="193" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="193" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="194" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="163" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="163" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="165">
+        <v>3959.3911166399998</v>
+      </c>
+      <c r="F4" s="165">
+        <v>2096.6305618199999</v>
+      </c>
+      <c r="G4" s="165">
+        <v>2231.9793397799999</v>
+      </c>
+      <c r="H4" s="165">
+        <v>2271.1712441999998</v>
+      </c>
+      <c r="I4" s="165">
+        <v>1391.9980929600001</v>
+      </c>
+      <c r="J4" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="181">
+        <v>53.396681457510027</v>
+      </c>
+      <c r="L4" s="166">
+        <v>50.792386902741264</v>
+      </c>
+      <c r="M4" s="166">
+        <v>53.225930808283493</v>
+      </c>
+      <c r="N4" s="166">
+        <v>56.647759021939009</v>
+      </c>
+      <c r="O4" s="176">
+        <v>79.830564469331463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="163" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="163" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="165">
+        <v>799.53824585999996</v>
+      </c>
+      <c r="F5" s="165">
+        <v>472.20096857999999</v>
+      </c>
+      <c r="G5" s="165">
+        <v>658.68227393999996</v>
+      </c>
+      <c r="H5" s="165">
+        <v>1437.5036796000002</v>
+      </c>
+      <c r="I5" s="165">
+        <v>1686.5006045400003</v>
+      </c>
+      <c r="J5" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="181">
+        <v>57.338495558577961</v>
+      </c>
+      <c r="L5" s="166">
+        <v>55.776728181606664</v>
+      </c>
+      <c r="M5" s="166">
+        <v>58.425849707981882</v>
+      </c>
+      <c r="N5" s="166">
+        <v>60.917862222582627</v>
+      </c>
+      <c r="O5" s="176">
+        <v>69.577938432606274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="163" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="163" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="165">
+        <v>5414.0388683400006</v>
+      </c>
+      <c r="F6" s="165">
+        <v>9208.6848483599988</v>
+      </c>
+      <c r="G6" s="165">
+        <v>7853.7581113799988</v>
+      </c>
+      <c r="H6" s="165">
+        <v>6585.3848764799995</v>
+      </c>
+      <c r="I6" s="165">
+        <v>5555.9169371400003</v>
+      </c>
+      <c r="J6" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="181">
+        <v>59.83603071017275</v>
+      </c>
+      <c r="L6" s="166">
+        <v>55.864961190375261</v>
+      </c>
+      <c r="M6" s="166">
+        <v>65.511157317595831</v>
+      </c>
+      <c r="N6" s="166">
+        <v>68.863075082136774</v>
+      </c>
+      <c r="O6" s="176">
+        <v>94.269251755269678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="163" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="163" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="165">
+        <v>2078.7929239800001</v>
+      </c>
+      <c r="F7" s="165">
+        <v>1380.4497373199999</v>
+      </c>
+      <c r="G7" s="165">
+        <v>2701.7445554400001</v>
+      </c>
+      <c r="H7" s="165">
+        <v>5007.1000989000004</v>
+      </c>
+      <c r="I7" s="165">
+        <v>5387.6637987000004</v>
+      </c>
+      <c r="J7" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="181">
+        <v>57.578880822522159</v>
+      </c>
+      <c r="L7" s="166">
+        <v>61.221420892244304</v>
+      </c>
+      <c r="M7" s="166">
+        <v>59.418610116922174</v>
+      </c>
+      <c r="N7" s="166">
+        <v>60.565009815800558</v>
+      </c>
+      <c r="O7" s="176">
+        <v>72.426522755831485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="171" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="171" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="172" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="174">
+        <v>14164.25352138</v>
+      </c>
+      <c r="F8" s="174">
+        <v>15275.724777540001</v>
+      </c>
+      <c r="G8" s="174">
+        <v>15641.07728598</v>
+      </c>
+      <c r="H8" s="174">
+        <v>18181.582195799998</v>
+      </c>
+      <c r="I8" s="174">
+        <v>16887.71969568</v>
+      </c>
+      <c r="J8" s="184" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="182">
+        <f>AVERAGE(K4:K7)</f>
+        <v>57.037522137195729</v>
+      </c>
+      <c r="L8" s="175">
+        <f t="shared" ref="L8:O8" si="0">AVERAGE(L4:L7)</f>
+        <v>55.913874291741877</v>
+      </c>
+      <c r="M8" s="175">
+        <f t="shared" si="0"/>
+        <v>59.145386987695844</v>
+      </c>
+      <c r="N8" s="175">
+        <f t="shared" si="0"/>
+        <v>61.74842653561474</v>
+      </c>
+      <c r="O8" s="177">
+        <f t="shared" si="0"/>
+        <v>79.026069353259714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="167" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="167" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="168" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="169">
+        <v>6025.8590690399997</v>
+      </c>
+      <c r="F9" s="169">
+        <v>6887.8121797799995</v>
+      </c>
+      <c r="G9" s="169">
+        <v>5386.3879158600002</v>
+      </c>
+      <c r="H9" s="169">
+        <v>4235.9537549400002</v>
+      </c>
+      <c r="I9" s="169">
+        <v>3091.0940006999999</v>
+      </c>
+      <c r="J9" s="185" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="183">
+        <v>147.19304583644922</v>
+      </c>
+      <c r="L9" s="170">
+        <v>138.55871896428164</v>
+      </c>
+      <c r="M9" s="170">
+        <v>154.46960871235265</v>
+      </c>
+      <c r="N9" s="170">
+        <v>162.25676983998656</v>
+      </c>
+      <c r="O9" s="178">
+        <v>181.15583950079846</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="163" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="163" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="165">
+        <v>261.24000516000001</v>
+      </c>
+      <c r="F10" s="165">
+        <v>98.566037520000009</v>
+      </c>
+      <c r="G10" s="165">
+        <v>407.66355948</v>
+      </c>
+      <c r="H10" s="165">
+        <v>1034.6097768</v>
+      </c>
+      <c r="I10" s="165">
+        <v>223.62103289999999</v>
+      </c>
+      <c r="J10" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="181">
+        <v>109.58434900025964</v>
+      </c>
+      <c r="L10" s="166">
+        <v>170.16113630622735</v>
+      </c>
+      <c r="M10" s="166">
+        <v>130.1866366658881</v>
+      </c>
+      <c r="N10" s="166">
+        <v>90.912422189474938</v>
+      </c>
+      <c r="O10" s="176">
+        <v>129.58624184711692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="163" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="163" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="165">
+        <v>5088.2481918000003</v>
+      </c>
+      <c r="F11" s="165">
+        <v>3743.1397910999999</v>
+      </c>
+      <c r="G11" s="165">
+        <v>2207.9049538199997</v>
+      </c>
+      <c r="H11" s="165">
+        <v>2280.38794938</v>
+      </c>
+      <c r="I11" s="165">
+        <v>1403.82399078</v>
+      </c>
+      <c r="J11" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="181">
+        <v>95.762492615167901</v>
+      </c>
+      <c r="L11" s="166">
+        <v>138.36640340165616</v>
+      </c>
+      <c r="M11" s="166">
+        <v>175.60201330218177</v>
+      </c>
+      <c r="N11" s="166">
+        <v>174.37833142837425</v>
+      </c>
+      <c r="O11" s="176">
+        <v>186.65021634604605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="163" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="163" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="165">
+        <v>4061.7246073799997</v>
+      </c>
+      <c r="F12" s="165">
+        <v>3149.8590346200003</v>
+      </c>
+      <c r="G12" s="165">
+        <v>3859.6598655000003</v>
+      </c>
+      <c r="H12" s="165">
+        <v>6222.9636538199993</v>
+      </c>
+      <c r="I12" s="165">
+        <v>1723.8532367400001</v>
+      </c>
+      <c r="J12" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="181">
+        <v>150.39547727443212</v>
+      </c>
+      <c r="L12" s="166">
+        <v>158.37032902968423</v>
+      </c>
+      <c r="M12" s="166">
+        <v>151.39365324633152</v>
+      </c>
+      <c r="N12" s="166">
+        <v>106.9953188033204</v>
+      </c>
+      <c r="O12" s="176">
+        <v>139.49633003324419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="171" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="171" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="172" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="174">
+        <v>17452.971460320001</v>
+      </c>
+      <c r="F13" s="174">
+        <v>16471.109955779997</v>
+      </c>
+      <c r="G13" s="174">
+        <v>14735.472796980001</v>
+      </c>
+      <c r="H13" s="174">
+        <v>18031.26474594</v>
+      </c>
+      <c r="I13" s="174">
+        <v>8927.1362365799996</v>
+      </c>
+      <c r="J13" s="184" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="182">
+        <f>AVERAGE(K9:K12)</f>
+        <v>125.73384118157722</v>
+      </c>
+      <c r="L13" s="175">
+        <f t="shared" ref="L13" si="1">AVERAGE(L9:L12)</f>
+        <v>151.36414692546236</v>
+      </c>
+      <c r="M13" s="175">
+        <f t="shared" ref="M13" si="2">AVERAGE(M9:M12)</f>
+        <v>152.91297798168853</v>
+      </c>
+      <c r="N13" s="175">
+        <f t="shared" ref="N13" si="3">AVERAGE(N9:N12)</f>
+        <v>133.63571056528903</v>
+      </c>
+      <c r="O13" s="177">
+        <f t="shared" ref="O13" si="4">AVERAGE(O9:O12)</f>
+        <v>159.22215693180141</v>
+      </c>
+      <c r="R13" s="198"/>
+    </row>
+    <row r="14" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="163" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="163" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="168" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="165">
+        <v>2280.2282869800001</v>
+      </c>
+      <c r="F14" s="165">
+        <v>4176.4531151400006</v>
+      </c>
+      <c r="G14" s="165">
+        <v>2766.7036535400002</v>
+      </c>
+      <c r="H14" s="165">
+        <v>2689.3306106999999</v>
+      </c>
+      <c r="I14" s="165">
+        <v>2463.1373392800001</v>
+      </c>
+      <c r="J14" s="185" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="166">
+        <v>143.42020283452922</v>
+      </c>
+      <c r="L14" s="166">
+        <v>151.24706687291231</v>
+      </c>
+      <c r="M14" s="166">
+        <v>153.93575208924946</v>
+      </c>
+      <c r="N14" s="166">
+        <v>158.75793377008253</v>
+      </c>
+      <c r="O14" s="203">
+        <v>184.77474823958553</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="163" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="163" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="165">
+        <v>29.13336636</v>
+      </c>
+      <c r="F15" s="165">
+        <v>18.268983839999997</v>
+      </c>
+      <c r="G15" s="165">
+        <v>73.287616799999995</v>
+      </c>
+      <c r="H15" s="165">
+        <v>79.816456979999998</v>
+      </c>
+      <c r="I15" s="165">
+        <v>92.30926722000001</v>
+      </c>
+      <c r="J15" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="166">
+        <v>137.71885288640564</v>
+      </c>
+      <c r="L15" s="166">
+        <v>162.23417891054436</v>
+      </c>
+      <c r="M15" s="166">
+        <v>135.27410823724969</v>
+      </c>
+      <c r="N15" s="166">
+        <v>130.31036604189606</v>
+      </c>
+      <c r="O15" s="176">
+        <v>139.89671095948779</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="163" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="163" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="165">
+        <v>734.33559821999995</v>
+      </c>
+      <c r="F16" s="165">
+        <v>910.60803821999991</v>
+      </c>
+      <c r="G16" s="165">
+        <v>1298.35506528</v>
+      </c>
+      <c r="H16" s="165">
+        <v>1412.7042460800001</v>
+      </c>
+      <c r="I16" s="165">
+        <v>1158.5551184999999</v>
+      </c>
+      <c r="J16" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="166">
+        <v>179.96816451052297</v>
+      </c>
+      <c r="L16" s="166">
+        <v>179.33903460199929</v>
+      </c>
+      <c r="M16" s="166">
+        <v>185.85201885014109</v>
+      </c>
+      <c r="N16" s="166">
+        <v>190.73808300281138</v>
+      </c>
+      <c r="O16" s="176">
+        <v>196.81020429624382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="163" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="163" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="165">
+        <v>457.82530085999997</v>
+      </c>
+      <c r="F17" s="165">
+        <v>456.09122555999994</v>
+      </c>
+      <c r="G17" s="165">
+        <v>389.01299537999995</v>
+      </c>
+      <c r="H17" s="165">
+        <v>281.44734204000002</v>
+      </c>
+      <c r="I17" s="165">
+        <v>349.94547312000003</v>
+      </c>
+      <c r="J17" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="166">
+        <v>173.01837022543558</v>
+      </c>
+      <c r="L17" s="166">
+        <v>164.1785537638761</v>
+      </c>
+      <c r="M17" s="166">
+        <v>165.96792182473018</v>
+      </c>
+      <c r="N17" s="166">
+        <v>159.98646039667264</v>
+      </c>
+      <c r="O17" s="176">
+        <v>206.58982910298991</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="171" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="171" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="172" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="199">
+        <v>4100.2964036399999</v>
+      </c>
+      <c r="F18" s="173">
+        <v>6286.5358779600001</v>
+      </c>
+      <c r="G18" s="173">
+        <v>5557.88361738</v>
+      </c>
+      <c r="H18" s="173">
+        <v>5378.9700522599996</v>
+      </c>
+      <c r="I18" s="200">
+        <v>4673.2596046799999</v>
+      </c>
+      <c r="J18" s="184" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="182">
+        <f>AVERAGE(K14:K17)</f>
+        <v>158.53139761422335</v>
+      </c>
+      <c r="L18" s="175">
+        <f t="shared" ref="L18" si="5">AVERAGE(L14:L17)</f>
+        <v>164.24970853733299</v>
+      </c>
+      <c r="M18" s="175">
+        <f t="shared" ref="M18" si="6">AVERAGE(M14:M17)</f>
+        <v>160.2574502503426</v>
+      </c>
+      <c r="N18" s="175">
+        <f t="shared" ref="N18" si="7">AVERAGE(N14:N17)</f>
+        <v>159.94821080286565</v>
+      </c>
+      <c r="O18" s="177">
+        <f t="shared" ref="O18" si="8">AVERAGE(O14:O17)</f>
+        <v>182.01787314957676</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="163" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="163" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="168" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="165">
+        <v>3928.9680901199999</v>
+      </c>
+      <c r="F19" s="165">
+        <v>4788.2291511599997</v>
+      </c>
+      <c r="G19" s="165">
+        <v>4052.0457181800002</v>
+      </c>
+      <c r="H19" s="165">
+        <v>4235.0648602800002</v>
+      </c>
+      <c r="I19" s="165">
+        <v>2300.0764478400001</v>
+      </c>
+      <c r="J19" s="185" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="166">
+        <v>147.07997079289345</v>
+      </c>
+      <c r="L19" s="166">
+        <v>137.92655225472669</v>
+      </c>
+      <c r="M19" s="166">
+        <v>163.13959126965273</v>
+      </c>
+      <c r="N19" s="166">
+        <v>158.70981756216673</v>
+      </c>
+      <c r="O19" s="176">
+        <v>194.12278628118722</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="163" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="163" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="165">
+        <v>73.323412079999997</v>
+      </c>
+      <c r="F20" s="165">
+        <v>59.929346219999999</v>
+      </c>
+      <c r="G20" s="165">
+        <v>64.564834980000001</v>
+      </c>
+      <c r="H20" s="165">
+        <v>122.57295324</v>
+      </c>
+      <c r="I20" s="165">
+        <v>53.886961320000005</v>
+      </c>
+      <c r="J20" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="166">
+        <v>177.80020524017525</v>
+      </c>
+      <c r="L20" s="166">
+        <v>190.36720343224931</v>
+      </c>
+      <c r="M20" s="166">
+        <v>184.18436731417586</v>
+      </c>
+      <c r="N20" s="166">
+        <v>179.14618456983021</v>
+      </c>
+      <c r="O20" s="176">
+        <v>184.74706077561223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="163" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="163" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="165">
+        <v>1184.3892673799999</v>
+      </c>
+      <c r="F21" s="165">
+        <v>2115.2098572600003</v>
+      </c>
+      <c r="G21" s="165">
+        <v>2464.93296186</v>
+      </c>
+      <c r="H21" s="165">
+        <v>2144.3719371000002</v>
+      </c>
+      <c r="I21" s="165">
+        <v>1588.7181359999997</v>
+      </c>
+      <c r="J21" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="166">
+        <v>166.9032375393549</v>
+      </c>
+      <c r="L21" s="166">
+        <v>186.9542047203368</v>
+      </c>
+      <c r="M21" s="166">
+        <v>202.1404929205662</v>
+      </c>
+      <c r="N21" s="166">
+        <v>194.42510130877324</v>
+      </c>
+      <c r="O21" s="176">
+        <v>216.95242076788284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="163" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="163" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="165">
+        <v>920.47549644000003</v>
+      </c>
+      <c r="F22" s="165">
+        <v>1081.24233534</v>
+      </c>
+      <c r="G22" s="165">
+        <v>868.92198822</v>
+      </c>
+      <c r="H22" s="165">
+        <v>766.42072319999988</v>
+      </c>
+      <c r="I22" s="165">
+        <v>586.73189411999999</v>
+      </c>
+      <c r="J22" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="166">
+        <v>156.66283676069199</v>
+      </c>
+      <c r="L22" s="166">
+        <v>171.51210290835763</v>
+      </c>
+      <c r="M22" s="166">
+        <v>192.24443119677227</v>
+      </c>
+      <c r="N22" s="166">
+        <v>197.30971067615124</v>
+      </c>
+      <c r="O22" s="176">
+        <v>230.72339240506332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="171" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="171" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="172" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="201">
+        <v>7141.8465821999998</v>
+      </c>
+      <c r="F23" s="174">
+        <v>9148.4196960600002</v>
+      </c>
+      <c r="G23" s="174">
+        <v>8968.3803822600003</v>
+      </c>
+      <c r="H23" s="174">
+        <v>8284.9181819399982</v>
+      </c>
+      <c r="I23" s="202">
+        <v>5686.4911011600007</v>
+      </c>
+      <c r="J23" s="184" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="182">
+        <f>AVERAGE(K19:K22)</f>
+        <v>162.1115625832789</v>
+      </c>
+      <c r="L23" s="175">
+        <f t="shared" ref="L23" si="9">AVERAGE(L19:L22)</f>
+        <v>171.69001582891761</v>
+      </c>
+      <c r="M23" s="175">
+        <f t="shared" ref="M23" si="10">AVERAGE(M19:M22)</f>
+        <v>185.42722067529178</v>
+      </c>
+      <c r="N23" s="175">
+        <f t="shared" ref="N23" si="11">AVERAGE(N19:N22)</f>
+        <v>182.39770352923034</v>
+      </c>
+      <c r="O23" s="177">
+        <f t="shared" ref="O23" si="12">AVERAGE(O19:O22)</f>
+        <v>206.63641505743641</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="167" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="163" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="168" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="165">
+        <v>1.0842879599999999</v>
+      </c>
+      <c r="F24" s="165">
+        <v>0.94696542000000006</v>
+      </c>
+      <c r="G24" s="165">
+        <v>1.2325551000000001</v>
+      </c>
+      <c r="H24" s="165">
+        <v>0.30007518</v>
+      </c>
+      <c r="I24" s="165">
+        <v>2.2830435599999999</v>
+      </c>
+      <c r="J24" s="185" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="166">
+        <v>67.133268292682942</v>
+      </c>
+      <c r="L24" s="166">
+        <v>62.322577777777816</v>
+      </c>
+      <c r="M24" s="166">
+        <v>70.424051446945313</v>
+      </c>
+      <c r="N24" s="166">
+        <v>71.095786666666712</v>
+      </c>
+      <c r="O24" s="176">
+        <v>97.520500000000013</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="167" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="163" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="165">
+        <v>174.49065911999998</v>
+      </c>
+      <c r="F25" s="165">
+        <v>179.90971686</v>
+      </c>
+      <c r="G25" s="165">
+        <v>73.459704540000004</v>
+      </c>
+      <c r="H25" s="165">
+        <v>64.519640219999985</v>
+      </c>
+      <c r="I25" s="165">
+        <v>20.223109979999997</v>
+      </c>
+      <c r="J25" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="166">
+        <v>53.738615827238412</v>
+      </c>
+      <c r="L25" s="166">
+        <v>64.223242556952911</v>
+      </c>
+      <c r="M25" s="166">
+        <v>61.779627620805499</v>
+      </c>
+      <c r="N25" s="166">
+        <v>66.967367757009384</v>
+      </c>
+      <c r="O25" s="176">
+        <v>79.310179651291165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="167" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="163" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="165">
+        <v>646.33805273999997</v>
+      </c>
+      <c r="F26" s="165">
+        <v>601.99516889999995</v>
+      </c>
+      <c r="G26" s="165">
+        <v>207.18366005999999</v>
+      </c>
+      <c r="H26" s="165">
+        <v>209.35275102000003</v>
+      </c>
+      <c r="I26" s="165">
+        <v>138.00767196000001</v>
+      </c>
+      <c r="J26" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="166">
+        <v>62.784124594107034</v>
+      </c>
+      <c r="L26" s="166">
+        <v>63.113749011741085</v>
+      </c>
+      <c r="M26" s="166">
+        <v>64.958954177326945</v>
+      </c>
+      <c r="N26" s="166">
+        <v>69.607296908913995</v>
+      </c>
+      <c r="O26" s="176">
+        <v>69.777392175273889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="167" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="163" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="165">
+        <v>114.76971096000001</v>
+      </c>
+      <c r="F27" s="165">
+        <v>43.389416039999993</v>
+      </c>
+      <c r="G27" s="165">
+        <v>20.570633219999998</v>
+      </c>
+      <c r="H27" s="165">
+        <v>5.21516628</v>
+      </c>
+      <c r="I27" s="165">
+        <v>24.576549959999998</v>
+      </c>
+      <c r="J27" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="166">
+        <v>66.023492116934818</v>
+      </c>
+      <c r="L27" s="166">
+        <v>62.561502109704662</v>
+      </c>
+      <c r="M27" s="166">
+        <v>66.027770231213893</v>
+      </c>
+      <c r="N27" s="166">
+        <v>65.353218617771546</v>
+      </c>
+      <c r="O27" s="176">
+        <v>84.76569254658385</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="171" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="171" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="172" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="201">
+        <v>1305.0730539000001</v>
+      </c>
+      <c r="F28" s="174">
+        <v>1157.43870492</v>
+      </c>
+      <c r="G28" s="174">
+        <v>345.69697253999999</v>
+      </c>
+      <c r="H28" s="174">
+        <v>389.21192957999995</v>
+      </c>
+      <c r="I28" s="174">
+        <v>339.13883945999999</v>
+      </c>
+      <c r="J28" s="184" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" s="182">
+        <f>AVERAGE(K24:K27)</f>
+        <v>62.419875207740802</v>
+      </c>
+      <c r="L28" s="175">
+        <f t="shared" ref="L28" si="13">AVERAGE(L24:L27)</f>
+        <v>63.055267864044119</v>
+      </c>
+      <c r="M28" s="175">
+        <f t="shared" ref="M28" si="14">AVERAGE(M24:M27)</f>
+        <v>65.797600869072909</v>
+      </c>
+      <c r="N28" s="175">
+        <f t="shared" ref="N28" si="15">AVERAGE(N24:N27)</f>
+        <v>68.255917487590409</v>
+      </c>
+      <c r="O28" s="177">
+        <f t="shared" ref="O28" si="16">AVERAGE(O24:O27)</f>
+        <v>82.843441093287225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="167" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="163" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="168" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="165">
+        <v>15.767627699999998</v>
+      </c>
+      <c r="F29" s="165">
+        <v>8.7277390799999992</v>
+      </c>
+      <c r="G29" s="165">
+        <v>0.30593376</v>
+      </c>
+      <c r="H29" s="165">
+        <v>0.11124864</v>
+      </c>
+      <c r="I29" s="165">
+        <v>0</v>
+      </c>
+      <c r="J29" s="185" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="166">
+        <v>93.363132289236987</v>
+      </c>
+      <c r="L29" s="166">
+        <v>69.019805963506926</v>
+      </c>
+      <c r="M29" s="166">
+        <v>135.90720000000002</v>
+      </c>
+      <c r="N29" s="166">
+        <v>49.420800000000014</v>
+      </c>
+      <c r="O29" s="176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="167" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="163" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="165">
+        <v>36.808170539999999</v>
+      </c>
+      <c r="F30" s="165">
+        <v>0.10642014</v>
+      </c>
+      <c r="G30" s="165">
+        <v>0</v>
+      </c>
+      <c r="H30" s="165">
+        <v>0</v>
+      </c>
+      <c r="I30" s="165">
+        <v>0</v>
+      </c>
+      <c r="J30" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="166">
+        <v>139.28078194207893</v>
+      </c>
+      <c r="L30" s="166">
+        <v>189.10320000000004</v>
+      </c>
+      <c r="M30" s="166">
+        <v>0</v>
+      </c>
+      <c r="N30" s="166">
+        <v>0</v>
+      </c>
+      <c r="O30" s="176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="167" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="163" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="165">
+        <v>398.73186455999996</v>
+      </c>
+      <c r="F31" s="165">
+        <v>83.981392320000012</v>
+      </c>
+      <c r="G31" s="165">
+        <v>101.96678225999999</v>
+      </c>
+      <c r="H31" s="165">
+        <v>50.546347500000003</v>
+      </c>
+      <c r="I31" s="165">
+        <v>33.775550639999999</v>
+      </c>
+      <c r="J31" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="166">
+        <v>190.44870919011885</v>
+      </c>
+      <c r="L31" s="166">
+        <v>183.84955229764671</v>
+      </c>
+      <c r="M31" s="166">
+        <v>166.84144456721913</v>
+      </c>
+      <c r="N31" s="166">
+        <v>141.84823120656989</v>
+      </c>
+      <c r="O31" s="176">
+        <v>155.97048648648672</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="167" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="163" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="165">
+        <v>11.876371739999998</v>
+      </c>
+      <c r="F32" s="165">
+        <v>4.9452209400000005</v>
+      </c>
+      <c r="G32" s="165">
+        <v>2.0923500000000002</v>
+      </c>
+      <c r="H32" s="165">
+        <v>1.75126476</v>
+      </c>
+      <c r="I32" s="165">
+        <v>0.45214073999999999</v>
+      </c>
+      <c r="J32" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="166">
+        <v>161.59043797856046</v>
+      </c>
+      <c r="L32" s="166">
+        <v>158.04689208633127</v>
+      </c>
+      <c r="M32" s="166">
+        <v>133.74100719424473</v>
+      </c>
+      <c r="N32" s="166">
+        <v>135.30038260869532</v>
+      </c>
+      <c r="O32" s="176">
+        <v>160.68624000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="171" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="171" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="172" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="201">
+        <v>975.6959607</v>
+      </c>
+      <c r="F33" s="174">
+        <v>226.58521686</v>
+      </c>
+      <c r="G33" s="174">
+        <v>170.82473315999997</v>
+      </c>
+      <c r="H33" s="174">
+        <v>105.6559494</v>
+      </c>
+      <c r="I33" s="202">
+        <v>244.87196958000001</v>
+      </c>
+      <c r="J33" s="184" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" s="182">
+        <f>AVERAGE(K29:K32)</f>
+        <v>146.17076534999882</v>
+      </c>
+      <c r="L33" s="175">
+        <f t="shared" ref="L33" si="17">AVERAGE(L29:L32)</f>
+        <v>150.00486258687124</v>
+      </c>
+      <c r="M33" s="175">
+        <f t="shared" ref="M33" si="18">AVERAGE(M29:M32)</f>
+        <v>109.12241294036596</v>
+      </c>
+      <c r="N33" s="175">
+        <f t="shared" ref="N33" si="19">AVERAGE(N29:N32)</f>
+        <v>81.642353453816298</v>
+      </c>
+      <c r="O33" s="177">
+        <f t="shared" ref="O33" si="20">AVERAGE(O29:O32)</f>
+        <v>79.16418162162168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="167" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="163" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="168" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="169">
+        <v>47.176054500000006</v>
+      </c>
+      <c r="F34" s="169">
+        <v>31.253142239999999</v>
+      </c>
+      <c r="G34" s="169">
+        <v>7.7546997600000003</v>
+      </c>
+      <c r="H34" s="169">
+        <v>0.56519202000000002</v>
+      </c>
+      <c r="I34" s="169">
+        <v>38.636498159999995</v>
+      </c>
+      <c r="J34" s="185" t="s">
+        <v>4</v>
+      </c>
+      <c r="K34" s="166">
+        <v>146.73457027831319</v>
+      </c>
+      <c r="L34" s="166">
+        <v>114.36419110378914</v>
+      </c>
+      <c r="M34" s="166">
+        <v>110.76936334405143</v>
+      </c>
+      <c r="N34" s="166">
+        <v>125.53970000000001</v>
+      </c>
+      <c r="O34" s="176">
+        <v>74.439012035129579</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="167" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="163" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="165">
+        <v>13.071135779999999</v>
+      </c>
+      <c r="F35" s="165">
+        <v>7.3445991599999996</v>
+      </c>
+      <c r="G35" s="165">
+        <v>4.7332819800000001</v>
+      </c>
+      <c r="H35" s="165">
+        <v>8.3165440199999985</v>
+      </c>
+      <c r="I35" s="165">
+        <v>9.1567030200000001</v>
+      </c>
+      <c r="J35" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35" s="166">
+        <v>171.03642415316602</v>
+      </c>
+      <c r="L35" s="166">
+        <v>214.30181937602612</v>
+      </c>
+      <c r="M35" s="166">
+        <v>212.93170632911438</v>
+      </c>
+      <c r="N35" s="166">
+        <v>232.35971069182418</v>
+      </c>
+      <c r="O35" s="176">
+        <v>192.55618461538435</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="167" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="163" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="165">
+        <v>355.53784182000004</v>
+      </c>
+      <c r="F36" s="165">
+        <v>144.14495297999997</v>
+      </c>
+      <c r="G36" s="165">
+        <v>41.145644280000006</v>
+      </c>
+      <c r="H36" s="165">
+        <v>34.689038459999999</v>
+      </c>
+      <c r="I36" s="165">
+        <v>76.895471999999998</v>
+      </c>
+      <c r="J36" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="166">
+        <v>161.38471443533297</v>
+      </c>
+      <c r="L36" s="166">
+        <v>125.404299828641</v>
+      </c>
+      <c r="M36" s="166">
+        <v>129.86452291296601</v>
+      </c>
+      <c r="N36" s="166">
+        <v>157.89104713114764</v>
+      </c>
+      <c r="O36" s="176">
+        <v>206.31037294277468</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="167" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="163" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="165">
+        <v>59.211766740000002</v>
+      </c>
+      <c r="F37" s="165">
+        <v>36.115763639999997</v>
+      </c>
+      <c r="G37" s="165">
+        <v>22.133393340000001</v>
+      </c>
+      <c r="H37" s="165">
+        <v>30.273278639999997</v>
+      </c>
+      <c r="I37" s="165">
+        <v>52.983323640000002</v>
+      </c>
+      <c r="J37" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37" s="166">
+        <v>145.36655319148934</v>
+      </c>
+      <c r="L37" s="166">
+        <v>134.54063563941344</v>
+      </c>
+      <c r="M37" s="166">
+        <v>166.08918581081113</v>
+      </c>
+      <c r="N37" s="166">
+        <v>189.95085875706172</v>
+      </c>
+      <c r="O37" s="176">
+        <v>105.82070720467578</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="171" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="171" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="172" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="201">
+        <v>1292.3677252800001</v>
+      </c>
+      <c r="F38" s="174">
+        <v>645.11058365999997</v>
+      </c>
+      <c r="G38" s="174">
+        <v>380.26478345999993</v>
+      </c>
+      <c r="H38" s="174">
+        <v>300.90915852000001</v>
+      </c>
+      <c r="I38" s="202">
+        <v>341.65146209999995</v>
+      </c>
+      <c r="J38" s="184" t="s">
+        <v>26</v>
+      </c>
+      <c r="K38" s="182">
+        <f>AVERAGE(K34:K37)</f>
+        <v>156.13056551457538</v>
+      </c>
+      <c r="L38" s="175">
+        <f t="shared" ref="L38" si="21">AVERAGE(L34:L37)</f>
+        <v>147.15273648696743</v>
+      </c>
+      <c r="M38" s="175">
+        <f t="shared" ref="M38" si="22">AVERAGE(M34:M37)</f>
+        <v>154.91369459923575</v>
+      </c>
+      <c r="N38" s="175">
+        <f t="shared" ref="N38" si="23">AVERAGE(N34:N37)</f>
+        <v>176.43532914500838</v>
+      </c>
+      <c r="O38" s="177">
+        <f t="shared" ref="O38" si="24">AVERAGE(O34:O37)</f>
+        <v>144.78156919949112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="167" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="163" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="168" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="169">
+        <v>8.48773044</v>
+      </c>
+      <c r="F39" s="169">
+        <v>4.7423595599999997</v>
+      </c>
+      <c r="G39" s="169">
+        <v>0.66749183999999995</v>
+      </c>
+      <c r="H39" s="169">
+        <v>0</v>
+      </c>
+      <c r="I39" s="169">
+        <v>0</v>
+      </c>
+      <c r="J39" s="185" t="s">
+        <v>4</v>
+      </c>
+      <c r="K39" s="166">
+        <v>139.39248798521217</v>
+      </c>
+      <c r="L39" s="166">
+        <v>111.02678260869568</v>
+      </c>
+      <c r="M39" s="166">
+        <v>118.60992000000002</v>
+      </c>
+      <c r="N39" s="166">
+        <v>0</v>
+      </c>
+      <c r="O39" s="176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="167" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="163" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="165">
+        <v>0.31288679999999996</v>
+      </c>
+      <c r="F40" s="165">
+        <v>0.21605927999999999</v>
+      </c>
+      <c r="G40" s="165">
+        <v>0</v>
+      </c>
+      <c r="H40" s="165">
+        <v>0</v>
+      </c>
+      <c r="I40" s="165">
+        <v>0</v>
+      </c>
+      <c r="J40" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="K40" s="166">
+        <v>185.32800000000003</v>
+      </c>
+      <c r="L40" s="166">
+        <v>191.96320000000006</v>
+      </c>
+      <c r="M40" s="166">
+        <v>0</v>
+      </c>
+      <c r="N40" s="166">
+        <v>0</v>
+      </c>
+      <c r="O40" s="176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="167" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="163" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="165">
+        <v>99.046698599999999</v>
+      </c>
+      <c r="F41" s="165">
+        <v>10.45376688</v>
+      </c>
+      <c r="G41" s="165">
+        <v>2.0135488800000001</v>
+      </c>
+      <c r="H41" s="165">
+        <v>5.1790490999999994</v>
+      </c>
+      <c r="I41" s="165">
+        <v>12.800482259999999</v>
+      </c>
+      <c r="J41" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" s="166">
+        <v>197.17787138695937</v>
+      </c>
+      <c r="L41" s="166">
+        <v>147.19345800316989</v>
+      </c>
+      <c r="M41" s="166">
+        <v>114.67866666666696</v>
+      </c>
+      <c r="N41" s="166">
+        <v>205.88161073825489</v>
+      </c>
+      <c r="O41" s="176">
+        <v>191.62433698399309</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="167" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="163" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="165">
+        <v>9.9179965200000009</v>
+      </c>
+      <c r="F42" s="165">
+        <v>4.9799217599999999</v>
+      </c>
+      <c r="G42" s="165">
+        <v>0.84254105999999995</v>
+      </c>
+      <c r="H42" s="165">
+        <v>0.31269365999999998</v>
+      </c>
+      <c r="I42" s="165">
+        <v>0</v>
+      </c>
+      <c r="J42" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="166">
+        <v>149.35404745762762</v>
+      </c>
+      <c r="L42" s="166">
+        <v>130.51723893805286</v>
+      </c>
+      <c r="M42" s="166">
+        <v>205.08942465753458</v>
+      </c>
+      <c r="N42" s="166">
+        <v>213.70799999999969</v>
+      </c>
+      <c r="O42" s="176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="171" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="171" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="172" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="201">
+        <v>519.64426446000004</v>
+      </c>
+      <c r="F43" s="174">
+        <v>217.26254219999998</v>
+      </c>
+      <c r="G43" s="174">
+        <v>72.304662960000002</v>
+      </c>
+      <c r="H43" s="174">
+        <v>127.26876605999999</v>
+      </c>
+      <c r="I43" s="202">
+        <v>173.86971402</v>
+      </c>
+      <c r="J43" s="184" t="s">
+        <v>26</v>
+      </c>
+      <c r="K43" s="182">
+        <f>AVERAGE(K39:K42)</f>
+        <v>167.81310170744982</v>
+      </c>
+      <c r="L43" s="175">
+        <f t="shared" ref="L43" si="25">AVERAGE(L39:L42)</f>
+        <v>145.17516988747963</v>
+      </c>
+      <c r="M43" s="175">
+        <f t="shared" ref="M43" si="26">AVERAGE(M39:M42)</f>
+        <v>109.59450283105039</v>
+      </c>
+      <c r="N43" s="175">
+        <f t="shared" ref="N43" si="27">AVERAGE(N39:N42)</f>
+        <v>104.89740268456364</v>
+      </c>
+      <c r="O43" s="177">
+        <f t="shared" ref="O43" si="28">AVERAGE(O39:O42)</f>
+        <v>47.906084245998272</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="167" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="163" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="168" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="169">
+        <v>31.351321739999996</v>
+      </c>
+      <c r="F44" s="169">
+        <v>8.9852590799999987</v>
+      </c>
+      <c r="G44" s="169">
+        <v>3.0596595000000004</v>
+      </c>
+      <c r="H44" s="169">
+        <v>0.80706768000000007</v>
+      </c>
+      <c r="I44" s="169">
+        <v>0.54330281999999996</v>
+      </c>
+      <c r="J44" s="185" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="166">
+        <v>101.38254995450411</v>
+      </c>
+      <c r="L44" s="166">
+        <v>93.15256942823811</v>
+      </c>
+      <c r="M44" s="166">
+        <v>87.12916666666672</v>
+      </c>
+      <c r="N44" s="166">
+        <v>79.673244444444407</v>
+      </c>
+      <c r="O44" s="176">
+        <v>128.72288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="167" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="163" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="165">
+        <v>18.453110639999998</v>
+      </c>
+      <c r="F45" s="165">
+        <v>101.5546215</v>
+      </c>
+      <c r="G45" s="165">
+        <v>48.141754500000005</v>
+      </c>
+      <c r="H45" s="165">
+        <v>1.4425626599999999</v>
+      </c>
+      <c r="I45" s="165">
+        <v>1.1003185799999999</v>
+      </c>
+      <c r="J45" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="K45" s="166">
+        <v>131.00376827806613</v>
+      </c>
+      <c r="L45" s="166">
+        <v>148.62248394004328</v>
+      </c>
+      <c r="M45" s="166">
+        <v>158.15392863745564</v>
+      </c>
+      <c r="N45" s="166">
+        <v>91.548600000000022</v>
+      </c>
+      <c r="O45" s="176">
+        <v>118.49759999999979</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="167" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="163" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="165">
+        <v>247.03648956000001</v>
+      </c>
+      <c r="F46" s="165">
+        <v>240.57299508</v>
+      </c>
+      <c r="G46" s="165">
+        <v>114.361413</v>
+      </c>
+      <c r="H46" s="165">
+        <v>9.9741358800000004</v>
+      </c>
+      <c r="I46" s="165">
+        <v>33.400215240000001</v>
+      </c>
+      <c r="J46" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="166">
+        <v>158.42193251290237</v>
+      </c>
+      <c r="L46" s="166">
+        <v>132.03386058004085</v>
+      </c>
+      <c r="M46" s="166">
+        <v>123.85837752178978</v>
+      </c>
+      <c r="N46" s="166">
+        <v>179.93435939086265</v>
+      </c>
+      <c r="O46" s="176">
+        <v>185.18093978159092</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="167" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="163" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="165">
+        <v>79.4024292</v>
+      </c>
+      <c r="F47" s="165">
+        <v>42.629345759999993</v>
+      </c>
+      <c r="G47" s="165">
+        <v>15.42293718</v>
+      </c>
+      <c r="H47" s="165">
+        <v>6.0658836000000003</v>
+      </c>
+      <c r="I47" s="165">
+        <v>2.3953222800000002</v>
+      </c>
+      <c r="J47" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="166">
+        <v>138.77652798268917</v>
+      </c>
+      <c r="L47" s="166">
+        <v>99.318459158253546</v>
+      </c>
+      <c r="M47" s="166">
+        <v>128.54492682926866</v>
+      </c>
+      <c r="N47" s="166">
+        <v>97.106018018018048</v>
+      </c>
+      <c r="O47" s="176">
+        <v>100.62331914893613</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="171" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="171" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="172" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="201">
+        <v>967.87340441999993</v>
+      </c>
+      <c r="F48" s="174">
+        <v>800.49473951999994</v>
+      </c>
+      <c r="G48" s="174">
+        <v>417.73291337999996</v>
+      </c>
+      <c r="H48" s="174">
+        <v>269.52165522000001</v>
+      </c>
+      <c r="I48" s="202">
+        <v>216.06198395999996</v>
+      </c>
+      <c r="J48" s="184" t="s">
+        <v>26</v>
+      </c>
+      <c r="K48" s="182">
+        <f>AVERAGE(K44:K47)</f>
+        <v>132.39619468204046</v>
+      </c>
+      <c r="L48" s="175">
+        <f t="shared" ref="L48" si="29">AVERAGE(L44:L47)</f>
+        <v>118.28184327664394</v>
+      </c>
+      <c r="M48" s="175">
+        <f t="shared" ref="M48" si="30">AVERAGE(M44:M47)</f>
+        <v>124.42159991379521</v>
+      </c>
+      <c r="N48" s="175">
+        <f t="shared" ref="N48" si="31">AVERAGE(N44:N47)</f>
+        <v>112.06555546333129</v>
+      </c>
+      <c r="O48" s="177">
+        <f t="shared" ref="O48" si="32">AVERAGE(O44:O47)</f>
+        <v>133.25618473263171</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:O14"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="K2:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/OralB_analysis.xlsx
+++ b/OralB_analysis.xlsx
@@ -1636,7 +1636,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2087,36 +2087,6 @@
     <xf numFmtId="9" fontId="16" fillId="7" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2148,9 +2118,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="4" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2194,15 +2161,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2210,26 +2168,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="6" borderId="81" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="6" borderId="82" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="6" borderId="83" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="4" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2237,6 +2180,54 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="4" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="6" borderId="81" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="6" borderId="82" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="6" borderId="83" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3892,32 +3883,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="152"/>
-      <c r="B1" s="153"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="159" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="161"/>
+      <c r="A1" s="185"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="192" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="194"/>
       <c r="I1" s="92"/>
-      <c r="J1" s="155" t="s">
+      <c r="J1" s="188" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="156" t="s">
+      <c r="K1" s="188"/>
+      <c r="L1" s="188"/>
+      <c r="M1" s="188"/>
+      <c r="N1" s="188"/>
+      <c r="O1" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="157"/>
-      <c r="S1" s="157"/>
-      <c r="T1" s="158"/>
+      <c r="P1" s="190"/>
+      <c r="Q1" s="190"/>
+      <c r="R1" s="190"/>
+      <c r="S1" s="190"/>
+      <c r="T1" s="191"/>
       <c r="U1" s="80"/>
     </row>
     <row r="2" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10624,8 +10615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10636,83 +10627,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I1" s="179"/>
-      <c r="J1" s="179"/>
-      <c r="O1" s="179"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="O1" s="168"/>
     </row>
     <row r="2" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="152"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="189" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="188"/>
-      <c r="K2" s="195" t="s">
+      <c r="A2" s="185"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196"/>
-      <c r="O2" s="197"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="199"/>
+      <c r="O2" s="200"/>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="152" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="164" t="s">
+      <c r="C3" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="164" t="s">
+      <c r="D3" s="154" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="164" t="s">
+      <c r="E3" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="164" t="s">
+      <c r="F3" s="154" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="164" t="s">
+      <c r="G3" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="187" t="s">
+      <c r="H3" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="180" t="s">
+      <c r="I3" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="186" t="s">
+      <c r="J3" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="192" t="s">
+      <c r="K3" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="193" t="s">
+      <c r="L3" s="179" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="193" t="s">
+      <c r="M3" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="193" t="s">
+      <c r="N3" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="194" t="s">
+      <c r="O3" s="180" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="163" t="s">
+      <c r="A4" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="163" t="s">
+      <c r="B4" s="153" t="s">
         <v>94</v>
       </c>
       <c r="C4" s="39" t="s">
@@ -10721,45 +10712,45 @@
       <c r="D4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="165">
+      <c r="E4" s="155">
         <v>3959.3911166399998</v>
       </c>
-      <c r="F4" s="165">
+      <c r="F4" s="155">
         <v>2096.6305618199999</v>
       </c>
-      <c r="G4" s="165">
+      <c r="G4" s="155">
         <v>2231.9793397799999</v>
       </c>
-      <c r="H4" s="165">
+      <c r="H4" s="155">
         <v>2271.1712441999998</v>
       </c>
-      <c r="I4" s="165">
+      <c r="I4" s="155">
         <v>1391.9980929600001</v>
       </c>
       <c r="J4" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="181">
+      <c r="K4" s="170">
         <v>53.396681457510027</v>
       </c>
-      <c r="L4" s="166">
+      <c r="L4" s="156">
         <v>50.792386902741264</v>
       </c>
-      <c r="M4" s="166">
+      <c r="M4" s="156">
         <v>53.225930808283493</v>
       </c>
-      <c r="N4" s="166">
+      <c r="N4" s="156">
         <v>56.647759021939009</v>
       </c>
-      <c r="O4" s="176">
+      <c r="O4" s="165">
         <v>79.830564469331463</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="163" t="s">
+      <c r="A5" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="163" t="s">
+      <c r="B5" s="153" t="s">
         <v>94</v>
       </c>
       <c r="C5" s="39" t="s">
@@ -10768,45 +10759,45 @@
       <c r="D5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="165">
+      <c r="E5" s="155">
         <v>799.53824585999996</v>
       </c>
-      <c r="F5" s="165">
+      <c r="F5" s="155">
         <v>472.20096857999999</v>
       </c>
-      <c r="G5" s="165">
+      <c r="G5" s="155">
         <v>658.68227393999996</v>
       </c>
-      <c r="H5" s="165">
+      <c r="H5" s="155">
         <v>1437.5036796000002</v>
       </c>
-      <c r="I5" s="165">
+      <c r="I5" s="155">
         <v>1686.5006045400003</v>
       </c>
       <c r="J5" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="181">
+      <c r="K5" s="170">
         <v>57.338495558577961</v>
       </c>
-      <c r="L5" s="166">
+      <c r="L5" s="156">
         <v>55.776728181606664</v>
       </c>
-      <c r="M5" s="166">
+      <c r="M5" s="156">
         <v>58.425849707981882</v>
       </c>
-      <c r="N5" s="166">
+      <c r="N5" s="156">
         <v>60.917862222582627</v>
       </c>
-      <c r="O5" s="176">
+      <c r="O5" s="165">
         <v>69.577938432606274</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="163" t="s">
+      <c r="A6" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="163" t="s">
+      <c r="B6" s="153" t="s">
         <v>94</v>
       </c>
       <c r="C6" s="39" t="s">
@@ -10815,45 +10806,45 @@
       <c r="D6" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="165">
+      <c r="E6" s="155">
         <v>5414.0388683400006</v>
       </c>
-      <c r="F6" s="165">
+      <c r="F6" s="155">
         <v>9208.6848483599988</v>
       </c>
-      <c r="G6" s="165">
+      <c r="G6" s="155">
         <v>7853.7581113799988</v>
       </c>
-      <c r="H6" s="165">
+      <c r="H6" s="155">
         <v>6585.3848764799995</v>
       </c>
-      <c r="I6" s="165">
+      <c r="I6" s="155">
         <v>5555.9169371400003</v>
       </c>
       <c r="J6" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="181">
+      <c r="K6" s="170">
         <v>59.83603071017275</v>
       </c>
-      <c r="L6" s="166">
+      <c r="L6" s="156">
         <v>55.864961190375261</v>
       </c>
-      <c r="M6" s="166">
+      <c r="M6" s="156">
         <v>65.511157317595831</v>
       </c>
-      <c r="N6" s="166">
+      <c r="N6" s="156">
         <v>68.863075082136774</v>
       </c>
-      <c r="O6" s="176">
+      <c r="O6" s="165">
         <v>94.269251755269678</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="163" t="s">
+      <c r="A7" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="163" t="s">
+      <c r="B7" s="153" t="s">
         <v>94</v>
       </c>
       <c r="C7" s="39" t="s">
@@ -10862,144 +10853,144 @@
       <c r="D7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="165">
+      <c r="E7" s="155">
         <v>2078.7929239800001</v>
       </c>
-      <c r="F7" s="165">
+      <c r="F7" s="155">
         <v>1380.4497373199999</v>
       </c>
-      <c r="G7" s="165">
+      <c r="G7" s="155">
         <v>2701.7445554400001</v>
       </c>
-      <c r="H7" s="165">
+      <c r="H7" s="155">
         <v>5007.1000989000004</v>
       </c>
-      <c r="I7" s="165">
+      <c r="I7" s="155">
         <v>5387.6637987000004</v>
       </c>
       <c r="J7" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="181">
+      <c r="K7" s="170">
         <v>57.578880822522159</v>
       </c>
-      <c r="L7" s="166">
+      <c r="L7" s="156">
         <v>61.221420892244304</v>
       </c>
-      <c r="M7" s="166">
+      <c r="M7" s="156">
         <v>59.418610116922174</v>
       </c>
-      <c r="N7" s="166">
+      <c r="N7" s="156">
         <v>60.565009815800558</v>
       </c>
-      <c r="O7" s="176">
+      <c r="O7" s="165">
         <v>72.426522755831485</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="171" t="s">
+      <c r="A8" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="171" t="s">
+      <c r="B8" s="161" t="s">
         <v>94</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="172" t="s">
+      <c r="D8" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="174">
+      <c r="E8" s="163">
         <v>14164.25352138</v>
       </c>
-      <c r="F8" s="174">
+      <c r="F8" s="163">
         <v>15275.724777540001</v>
       </c>
-      <c r="G8" s="174">
+      <c r="G8" s="163">
         <v>15641.07728598</v>
       </c>
-      <c r="H8" s="174">
+      <c r="H8" s="163">
         <v>18181.582195799998</v>
       </c>
-      <c r="I8" s="174">
+      <c r="I8" s="163">
         <v>16887.71969568</v>
       </c>
-      <c r="J8" s="184" t="s">
+      <c r="J8" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="182">
+      <c r="K8" s="171">
         <f>AVERAGE(K4:K7)</f>
         <v>57.037522137195729</v>
       </c>
-      <c r="L8" s="175">
+      <c r="L8" s="164">
         <f t="shared" ref="L8:O8" si="0">AVERAGE(L4:L7)</f>
         <v>55.913874291741877</v>
       </c>
-      <c r="M8" s="175">
+      <c r="M8" s="164">
         <f t="shared" si="0"/>
         <v>59.145386987695844</v>
       </c>
-      <c r="N8" s="175">
+      <c r="N8" s="164">
         <f t="shared" si="0"/>
         <v>61.74842653561474</v>
       </c>
-      <c r="O8" s="177">
+      <c r="O8" s="166">
         <f t="shared" si="0"/>
         <v>79.026069353259714</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="167" t="s">
+      <c r="A9" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="167" t="s">
+      <c r="B9" s="157" t="s">
         <v>96</v>
       </c>
       <c r="C9" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="168" t="s">
+      <c r="D9" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="169">
+      <c r="E9" s="159">
         <v>6025.8590690399997</v>
       </c>
-      <c r="F9" s="169">
+      <c r="F9" s="159">
         <v>6887.8121797799995</v>
       </c>
-      <c r="G9" s="169">
+      <c r="G9" s="159">
         <v>5386.3879158600002</v>
       </c>
-      <c r="H9" s="169">
+      <c r="H9" s="159">
         <v>4235.9537549400002</v>
       </c>
-      <c r="I9" s="169">
+      <c r="I9" s="159">
         <v>3091.0940006999999</v>
       </c>
-      <c r="J9" s="185" t="s">
+      <c r="J9" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="183">
+      <c r="K9" s="172">
         <v>147.19304583644922</v>
       </c>
-      <c r="L9" s="170">
+      <c r="L9" s="160">
         <v>138.55871896428164</v>
       </c>
-      <c r="M9" s="170">
+      <c r="M9" s="160">
         <v>154.46960871235265</v>
       </c>
-      <c r="N9" s="170">
+      <c r="N9" s="160">
         <v>162.25676983998656</v>
       </c>
-      <c r="O9" s="178">
+      <c r="O9" s="167">
         <v>181.15583950079846</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="163" t="s">
+      <c r="B10" s="153" t="s">
         <v>96</v>
       </c>
       <c r="C10" s="39" t="s">
@@ -11008,45 +10999,45 @@
       <c r="D10" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="165">
+      <c r="E10" s="155">
         <v>261.24000516000001</v>
       </c>
-      <c r="F10" s="165">
+      <c r="F10" s="155">
         <v>98.566037520000009</v>
       </c>
-      <c r="G10" s="165">
+      <c r="G10" s="155">
         <v>407.66355948</v>
       </c>
-      <c r="H10" s="165">
+      <c r="H10" s="155">
         <v>1034.6097768</v>
       </c>
-      <c r="I10" s="165">
+      <c r="I10" s="155">
         <v>223.62103289999999</v>
       </c>
       <c r="J10" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="181">
+      <c r="K10" s="170">
         <v>109.58434900025964</v>
       </c>
-      <c r="L10" s="166">
+      <c r="L10" s="156">
         <v>170.16113630622735</v>
       </c>
-      <c r="M10" s="166">
+      <c r="M10" s="156">
         <v>130.1866366658881</v>
       </c>
-      <c r="N10" s="166">
+      <c r="N10" s="156">
         <v>90.912422189474938</v>
       </c>
-      <c r="O10" s="176">
+      <c r="O10" s="165">
         <v>129.58624184711692</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="163" t="s">
+      <c r="A11" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="163" t="s">
+      <c r="B11" s="153" t="s">
         <v>96</v>
       </c>
       <c r="C11" s="39" t="s">
@@ -11055,45 +11046,45 @@
       <c r="D11" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="165">
+      <c r="E11" s="155">
         <v>5088.2481918000003</v>
       </c>
-      <c r="F11" s="165">
+      <c r="F11" s="155">
         <v>3743.1397910999999</v>
       </c>
-      <c r="G11" s="165">
+      <c r="G11" s="155">
         <v>2207.9049538199997</v>
       </c>
-      <c r="H11" s="165">
+      <c r="H11" s="155">
         <v>2280.38794938</v>
       </c>
-      <c r="I11" s="165">
+      <c r="I11" s="155">
         <v>1403.82399078</v>
       </c>
       <c r="J11" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="181">
+      <c r="K11" s="170">
         <v>95.762492615167901</v>
       </c>
-      <c r="L11" s="166">
+      <c r="L11" s="156">
         <v>138.36640340165616</v>
       </c>
-      <c r="M11" s="166">
+      <c r="M11" s="156">
         <v>175.60201330218177</v>
       </c>
-      <c r="N11" s="166">
+      <c r="N11" s="156">
         <v>174.37833142837425</v>
       </c>
-      <c r="O11" s="176">
+      <c r="O11" s="165">
         <v>186.65021634604605</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="163" t="s">
+      <c r="A12" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="163" t="s">
+      <c r="B12" s="153" t="s">
         <v>96</v>
       </c>
       <c r="C12" s="39" t="s">
@@ -11102,145 +11093,145 @@
       <c r="D12" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="165">
+      <c r="E12" s="155">
         <v>4061.7246073799997</v>
       </c>
-      <c r="F12" s="165">
+      <c r="F12" s="155">
         <v>3149.8590346200003</v>
       </c>
-      <c r="G12" s="165">
+      <c r="G12" s="155">
         <v>3859.6598655000003</v>
       </c>
-      <c r="H12" s="165">
+      <c r="H12" s="155">
         <v>6222.9636538199993</v>
       </c>
-      <c r="I12" s="165">
+      <c r="I12" s="155">
         <v>1723.8532367400001</v>
       </c>
       <c r="J12" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="181">
+      <c r="K12" s="170">
         <v>150.39547727443212</v>
       </c>
-      <c r="L12" s="166">
+      <c r="L12" s="156">
         <v>158.37032902968423</v>
       </c>
-      <c r="M12" s="166">
+      <c r="M12" s="156">
         <v>151.39365324633152</v>
       </c>
-      <c r="N12" s="166">
+      <c r="N12" s="156">
         <v>106.9953188033204</v>
       </c>
-      <c r="O12" s="176">
+      <c r="O12" s="165">
         <v>139.49633003324419</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="171" t="s">
+      <c r="A13" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="171" t="s">
+      <c r="B13" s="161" t="s">
         <v>96</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="172" t="s">
+      <c r="D13" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="174">
+      <c r="E13" s="163">
         <v>17452.971460320001</v>
       </c>
-      <c r="F13" s="174">
+      <c r="F13" s="163">
         <v>16471.109955779997</v>
       </c>
-      <c r="G13" s="174">
+      <c r="G13" s="163">
         <v>14735.472796980001</v>
       </c>
-      <c r="H13" s="174">
+      <c r="H13" s="163">
         <v>18031.26474594</v>
       </c>
-      <c r="I13" s="174">
+      <c r="I13" s="163">
         <v>8927.1362365799996</v>
       </c>
-      <c r="J13" s="184" t="s">
+      <c r="J13" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="182">
+      <c r="K13" s="171">
         <f>AVERAGE(K9:K12)</f>
         <v>125.73384118157722</v>
       </c>
-      <c r="L13" s="175">
+      <c r="L13" s="164">
         <f t="shared" ref="L13" si="1">AVERAGE(L9:L12)</f>
         <v>151.36414692546236</v>
       </c>
-      <c r="M13" s="175">
+      <c r="M13" s="164">
         <f t="shared" ref="M13" si="2">AVERAGE(M9:M12)</f>
         <v>152.91297798168853</v>
       </c>
-      <c r="N13" s="175">
+      <c r="N13" s="164">
         <f t="shared" ref="N13" si="3">AVERAGE(N9:N12)</f>
         <v>133.63571056528903</v>
       </c>
-      <c r="O13" s="177">
+      <c r="O13" s="166">
         <f t="shared" ref="O13" si="4">AVERAGE(O9:O12)</f>
         <v>159.22215693180141</v>
       </c>
-      <c r="R13" s="198"/>
+      <c r="R13" s="181"/>
     </row>
     <row r="14" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="163" t="s">
+      <c r="A14" s="153" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="163" t="s">
+      <c r="B14" s="153" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="168" t="s">
+      <c r="D14" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="165">
+      <c r="E14" s="155">
         <v>2280.2282869800001</v>
       </c>
-      <c r="F14" s="165">
+      <c r="F14" s="155">
         <v>4176.4531151400006</v>
       </c>
-      <c r="G14" s="165">
+      <c r="G14" s="155">
         <v>2766.7036535400002</v>
       </c>
-      <c r="H14" s="165">
+      <c r="H14" s="155">
         <v>2689.3306106999999</v>
       </c>
-      <c r="I14" s="165">
+      <c r="I14" s="155">
         <v>2463.1373392800001</v>
       </c>
-      <c r="J14" s="185" t="s">
+      <c r="J14" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="166">
+      <c r="K14" s="156">
         <v>143.42020283452922</v>
       </c>
-      <c r="L14" s="166">
+      <c r="L14" s="156">
         <v>151.24706687291231</v>
       </c>
-      <c r="M14" s="166">
+      <c r="M14" s="156">
         <v>153.93575208924946</v>
       </c>
-      <c r="N14" s="166">
+      <c r="N14" s="156">
         <v>158.75793377008253</v>
       </c>
-      <c r="O14" s="203">
+      <c r="O14" s="184">
         <v>184.77474823958553</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="163" t="s">
+      <c r="A15" s="153" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="163" t="s">
+      <c r="B15" s="153" t="s">
         <v>98</v>
       </c>
       <c r="C15" s="39" t="s">
@@ -11249,45 +11240,45 @@
       <c r="D15" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="165">
+      <c r="E15" s="155">
         <v>29.13336636</v>
       </c>
-      <c r="F15" s="165">
+      <c r="F15" s="155">
         <v>18.268983839999997</v>
       </c>
-      <c r="G15" s="165">
+      <c r="G15" s="155">
         <v>73.287616799999995</v>
       </c>
-      <c r="H15" s="165">
+      <c r="H15" s="155">
         <v>79.816456979999998</v>
       </c>
-      <c r="I15" s="165">
+      <c r="I15" s="155">
         <v>92.30926722000001</v>
       </c>
       <c r="J15" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="166">
+      <c r="K15" s="156">
         <v>137.71885288640564</v>
       </c>
-      <c r="L15" s="166">
+      <c r="L15" s="156">
         <v>162.23417891054436</v>
       </c>
-      <c r="M15" s="166">
+      <c r="M15" s="156">
         <v>135.27410823724969</v>
       </c>
-      <c r="N15" s="166">
+      <c r="N15" s="156">
         <v>130.31036604189606</v>
       </c>
-      <c r="O15" s="176">
+      <c r="O15" s="165">
         <v>139.89671095948779</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="163" t="s">
+      <c r="A16" s="153" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="163" t="s">
+      <c r="B16" s="153" t="s">
         <v>98</v>
       </c>
       <c r="C16" s="39" t="s">
@@ -11296,45 +11287,45 @@
       <c r="D16" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="165">
+      <c r="E16" s="155">
         <v>734.33559821999995</v>
       </c>
-      <c r="F16" s="165">
+      <c r="F16" s="155">
         <v>910.60803821999991</v>
       </c>
-      <c r="G16" s="165">
+      <c r="G16" s="155">
         <v>1298.35506528</v>
       </c>
-      <c r="H16" s="165">
+      <c r="H16" s="155">
         <v>1412.7042460800001</v>
       </c>
-      <c r="I16" s="165">
+      <c r="I16" s="155">
         <v>1158.5551184999999</v>
       </c>
       <c r="J16" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="166">
+      <c r="K16" s="156">
         <v>179.96816451052297</v>
       </c>
-      <c r="L16" s="166">
+      <c r="L16" s="156">
         <v>179.33903460199929</v>
       </c>
-      <c r="M16" s="166">
+      <c r="M16" s="156">
         <v>185.85201885014109</v>
       </c>
-      <c r="N16" s="166">
+      <c r="N16" s="156">
         <v>190.73808300281138</v>
       </c>
-      <c r="O16" s="176">
+      <c r="O16" s="165">
         <v>196.81020429624382</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="163" t="s">
+      <c r="A17" s="153" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="163" t="s">
+      <c r="B17" s="153" t="s">
         <v>98</v>
       </c>
       <c r="C17" s="39" t="s">
@@ -11343,144 +11334,144 @@
       <c r="D17" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="165">
+      <c r="E17" s="155">
         <v>457.82530085999997</v>
       </c>
-      <c r="F17" s="165">
+      <c r="F17" s="155">
         <v>456.09122555999994</v>
       </c>
-      <c r="G17" s="165">
+      <c r="G17" s="155">
         <v>389.01299537999995</v>
       </c>
-      <c r="H17" s="165">
+      <c r="H17" s="155">
         <v>281.44734204000002</v>
       </c>
-      <c r="I17" s="165">
+      <c r="I17" s="155">
         <v>349.94547312000003</v>
       </c>
       <c r="J17" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="K17" s="166">
+      <c r="K17" s="156">
         <v>173.01837022543558</v>
       </c>
-      <c r="L17" s="166">
+      <c r="L17" s="156">
         <v>164.1785537638761</v>
       </c>
-      <c r="M17" s="166">
+      <c r="M17" s="156">
         <v>165.96792182473018</v>
       </c>
-      <c r="N17" s="166">
+      <c r="N17" s="156">
         <v>159.98646039667264</v>
       </c>
-      <c r="O17" s="176">
+      <c r="O17" s="165">
         <v>206.58982910298991</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="171" t="s">
+      <c r="A18" s="161" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="171" t="s">
+      <c r="B18" s="161" t="s">
         <v>98</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="172" t="s">
+      <c r="D18" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="199">
+      <c r="E18" s="182">
         <v>4100.2964036399999</v>
       </c>
-      <c r="F18" s="173">
+      <c r="F18" s="163">
         <v>6286.5358779600001</v>
       </c>
-      <c r="G18" s="173">
+      <c r="G18" s="163">
         <v>5557.88361738</v>
       </c>
-      <c r="H18" s="173">
+      <c r="H18" s="163">
         <v>5378.9700522599996</v>
       </c>
-      <c r="I18" s="200">
+      <c r="I18" s="183">
         <v>4673.2596046799999</v>
       </c>
-      <c r="J18" s="184" t="s">
+      <c r="J18" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="182">
+      <c r="K18" s="171">
         <f>AVERAGE(K14:K17)</f>
         <v>158.53139761422335</v>
       </c>
-      <c r="L18" s="175">
+      <c r="L18" s="164">
         <f t="shared" ref="L18" si="5">AVERAGE(L14:L17)</f>
         <v>164.24970853733299</v>
       </c>
-      <c r="M18" s="175">
+      <c r="M18" s="164">
         <f t="shared" ref="M18" si="6">AVERAGE(M14:M17)</f>
         <v>160.2574502503426</v>
       </c>
-      <c r="N18" s="175">
+      <c r="N18" s="164">
         <f t="shared" ref="N18" si="7">AVERAGE(N14:N17)</f>
         <v>159.94821080286565</v>
       </c>
-      <c r="O18" s="177">
+      <c r="O18" s="166">
         <f t="shared" ref="O18" si="8">AVERAGE(O14:O17)</f>
         <v>182.01787314957676</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="163" t="s">
+      <c r="A19" s="153" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="163" t="s">
+      <c r="B19" s="153" t="s">
         <v>99</v>
       </c>
       <c r="C19" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="168" t="s">
+      <c r="D19" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="165">
+      <c r="E19" s="155">
         <v>3928.9680901199999</v>
       </c>
-      <c r="F19" s="165">
+      <c r="F19" s="155">
         <v>4788.2291511599997</v>
       </c>
-      <c r="G19" s="165">
+      <c r="G19" s="155">
         <v>4052.0457181800002</v>
       </c>
-      <c r="H19" s="165">
+      <c r="H19" s="155">
         <v>4235.0648602800002</v>
       </c>
-      <c r="I19" s="165">
+      <c r="I19" s="155">
         <v>2300.0764478400001</v>
       </c>
-      <c r="J19" s="185" t="s">
+      <c r="J19" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="K19" s="166">
+      <c r="K19" s="156">
         <v>147.07997079289345</v>
       </c>
-      <c r="L19" s="166">
+      <c r="L19" s="156">
         <v>137.92655225472669</v>
       </c>
-      <c r="M19" s="166">
+      <c r="M19" s="156">
         <v>163.13959126965273</v>
       </c>
-      <c r="N19" s="166">
+      <c r="N19" s="156">
         <v>158.70981756216673</v>
       </c>
-      <c r="O19" s="176">
+      <c r="O19" s="165">
         <v>194.12278628118722</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="163" t="s">
+      <c r="A20" s="153" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="163" t="s">
+      <c r="B20" s="153" t="s">
         <v>99</v>
       </c>
       <c r="C20" s="39" t="s">
@@ -11489,45 +11480,45 @@
       <c r="D20" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="165">
+      <c r="E20" s="155">
         <v>73.323412079999997</v>
       </c>
-      <c r="F20" s="165">
+      <c r="F20" s="155">
         <v>59.929346219999999</v>
       </c>
-      <c r="G20" s="165">
+      <c r="G20" s="155">
         <v>64.564834980000001</v>
       </c>
-      <c r="H20" s="165">
+      <c r="H20" s="155">
         <v>122.57295324</v>
       </c>
-      <c r="I20" s="165">
+      <c r="I20" s="155">
         <v>53.886961320000005</v>
       </c>
       <c r="J20" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="166">
+      <c r="K20" s="156">
         <v>177.80020524017525</v>
       </c>
-      <c r="L20" s="166">
+      <c r="L20" s="156">
         <v>190.36720343224931</v>
       </c>
-      <c r="M20" s="166">
+      <c r="M20" s="156">
         <v>184.18436731417586</v>
       </c>
-      <c r="N20" s="166">
+      <c r="N20" s="156">
         <v>179.14618456983021</v>
       </c>
-      <c r="O20" s="176">
+      <c r="O20" s="165">
         <v>184.74706077561223</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="163" t="s">
+      <c r="A21" s="153" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="163" t="s">
+      <c r="B21" s="153" t="s">
         <v>99</v>
       </c>
       <c r="C21" s="39" t="s">
@@ -11536,45 +11527,45 @@
       <c r="D21" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="165">
+      <c r="E21" s="155">
         <v>1184.3892673799999</v>
       </c>
-      <c r="F21" s="165">
+      <c r="F21" s="155">
         <v>2115.2098572600003</v>
       </c>
-      <c r="G21" s="165">
+      <c r="G21" s="155">
         <v>2464.93296186</v>
       </c>
-      <c r="H21" s="165">
+      <c r="H21" s="155">
         <v>2144.3719371000002</v>
       </c>
-      <c r="I21" s="165">
+      <c r="I21" s="155">
         <v>1588.7181359999997</v>
       </c>
       <c r="J21" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="K21" s="166">
+      <c r="K21" s="156">
         <v>166.9032375393549</v>
       </c>
-      <c r="L21" s="166">
+      <c r="L21" s="156">
         <v>186.9542047203368</v>
       </c>
-      <c r="M21" s="166">
+      <c r="M21" s="156">
         <v>202.1404929205662</v>
       </c>
-      <c r="N21" s="166">
+      <c r="N21" s="156">
         <v>194.42510130877324</v>
       </c>
-      <c r="O21" s="176">
+      <c r="O21" s="165">
         <v>216.95242076788284</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="163" t="s">
+      <c r="A22" s="153" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="163" t="s">
+      <c r="B22" s="153" t="s">
         <v>99</v>
       </c>
       <c r="C22" s="39" t="s">
@@ -11583,144 +11574,144 @@
       <c r="D22" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="165">
+      <c r="E22" s="155">
         <v>920.47549644000003</v>
       </c>
-      <c r="F22" s="165">
+      <c r="F22" s="155">
         <v>1081.24233534</v>
       </c>
-      <c r="G22" s="165">
+      <c r="G22" s="155">
         <v>868.92198822</v>
       </c>
-      <c r="H22" s="165">
+      <c r="H22" s="155">
         <v>766.42072319999988</v>
       </c>
-      <c r="I22" s="165">
+      <c r="I22" s="155">
         <v>586.73189411999999</v>
       </c>
       <c r="J22" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="166">
+      <c r="K22" s="156">
         <v>156.66283676069199</v>
       </c>
-      <c r="L22" s="166">
+      <c r="L22" s="156">
         <v>171.51210290835763</v>
       </c>
-      <c r="M22" s="166">
+      <c r="M22" s="156">
         <v>192.24443119677227</v>
       </c>
-      <c r="N22" s="166">
+      <c r="N22" s="156">
         <v>197.30971067615124</v>
       </c>
-      <c r="O22" s="176">
+      <c r="O22" s="165">
         <v>230.72339240506332</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="171" t="s">
+      <c r="A23" s="161" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="171" t="s">
+      <c r="B23" s="161" t="s">
         <v>99</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="172" t="s">
+      <c r="D23" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="201">
+      <c r="E23" s="182">
         <v>7141.8465821999998</v>
       </c>
-      <c r="F23" s="174">
+      <c r="F23" s="163">
         <v>9148.4196960600002</v>
       </c>
-      <c r="G23" s="174">
+      <c r="G23" s="163">
         <v>8968.3803822600003</v>
       </c>
-      <c r="H23" s="174">
+      <c r="H23" s="163">
         <v>8284.9181819399982</v>
       </c>
-      <c r="I23" s="202">
+      <c r="I23" s="183">
         <v>5686.4911011600007</v>
       </c>
-      <c r="J23" s="184" t="s">
+      <c r="J23" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="K23" s="182">
+      <c r="K23" s="171">
         <f>AVERAGE(K19:K22)</f>
         <v>162.1115625832789</v>
       </c>
-      <c r="L23" s="175">
+      <c r="L23" s="164">
         <f t="shared" ref="L23" si="9">AVERAGE(L19:L22)</f>
         <v>171.69001582891761</v>
       </c>
-      <c r="M23" s="175">
+      <c r="M23" s="164">
         <f t="shared" ref="M23" si="10">AVERAGE(M19:M22)</f>
         <v>185.42722067529178</v>
       </c>
-      <c r="N23" s="175">
+      <c r="N23" s="164">
         <f t="shared" ref="N23" si="11">AVERAGE(N19:N22)</f>
         <v>182.39770352923034</v>
       </c>
-      <c r="O23" s="177">
+      <c r="O23" s="166">
         <f t="shared" ref="O23" si="12">AVERAGE(O19:O22)</f>
         <v>206.63641505743641</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="167" t="s">
+      <c r="A24" s="157" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="163" t="s">
+      <c r="B24" s="153" t="s">
         <v>101</v>
       </c>
       <c r="C24" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="168" t="s">
+      <c r="D24" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="165">
+      <c r="E24" s="155">
         <v>1.0842879599999999</v>
       </c>
-      <c r="F24" s="165">
+      <c r="F24" s="155">
         <v>0.94696542000000006</v>
       </c>
-      <c r="G24" s="165">
+      <c r="G24" s="155">
         <v>1.2325551000000001</v>
       </c>
-      <c r="H24" s="165">
+      <c r="H24" s="155">
         <v>0.30007518</v>
       </c>
-      <c r="I24" s="165">
+      <c r="I24" s="155">
         <v>2.2830435599999999</v>
       </c>
-      <c r="J24" s="185" t="s">
+      <c r="J24" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="166">
+      <c r="K24" s="156">
         <v>67.133268292682942</v>
       </c>
-      <c r="L24" s="166">
+      <c r="L24" s="156">
         <v>62.322577777777816</v>
       </c>
-      <c r="M24" s="166">
+      <c r="M24" s="156">
         <v>70.424051446945313</v>
       </c>
-      <c r="N24" s="166">
+      <c r="N24" s="156">
         <v>71.095786666666712</v>
       </c>
-      <c r="O24" s="176">
+      <c r="O24" s="165">
         <v>97.520500000000013</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="167" t="s">
+      <c r="A25" s="157" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="163" t="s">
+      <c r="B25" s="153" t="s">
         <v>101</v>
       </c>
       <c r="C25" s="39" t="s">
@@ -11729,45 +11720,45 @@
       <c r="D25" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="165">
+      <c r="E25" s="155">
         <v>174.49065911999998</v>
       </c>
-      <c r="F25" s="165">
+      <c r="F25" s="155">
         <v>179.90971686</v>
       </c>
-      <c r="G25" s="165">
+      <c r="G25" s="155">
         <v>73.459704540000004</v>
       </c>
-      <c r="H25" s="165">
+      <c r="H25" s="155">
         <v>64.519640219999985</v>
       </c>
-      <c r="I25" s="165">
+      <c r="I25" s="155">
         <v>20.223109979999997</v>
       </c>
       <c r="J25" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="166">
+      <c r="K25" s="156">
         <v>53.738615827238412</v>
       </c>
-      <c r="L25" s="166">
+      <c r="L25" s="156">
         <v>64.223242556952911</v>
       </c>
-      <c r="M25" s="166">
+      <c r="M25" s="156">
         <v>61.779627620805499</v>
       </c>
-      <c r="N25" s="166">
+      <c r="N25" s="156">
         <v>66.967367757009384</v>
       </c>
-      <c r="O25" s="176">
+      <c r="O25" s="165">
         <v>79.310179651291165</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="167" t="s">
+      <c r="A26" s="157" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="163" t="s">
+      <c r="B26" s="153" t="s">
         <v>101</v>
       </c>
       <c r="C26" s="39" t="s">
@@ -11776,45 +11767,45 @@
       <c r="D26" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="165">
+      <c r="E26" s="155">
         <v>646.33805273999997</v>
       </c>
-      <c r="F26" s="165">
+      <c r="F26" s="155">
         <v>601.99516889999995</v>
       </c>
-      <c r="G26" s="165">
+      <c r="G26" s="155">
         <v>207.18366005999999</v>
       </c>
-      <c r="H26" s="165">
+      <c r="H26" s="155">
         <v>209.35275102000003</v>
       </c>
-      <c r="I26" s="165">
+      <c r="I26" s="155">
         <v>138.00767196000001</v>
       </c>
       <c r="J26" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="K26" s="166">
+      <c r="K26" s="156">
         <v>62.784124594107034</v>
       </c>
-      <c r="L26" s="166">
+      <c r="L26" s="156">
         <v>63.113749011741085</v>
       </c>
-      <c r="M26" s="166">
+      <c r="M26" s="156">
         <v>64.958954177326945</v>
       </c>
-      <c r="N26" s="166">
+      <c r="N26" s="156">
         <v>69.607296908913995</v>
       </c>
-      <c r="O26" s="176">
+      <c r="O26" s="165">
         <v>69.777392175273889</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="167" t="s">
+      <c r="A27" s="157" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="163" t="s">
+      <c r="B27" s="153" t="s">
         <v>101</v>
       </c>
       <c r="C27" s="39" t="s">
@@ -11823,144 +11814,144 @@
       <c r="D27" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="165">
+      <c r="E27" s="155">
         <v>114.76971096000001</v>
       </c>
-      <c r="F27" s="165">
+      <c r="F27" s="155">
         <v>43.389416039999993</v>
       </c>
-      <c r="G27" s="165">
+      <c r="G27" s="155">
         <v>20.570633219999998</v>
       </c>
-      <c r="H27" s="165">
+      <c r="H27" s="155">
         <v>5.21516628</v>
       </c>
-      <c r="I27" s="165">
+      <c r="I27" s="155">
         <v>24.576549959999998</v>
       </c>
       <c r="J27" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="K27" s="166">
+      <c r="K27" s="156">
         <v>66.023492116934818</v>
       </c>
-      <c r="L27" s="166">
+      <c r="L27" s="156">
         <v>62.561502109704662</v>
       </c>
-      <c r="M27" s="166">
+      <c r="M27" s="156">
         <v>66.027770231213893</v>
       </c>
-      <c r="N27" s="166">
+      <c r="N27" s="156">
         <v>65.353218617771546</v>
       </c>
-      <c r="O27" s="176">
+      <c r="O27" s="165">
         <v>84.76569254658385</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="171" t="s">
+      <c r="A28" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="171" t="s">
+      <c r="B28" s="161" t="s">
         <v>101</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="172" t="s">
+      <c r="D28" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="201">
+      <c r="E28" s="182">
         <v>1305.0730539000001</v>
       </c>
-      <c r="F28" s="174">
+      <c r="F28" s="163">
         <v>1157.43870492</v>
       </c>
-      <c r="G28" s="174">
+      <c r="G28" s="163">
         <v>345.69697253999999</v>
       </c>
-      <c r="H28" s="174">
+      <c r="H28" s="163">
         <v>389.21192957999995</v>
       </c>
-      <c r="I28" s="174">
+      <c r="I28" s="163">
         <v>339.13883945999999</v>
       </c>
-      <c r="J28" s="184" t="s">
+      <c r="J28" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="K28" s="182">
+      <c r="K28" s="171">
         <f>AVERAGE(K24:K27)</f>
         <v>62.419875207740802</v>
       </c>
-      <c r="L28" s="175">
+      <c r="L28" s="164">
         <f t="shared" ref="L28" si="13">AVERAGE(L24:L27)</f>
         <v>63.055267864044119</v>
       </c>
-      <c r="M28" s="175">
+      <c r="M28" s="164">
         <f t="shared" ref="M28" si="14">AVERAGE(M24:M27)</f>
         <v>65.797600869072909</v>
       </c>
-      <c r="N28" s="175">
+      <c r="N28" s="164">
         <f t="shared" ref="N28" si="15">AVERAGE(N24:N27)</f>
         <v>68.255917487590409</v>
       </c>
-      <c r="O28" s="177">
+      <c r="O28" s="166">
         <f t="shared" ref="O28" si="16">AVERAGE(O24:O27)</f>
         <v>82.843441093287225</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="167" t="s">
+      <c r="A29" s="157" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="163" t="s">
+      <c r="B29" s="153" t="s">
         <v>104</v>
       </c>
       <c r="C29" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="168" t="s">
+      <c r="D29" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="165">
+      <c r="E29" s="155">
         <v>15.767627699999998</v>
       </c>
-      <c r="F29" s="165">
+      <c r="F29" s="155">
         <v>8.7277390799999992</v>
       </c>
-      <c r="G29" s="165">
+      <c r="G29" s="155">
         <v>0.30593376</v>
       </c>
-      <c r="H29" s="165">
+      <c r="H29" s="155">
         <v>0.11124864</v>
       </c>
-      <c r="I29" s="165">
-        <v>0</v>
-      </c>
-      <c r="J29" s="185" t="s">
+      <c r="I29" s="155">
+        <v>0</v>
+      </c>
+      <c r="J29" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="166">
+      <c r="K29" s="156">
         <v>93.363132289236987</v>
       </c>
-      <c r="L29" s="166">
+      <c r="L29" s="156">
         <v>69.019805963506926</v>
       </c>
-      <c r="M29" s="166">
+      <c r="M29" s="156">
         <v>135.90720000000002</v>
       </c>
-      <c r="N29" s="166">
+      <c r="N29" s="156">
         <v>49.420800000000014</v>
       </c>
-      <c r="O29" s="176">
+      <c r="O29" s="165">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="167" t="s">
+      <c r="A30" s="157" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="163" t="s">
+      <c r="B30" s="153" t="s">
         <v>104</v>
       </c>
       <c r="C30" s="39" t="s">
@@ -11969,45 +11960,45 @@
       <c r="D30" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="165">
+      <c r="E30" s="155">
         <v>36.808170539999999</v>
       </c>
-      <c r="F30" s="165">
+      <c r="F30" s="155">
         <v>0.10642014</v>
       </c>
-      <c r="G30" s="165">
-        <v>0</v>
-      </c>
-      <c r="H30" s="165">
-        <v>0</v>
-      </c>
-      <c r="I30" s="165">
+      <c r="G30" s="155">
+        <v>0</v>
+      </c>
+      <c r="H30" s="155">
+        <v>0</v>
+      </c>
+      <c r="I30" s="155">
         <v>0</v>
       </c>
       <c r="J30" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="K30" s="166">
+      <c r="K30" s="156">
         <v>139.28078194207893</v>
       </c>
-      <c r="L30" s="166">
+      <c r="L30" s="156">
         <v>189.10320000000004</v>
       </c>
-      <c r="M30" s="166">
-        <v>0</v>
-      </c>
-      <c r="N30" s="166">
-        <v>0</v>
-      </c>
-      <c r="O30" s="176">
+      <c r="M30" s="156">
+        <v>0</v>
+      </c>
+      <c r="N30" s="156">
+        <v>0</v>
+      </c>
+      <c r="O30" s="165">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="167" t="s">
+      <c r="A31" s="157" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="163" t="s">
+      <c r="B31" s="153" t="s">
         <v>104</v>
       </c>
       <c r="C31" s="39" t="s">
@@ -12016,45 +12007,45 @@
       <c r="D31" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="165">
+      <c r="E31" s="155">
         <v>398.73186455999996</v>
       </c>
-      <c r="F31" s="165">
+      <c r="F31" s="155">
         <v>83.981392320000012</v>
       </c>
-      <c r="G31" s="165">
+      <c r="G31" s="155">
         <v>101.96678225999999</v>
       </c>
-      <c r="H31" s="165">
+      <c r="H31" s="155">
         <v>50.546347500000003</v>
       </c>
-      <c r="I31" s="165">
+      <c r="I31" s="155">
         <v>33.775550639999999</v>
       </c>
       <c r="J31" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="K31" s="166">
+      <c r="K31" s="156">
         <v>190.44870919011885</v>
       </c>
-      <c r="L31" s="166">
+      <c r="L31" s="156">
         <v>183.84955229764671</v>
       </c>
-      <c r="M31" s="166">
+      <c r="M31" s="156">
         <v>166.84144456721913</v>
       </c>
-      <c r="N31" s="166">
+      <c r="N31" s="156">
         <v>141.84823120656989</v>
       </c>
-      <c r="O31" s="176">
+      <c r="O31" s="165">
         <v>155.97048648648672</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="167" t="s">
+      <c r="A32" s="157" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="163" t="s">
+      <c r="B32" s="153" t="s">
         <v>104</v>
       </c>
       <c r="C32" s="39" t="s">
@@ -12063,144 +12054,144 @@
       <c r="D32" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="165">
+      <c r="E32" s="155">
         <v>11.876371739999998</v>
       </c>
-      <c r="F32" s="165">
+      <c r="F32" s="155">
         <v>4.9452209400000005</v>
       </c>
-      <c r="G32" s="165">
+      <c r="G32" s="155">
         <v>2.0923500000000002</v>
       </c>
-      <c r="H32" s="165">
+      <c r="H32" s="155">
         <v>1.75126476</v>
       </c>
-      <c r="I32" s="165">
+      <c r="I32" s="155">
         <v>0.45214073999999999</v>
       </c>
       <c r="J32" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="K32" s="166">
+      <c r="K32" s="156">
         <v>161.59043797856046</v>
       </c>
-      <c r="L32" s="166">
+      <c r="L32" s="156">
         <v>158.04689208633127</v>
       </c>
-      <c r="M32" s="166">
+      <c r="M32" s="156">
         <v>133.74100719424473</v>
       </c>
-      <c r="N32" s="166">
+      <c r="N32" s="156">
         <v>135.30038260869532</v>
       </c>
-      <c r="O32" s="176">
+      <c r="O32" s="165">
         <v>160.68624000000003</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="171" t="s">
+      <c r="A33" s="161" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="171" t="s">
+      <c r="B33" s="161" t="s">
         <v>104</v>
       </c>
       <c r="C33" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="172" t="s">
+      <c r="D33" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="201">
+      <c r="E33" s="182">
         <v>975.6959607</v>
       </c>
-      <c r="F33" s="174">
+      <c r="F33" s="163">
         <v>226.58521686</v>
       </c>
-      <c r="G33" s="174">
+      <c r="G33" s="163">
         <v>170.82473315999997</v>
       </c>
-      <c r="H33" s="174">
+      <c r="H33" s="163">
         <v>105.6559494</v>
       </c>
-      <c r="I33" s="202">
+      <c r="I33" s="183">
         <v>244.87196958000001</v>
       </c>
-      <c r="J33" s="184" t="s">
+      <c r="J33" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="K33" s="182">
+      <c r="K33" s="171">
         <f>AVERAGE(K29:K32)</f>
         <v>146.17076534999882</v>
       </c>
-      <c r="L33" s="175">
+      <c r="L33" s="164">
         <f t="shared" ref="L33" si="17">AVERAGE(L29:L32)</f>
         <v>150.00486258687124</v>
       </c>
-      <c r="M33" s="175">
-        <f t="shared" ref="M33" si="18">AVERAGE(M29:M32)</f>
-        <v>109.12241294036596</v>
-      </c>
-      <c r="N33" s="175">
-        <f t="shared" ref="N33" si="19">AVERAGE(N29:N32)</f>
-        <v>81.642353453816298</v>
-      </c>
-      <c r="O33" s="177">
-        <f t="shared" ref="O33" si="20">AVERAGE(O29:O32)</f>
-        <v>79.16418162162168</v>
+      <c r="M33" s="164">
+        <f>AVERAGE(M29,M31,M32)</f>
+        <v>145.49655058715462</v>
+      </c>
+      <c r="N33" s="164">
+        <f>AVERAGE(N29,N31:N32)</f>
+        <v>108.85647127175507</v>
+      </c>
+      <c r="O33" s="166">
+        <f>AVERAGE(O31:O32)</f>
+        <v>158.32836324324336</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="167" t="s">
+      <c r="A34" s="157" t="s">
         <v>103</v>
       </c>
-      <c r="B34" s="163" t="s">
+      <c r="B34" s="153" t="s">
         <v>105</v>
       </c>
       <c r="C34" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="168" t="s">
+      <c r="D34" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="169">
+      <c r="E34" s="159">
         <v>47.176054500000006</v>
       </c>
-      <c r="F34" s="169">
+      <c r="F34" s="159">
         <v>31.253142239999999</v>
       </c>
-      <c r="G34" s="169">
+      <c r="G34" s="159">
         <v>7.7546997600000003</v>
       </c>
-      <c r="H34" s="169">
+      <c r="H34" s="159">
         <v>0.56519202000000002</v>
       </c>
-      <c r="I34" s="169">
+      <c r="I34" s="159">
         <v>38.636498159999995</v>
       </c>
-      <c r="J34" s="185" t="s">
+      <c r="J34" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="K34" s="166">
+      <c r="K34" s="156">
         <v>146.73457027831319</v>
       </c>
-      <c r="L34" s="166">
+      <c r="L34" s="156">
         <v>114.36419110378914</v>
       </c>
-      <c r="M34" s="166">
+      <c r="M34" s="156">
         <v>110.76936334405143</v>
       </c>
-      <c r="N34" s="166">
+      <c r="N34" s="156">
         <v>125.53970000000001</v>
       </c>
-      <c r="O34" s="176">
+      <c r="O34" s="165">
         <v>74.439012035129579</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="167" t="s">
+      <c r="A35" s="157" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="163" t="s">
+      <c r="B35" s="153" t="s">
         <v>105</v>
       </c>
       <c r="C35" s="39" t="s">
@@ -12209,45 +12200,45 @@
       <c r="D35" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="165">
+      <c r="E35" s="155">
         <v>13.071135779999999</v>
       </c>
-      <c r="F35" s="165">
+      <c r="F35" s="155">
         <v>7.3445991599999996</v>
       </c>
-      <c r="G35" s="165">
+      <c r="G35" s="155">
         <v>4.7332819800000001</v>
       </c>
-      <c r="H35" s="165">
+      <c r="H35" s="155">
         <v>8.3165440199999985</v>
       </c>
-      <c r="I35" s="165">
+      <c r="I35" s="155">
         <v>9.1567030200000001</v>
       </c>
       <c r="J35" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="K35" s="166">
+      <c r="K35" s="156">
         <v>171.03642415316602</v>
       </c>
-      <c r="L35" s="166">
+      <c r="L35" s="156">
         <v>214.30181937602612</v>
       </c>
-      <c r="M35" s="166">
+      <c r="M35" s="156">
         <v>212.93170632911438</v>
       </c>
-      <c r="N35" s="166">
+      <c r="N35" s="156">
         <v>232.35971069182418</v>
       </c>
-      <c r="O35" s="176">
+      <c r="O35" s="165">
         <v>192.55618461538435</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="167" t="s">
+      <c r="A36" s="157" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="163" t="s">
+      <c r="B36" s="153" t="s">
         <v>105</v>
       </c>
       <c r="C36" s="39" t="s">
@@ -12256,45 +12247,45 @@
       <c r="D36" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="165">
+      <c r="E36" s="155">
         <v>355.53784182000004</v>
       </c>
-      <c r="F36" s="165">
+      <c r="F36" s="155">
         <v>144.14495297999997</v>
       </c>
-      <c r="G36" s="165">
+      <c r="G36" s="155">
         <v>41.145644280000006</v>
       </c>
-      <c r="H36" s="165">
+      <c r="H36" s="155">
         <v>34.689038459999999</v>
       </c>
-      <c r="I36" s="165">
+      <c r="I36" s="155">
         <v>76.895471999999998</v>
       </c>
       <c r="J36" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="K36" s="166">
+      <c r="K36" s="156">
         <v>161.38471443533297</v>
       </c>
-      <c r="L36" s="166">
+      <c r="L36" s="156">
         <v>125.404299828641</v>
       </c>
-      <c r="M36" s="166">
+      <c r="M36" s="156">
         <v>129.86452291296601</v>
       </c>
-      <c r="N36" s="166">
+      <c r="N36" s="156">
         <v>157.89104713114764</v>
       </c>
-      <c r="O36" s="176">
+      <c r="O36" s="165">
         <v>206.31037294277468</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="167" t="s">
+      <c r="A37" s="157" t="s">
         <v>103</v>
       </c>
-      <c r="B37" s="163" t="s">
+      <c r="B37" s="153" t="s">
         <v>105</v>
       </c>
       <c r="C37" s="39" t="s">
@@ -12303,144 +12294,144 @@
       <c r="D37" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="165">
+      <c r="E37" s="155">
         <v>59.211766740000002</v>
       </c>
-      <c r="F37" s="165">
+      <c r="F37" s="155">
         <v>36.115763639999997</v>
       </c>
-      <c r="G37" s="165">
+      <c r="G37" s="155">
         <v>22.133393340000001</v>
       </c>
-      <c r="H37" s="165">
+      <c r="H37" s="155">
         <v>30.273278639999997</v>
       </c>
-      <c r="I37" s="165">
+      <c r="I37" s="155">
         <v>52.983323640000002</v>
       </c>
       <c r="J37" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="K37" s="166">
+      <c r="K37" s="156">
         <v>145.36655319148934</v>
       </c>
-      <c r="L37" s="166">
+      <c r="L37" s="156">
         <v>134.54063563941344</v>
       </c>
-      <c r="M37" s="166">
+      <c r="M37" s="156">
         <v>166.08918581081113</v>
       </c>
-      <c r="N37" s="166">
+      <c r="N37" s="156">
         <v>189.95085875706172</v>
       </c>
-      <c r="O37" s="176">
+      <c r="O37" s="165">
         <v>105.82070720467578</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="171" t="s">
+      <c r="A38" s="161" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="171" t="s">
+      <c r="B38" s="161" t="s">
         <v>105</v>
       </c>
       <c r="C38" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="172" t="s">
+      <c r="D38" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="201">
+      <c r="E38" s="182">
         <v>1292.3677252800001</v>
       </c>
-      <c r="F38" s="174">
+      <c r="F38" s="163">
         <v>645.11058365999997</v>
       </c>
-      <c r="G38" s="174">
+      <c r="G38" s="163">
         <v>380.26478345999993</v>
       </c>
-      <c r="H38" s="174">
+      <c r="H38" s="163">
         <v>300.90915852000001</v>
       </c>
-      <c r="I38" s="202">
+      <c r="I38" s="183">
         <v>341.65146209999995</v>
       </c>
-      <c r="J38" s="184" t="s">
+      <c r="J38" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="K38" s="182">
+      <c r="K38" s="171">
         <f>AVERAGE(K34:K37)</f>
         <v>156.13056551457538</v>
       </c>
-      <c r="L38" s="175">
-        <f t="shared" ref="L38" si="21">AVERAGE(L34:L37)</f>
+      <c r="L38" s="164">
+        <f t="shared" ref="L38" si="18">AVERAGE(L34:L37)</f>
         <v>147.15273648696743</v>
       </c>
-      <c r="M38" s="175">
-        <f t="shared" ref="M38" si="22">AVERAGE(M34:M37)</f>
+      <c r="M38" s="164">
+        <f t="shared" ref="M38" si="19">AVERAGE(M34:M37)</f>
         <v>154.91369459923575</v>
       </c>
-      <c r="N38" s="175">
-        <f t="shared" ref="N38" si="23">AVERAGE(N34:N37)</f>
+      <c r="N38" s="164">
+        <f t="shared" ref="N38" si="20">AVERAGE(N34:N37)</f>
         <v>176.43532914500838</v>
       </c>
-      <c r="O38" s="177">
-        <f t="shared" ref="O38" si="24">AVERAGE(O34:O37)</f>
+      <c r="O38" s="166">
+        <f t="shared" ref="O38" si="21">AVERAGE(O34:O37)</f>
         <v>144.78156919949112</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="167" t="s">
+      <c r="A39" s="157" t="s">
         <v>103</v>
       </c>
-      <c r="B39" s="163" t="s">
+      <c r="B39" s="153" t="s">
         <v>106</v>
       </c>
       <c r="C39" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="168" t="s">
+      <c r="D39" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="169">
+      <c r="E39" s="159">
         <v>8.48773044</v>
       </c>
-      <c r="F39" s="169">
+      <c r="F39" s="159">
         <v>4.7423595599999997</v>
       </c>
-      <c r="G39" s="169">
+      <c r="G39" s="159">
         <v>0.66749183999999995</v>
       </c>
-      <c r="H39" s="169">
-        <v>0</v>
-      </c>
-      <c r="I39" s="169">
-        <v>0</v>
-      </c>
-      <c r="J39" s="185" t="s">
+      <c r="H39" s="159">
+        <v>0</v>
+      </c>
+      <c r="I39" s="159">
+        <v>0</v>
+      </c>
+      <c r="J39" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="K39" s="166">
+      <c r="K39" s="156">
         <v>139.39248798521217</v>
       </c>
-      <c r="L39" s="166">
+      <c r="L39" s="156">
         <v>111.02678260869568</v>
       </c>
-      <c r="M39" s="166">
+      <c r="M39" s="156">
         <v>118.60992000000002</v>
       </c>
-      <c r="N39" s="166">
-        <v>0</v>
-      </c>
-      <c r="O39" s="176">
+      <c r="N39" s="156">
+        <v>0</v>
+      </c>
+      <c r="O39" s="165">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="167" t="s">
+      <c r="A40" s="157" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="163" t="s">
+      <c r="B40" s="153" t="s">
         <v>106</v>
       </c>
       <c r="C40" s="39" t="s">
@@ -12449,45 +12440,45 @@
       <c r="D40" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="165">
+      <c r="E40" s="155">
         <v>0.31288679999999996</v>
       </c>
-      <c r="F40" s="165">
+      <c r="F40" s="155">
         <v>0.21605927999999999</v>
       </c>
-      <c r="G40" s="165">
-        <v>0</v>
-      </c>
-      <c r="H40" s="165">
-        <v>0</v>
-      </c>
-      <c r="I40" s="165">
+      <c r="G40" s="155">
+        <v>0</v>
+      </c>
+      <c r="H40" s="155">
+        <v>0</v>
+      </c>
+      <c r="I40" s="155">
         <v>0</v>
       </c>
       <c r="J40" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="K40" s="166">
+      <c r="K40" s="156">
         <v>185.32800000000003</v>
       </c>
-      <c r="L40" s="166">
+      <c r="L40" s="156">
         <v>191.96320000000006</v>
       </c>
-      <c r="M40" s="166">
-        <v>0</v>
-      </c>
-      <c r="N40" s="166">
-        <v>0</v>
-      </c>
-      <c r="O40" s="176">
+      <c r="M40" s="156">
+        <v>0</v>
+      </c>
+      <c r="N40" s="156">
+        <v>0</v>
+      </c>
+      <c r="O40" s="165">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="167" t="s">
+      <c r="A41" s="157" t="s">
         <v>103</v>
       </c>
-      <c r="B41" s="163" t="s">
+      <c r="B41" s="153" t="s">
         <v>106</v>
       </c>
       <c r="C41" s="39" t="s">
@@ -12496,45 +12487,45 @@
       <c r="D41" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="165">
+      <c r="E41" s="155">
         <v>99.046698599999999</v>
       </c>
-      <c r="F41" s="165">
+      <c r="F41" s="155">
         <v>10.45376688</v>
       </c>
-      <c r="G41" s="165">
+      <c r="G41" s="155">
         <v>2.0135488800000001</v>
       </c>
-      <c r="H41" s="165">
+      <c r="H41" s="155">
         <v>5.1790490999999994</v>
       </c>
-      <c r="I41" s="165">
+      <c r="I41" s="155">
         <v>12.800482259999999</v>
       </c>
       <c r="J41" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="K41" s="166">
+      <c r="K41" s="156">
         <v>197.17787138695937</v>
       </c>
-      <c r="L41" s="166">
+      <c r="L41" s="156">
         <v>147.19345800316989</v>
       </c>
-      <c r="M41" s="166">
+      <c r="M41" s="156">
         <v>114.67866666666696</v>
       </c>
-      <c r="N41" s="166">
+      <c r="N41" s="156">
         <v>205.88161073825489</v>
       </c>
-      <c r="O41" s="176">
+      <c r="O41" s="165">
         <v>191.62433698399309</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="167" t="s">
+      <c r="A42" s="157" t="s">
         <v>103</v>
       </c>
-      <c r="B42" s="163" t="s">
+      <c r="B42" s="153" t="s">
         <v>106</v>
       </c>
       <c r="C42" s="39" t="s">
@@ -12543,144 +12534,143 @@
       <c r="D42" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="165">
+      <c r="E42" s="155">
         <v>9.9179965200000009</v>
       </c>
-      <c r="F42" s="165">
+      <c r="F42" s="155">
         <v>4.9799217599999999</v>
       </c>
-      <c r="G42" s="165">
+      <c r="G42" s="155">
         <v>0.84254105999999995</v>
       </c>
-      <c r="H42" s="165">
+      <c r="H42" s="155">
         <v>0.31269365999999998</v>
       </c>
-      <c r="I42" s="165">
+      <c r="I42" s="155">
         <v>0</v>
       </c>
       <c r="J42" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="166">
+      <c r="K42" s="156">
         <v>149.35404745762762</v>
       </c>
-      <c r="L42" s="166">
+      <c r="L42" s="156">
         <v>130.51723893805286</v>
       </c>
-      <c r="M42" s="166">
+      <c r="M42" s="156">
         <v>205.08942465753458</v>
       </c>
-      <c r="N42" s="166">
+      <c r="N42" s="156">
         <v>213.70799999999969</v>
       </c>
-      <c r="O42" s="176">
+      <c r="O42" s="165">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="171" t="s">
+      <c r="A43" s="161" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="171" t="s">
+      <c r="B43" s="161" t="s">
         <v>106</v>
       </c>
       <c r="C43" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="172" t="s">
+      <c r="D43" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="201">
+      <c r="E43" s="182">
         <v>519.64426446000004</v>
       </c>
-      <c r="F43" s="174">
+      <c r="F43" s="163">
         <v>217.26254219999998</v>
       </c>
-      <c r="G43" s="174">
+      <c r="G43" s="163">
         <v>72.304662960000002</v>
       </c>
-      <c r="H43" s="174">
+      <c r="H43" s="163">
         <v>127.26876605999999</v>
       </c>
-      <c r="I43" s="202">
+      <c r="I43" s="183">
         <v>173.86971402</v>
       </c>
-      <c r="J43" s="184" t="s">
+      <c r="J43" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="K43" s="182">
+      <c r="K43" s="171">
         <f>AVERAGE(K39:K42)</f>
         <v>167.81310170744982</v>
       </c>
-      <c r="L43" s="175">
-        <f t="shared" ref="L43" si="25">AVERAGE(L39:L42)</f>
+      <c r="L43" s="164">
+        <f t="shared" ref="L43" si="22">AVERAGE(L39:L42)</f>
         <v>145.17516988747963</v>
       </c>
-      <c r="M43" s="175">
-        <f t="shared" ref="M43" si="26">AVERAGE(M39:M42)</f>
-        <v>109.59450283105039</v>
-      </c>
-      <c r="N43" s="175">
-        <f t="shared" ref="N43" si="27">AVERAGE(N39:N42)</f>
-        <v>104.89740268456364</v>
-      </c>
-      <c r="O43" s="177">
-        <f t="shared" ref="O43" si="28">AVERAGE(O39:O42)</f>
-        <v>47.906084245998272</v>
+      <c r="M43" s="164">
+        <f>AVERAGE(M39,M41:M42)</f>
+        <v>146.12600377473385</v>
+      </c>
+      <c r="N43" s="164">
+        <f>AVERAGE(N41:N42)</f>
+        <v>209.79480536912729</v>
+      </c>
+      <c r="O43" s="166">
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="167" t="s">
+      <c r="A44" s="157" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="163" t="s">
+      <c r="B44" s="153" t="s">
         <v>107</v>
       </c>
       <c r="C44" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="168" t="s">
+      <c r="D44" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="169">
+      <c r="E44" s="159">
         <v>31.351321739999996</v>
       </c>
-      <c r="F44" s="169">
+      <c r="F44" s="159">
         <v>8.9852590799999987</v>
       </c>
-      <c r="G44" s="169">
+      <c r="G44" s="159">
         <v>3.0596595000000004</v>
       </c>
-      <c r="H44" s="169">
+      <c r="H44" s="159">
         <v>0.80706768000000007</v>
       </c>
-      <c r="I44" s="169">
+      <c r="I44" s="159">
         <v>0.54330281999999996</v>
       </c>
-      <c r="J44" s="185" t="s">
+      <c r="J44" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="166">
+      <c r="K44" s="156">
         <v>101.38254995450411</v>
       </c>
-      <c r="L44" s="166">
+      <c r="L44" s="156">
         <v>93.15256942823811</v>
       </c>
-      <c r="M44" s="166">
+      <c r="M44" s="156">
         <v>87.12916666666672</v>
       </c>
-      <c r="N44" s="166">
+      <c r="N44" s="156">
         <v>79.673244444444407</v>
       </c>
-      <c r="O44" s="176">
+      <c r="O44" s="165">
         <v>128.72288</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="167" t="s">
+      <c r="A45" s="157" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="163" t="s">
+      <c r="B45" s="153" t="s">
         <v>107</v>
       </c>
       <c r="C45" s="39" t="s">
@@ -12689,45 +12679,45 @@
       <c r="D45" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="165">
+      <c r="E45" s="155">
         <v>18.453110639999998</v>
       </c>
-      <c r="F45" s="165">
+      <c r="F45" s="155">
         <v>101.5546215</v>
       </c>
-      <c r="G45" s="165">
+      <c r="G45" s="155">
         <v>48.141754500000005</v>
       </c>
-      <c r="H45" s="165">
+      <c r="H45" s="155">
         <v>1.4425626599999999</v>
       </c>
-      <c r="I45" s="165">
+      <c r="I45" s="155">
         <v>1.1003185799999999</v>
       </c>
       <c r="J45" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="K45" s="166">
+      <c r="K45" s="156">
         <v>131.00376827806613</v>
       </c>
-      <c r="L45" s="166">
+      <c r="L45" s="156">
         <v>148.62248394004328</v>
       </c>
-      <c r="M45" s="166">
+      <c r="M45" s="156">
         <v>158.15392863745564</v>
       </c>
-      <c r="N45" s="166">
+      <c r="N45" s="156">
         <v>91.548600000000022</v>
       </c>
-      <c r="O45" s="176">
+      <c r="O45" s="165">
         <v>118.49759999999979</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="167" t="s">
+      <c r="A46" s="157" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="163" t="s">
+      <c r="B46" s="153" t="s">
         <v>107</v>
       </c>
       <c r="C46" s="39" t="s">
@@ -12736,45 +12726,45 @@
       <c r="D46" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="165">
+      <c r="E46" s="155">
         <v>247.03648956000001</v>
       </c>
-      <c r="F46" s="165">
+      <c r="F46" s="155">
         <v>240.57299508</v>
       </c>
-      <c r="G46" s="165">
+      <c r="G46" s="155">
         <v>114.361413</v>
       </c>
-      <c r="H46" s="165">
+      <c r="H46" s="155">
         <v>9.9741358800000004</v>
       </c>
-      <c r="I46" s="165">
+      <c r="I46" s="155">
         <v>33.400215240000001</v>
       </c>
       <c r="J46" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="K46" s="166">
+      <c r="K46" s="156">
         <v>158.42193251290237</v>
       </c>
-      <c r="L46" s="166">
+      <c r="L46" s="156">
         <v>132.03386058004085</v>
       </c>
-      <c r="M46" s="166">
+      <c r="M46" s="156">
         <v>123.85837752178978</v>
       </c>
-      <c r="N46" s="166">
+      <c r="N46" s="156">
         <v>179.93435939086265</v>
       </c>
-      <c r="O46" s="176">
+      <c r="O46" s="165">
         <v>185.18093978159092</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="167" t="s">
+      <c r="A47" s="157" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="163" t="s">
+      <c r="B47" s="153" t="s">
         <v>107</v>
       </c>
       <c r="C47" s="39" t="s">
@@ -12783,89 +12773,89 @@
       <c r="D47" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="165">
+      <c r="E47" s="155">
         <v>79.4024292</v>
       </c>
-      <c r="F47" s="165">
+      <c r="F47" s="155">
         <v>42.629345759999993</v>
       </c>
-      <c r="G47" s="165">
+      <c r="G47" s="155">
         <v>15.42293718</v>
       </c>
-      <c r="H47" s="165">
+      <c r="H47" s="155">
         <v>6.0658836000000003</v>
       </c>
-      <c r="I47" s="165">
+      <c r="I47" s="155">
         <v>2.3953222800000002</v>
       </c>
       <c r="J47" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="166">
+      <c r="K47" s="156">
         <v>138.77652798268917</v>
       </c>
-      <c r="L47" s="166">
+      <c r="L47" s="156">
         <v>99.318459158253546</v>
       </c>
-      <c r="M47" s="166">
+      <c r="M47" s="156">
         <v>128.54492682926866</v>
       </c>
-      <c r="N47" s="166">
+      <c r="N47" s="156">
         <v>97.106018018018048</v>
       </c>
-      <c r="O47" s="176">
+      <c r="O47" s="165">
         <v>100.62331914893613</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="171" t="s">
+      <c r="A48" s="161" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="171" t="s">
+      <c r="B48" s="161" t="s">
         <v>107</v>
       </c>
       <c r="C48" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="172" t="s">
+      <c r="D48" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="201">
+      <c r="E48" s="182">
         <v>967.87340441999993</v>
       </c>
-      <c r="F48" s="174">
+      <c r="F48" s="163">
         <v>800.49473951999994</v>
       </c>
-      <c r="G48" s="174">
+      <c r="G48" s="163">
         <v>417.73291337999996</v>
       </c>
-      <c r="H48" s="174">
+      <c r="H48" s="163">
         <v>269.52165522000001</v>
       </c>
-      <c r="I48" s="202">
+      <c r="I48" s="183">
         <v>216.06198395999996</v>
       </c>
-      <c r="J48" s="184" t="s">
+      <c r="J48" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="K48" s="182">
+      <c r="K48" s="171">
         <f>AVERAGE(K44:K47)</f>
         <v>132.39619468204046</v>
       </c>
-      <c r="L48" s="175">
-        <f t="shared" ref="L48" si="29">AVERAGE(L44:L47)</f>
+      <c r="L48" s="164">
+        <f t="shared" ref="L48" si="23">AVERAGE(L44:L47)</f>
         <v>118.28184327664394</v>
       </c>
-      <c r="M48" s="175">
-        <f t="shared" ref="M48" si="30">AVERAGE(M44:M47)</f>
+      <c r="M48" s="164">
+        <f t="shared" ref="M48" si="24">AVERAGE(M44:M47)</f>
         <v>124.42159991379521</v>
       </c>
-      <c r="N48" s="175">
-        <f t="shared" ref="N48" si="31">AVERAGE(N44:N47)</f>
+      <c r="N48" s="164">
+        <f t="shared" ref="N48" si="25">AVERAGE(N44:N47)</f>
         <v>112.06555546333129</v>
       </c>
-      <c r="O48" s="177">
-        <f t="shared" ref="O48" si="32">AVERAGE(O44:O47)</f>
+      <c r="O48" s="166">
+        <f t="shared" ref="O48" si="26">AVERAGE(O44:O47)</f>
         <v>133.25618473263171</v>
       </c>
     </row>
@@ -12877,6 +12867,7 @@
     <mergeCell ref="K2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>